--- a/DB_csv/교통사고예방시스템_최종본.xlsx
+++ b/DB_csv/교통사고예방시스템_최종본.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-009\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29\Desktop\DB_Modeling_Project\DB_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13789" uniqueCount="3138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16533" uniqueCount="3140">
   <si>
     <t>교통사고 종류</t>
   </si>
@@ -9495,6 +9495,14 @@
   </si>
   <si>
     <t>총계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022A13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9840,7 +9848,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9946,10 +9954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9971,6 +9979,9610 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B7" t="s">
+        <v>865</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>893</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>773</v>
+      </c>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>800</v>
+      </c>
+      <c r="B32" t="s">
+        <v>799</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>943</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>906</v>
+      </c>
+      <c r="B47" t="s">
+        <v>799</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B50" t="s">
+        <v>799</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B53" t="s">
+        <v>865</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>866</v>
+      </c>
+      <c r="B54" t="s">
+        <v>865</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>683</v>
+      </c>
+      <c r="B57" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>470</v>
+      </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B62" t="s">
+        <v>305</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>916</v>
+      </c>
+      <c r="B63" t="s">
+        <v>915</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>383</v>
+      </c>
+      <c r="B64" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>811</v>
+      </c>
+      <c r="B65" t="s">
+        <v>810</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>727</v>
+      </c>
+      <c r="B67" t="s">
+        <v>454</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>855</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>648</v>
+      </c>
+      <c r="B69" t="s">
+        <v>647</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B72" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>651</v>
+      </c>
+      <c r="B73" t="s">
+        <v>462</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>629</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>380</v>
+      </c>
+      <c r="B80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>931</v>
+      </c>
+      <c r="B81" t="s">
+        <v>637</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85" t="s">
+        <v>454</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>621</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>375</v>
+      </c>
+      <c r="B92" t="s">
+        <v>374</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>512</v>
+      </c>
+      <c r="B95" t="s">
+        <v>511</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B96" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>580</v>
+      </c>
+      <c r="B98" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B100" t="s">
+        <v>454</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B101" t="s">
+        <v>462</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>638</v>
+      </c>
+      <c r="B102" t="s">
+        <v>637</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>463</v>
+      </c>
+      <c r="B104" t="s">
+        <v>462</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B108" t="s">
+        <v>514</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>409</v>
+      </c>
+      <c r="B110" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>889</v>
+      </c>
+      <c r="B111" t="s">
+        <v>888</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C112" t="s">
+        <v>111</v>
+      </c>
+      <c r="D112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>876</v>
+      </c>
+      <c r="B113" t="s">
+        <v>669</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>515</v>
+      </c>
+      <c r="B114" t="s">
+        <v>514</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>852</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>853</v>
+      </c>
+      <c r="B118" t="s">
+        <v>852</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C119" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B120" t="s">
+        <v>888</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>662</v>
+      </c>
+      <c r="B121" t="s">
+        <v>330</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>860</v>
+      </c>
+      <c r="B122" t="s">
+        <v>478</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B124" t="s">
+        <v>466</v>
+      </c>
+      <c r="C124" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B125" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B126" t="s">
+        <v>466</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C127" t="s">
+        <v>111</v>
+      </c>
+      <c r="D127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>706</v>
+      </c>
+      <c r="B128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B129" t="s">
+        <v>852</v>
+      </c>
+      <c r="C129" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>985</v>
+      </c>
+      <c r="B130" t="s">
+        <v>984</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C131" t="s">
+        <v>111</v>
+      </c>
+      <c r="D131" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>666</v>
+      </c>
+      <c r="B132" t="s">
+        <v>665</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B133" t="s">
+        <v>984</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>625</v>
+      </c>
+      <c r="B134" t="s">
+        <v>624</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B135" t="s">
+        <v>767</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B136" t="s">
+        <v>665</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>103</v>
+      </c>
+      <c r="B137" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B138" t="s">
+        <v>665</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C140" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B141" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>940</v>
+      </c>
+      <c r="B142" t="s">
+        <v>665</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>473</v>
+      </c>
+      <c r="B143" t="s">
+        <v>330</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C145" t="s">
+        <v>111</v>
+      </c>
+      <c r="D145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>973</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B148" t="s">
+        <v>984</v>
+      </c>
+      <c r="C148" t="s">
+        <v>111</v>
+      </c>
+      <c r="D148" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" t="s">
+        <v>330</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B150" t="s">
+        <v>478</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>768</v>
+      </c>
+      <c r="B151" t="s">
+        <v>767</v>
+      </c>
+      <c r="C151" t="s">
+        <v>111</v>
+      </c>
+      <c r="D151" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>479</v>
+      </c>
+      <c r="B152" t="s">
+        <v>478</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B153" t="s">
+        <v>852</v>
+      </c>
+      <c r="C153" t="s">
+        <v>111</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B154" t="s">
+        <v>665</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B156" t="s">
+        <v>198</v>
+      </c>
+      <c r="C156" t="s">
+        <v>111</v>
+      </c>
+      <c r="D156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>199</v>
+      </c>
+      <c r="B157" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" t="s">
+        <v>111</v>
+      </c>
+      <c r="D157" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B158" t="s">
+        <v>478</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B159" t="s">
+        <v>478</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B161" t="s">
+        <v>478</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B162" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>467</v>
+      </c>
+      <c r="B163" t="s">
+        <v>466</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>670</v>
+      </c>
+      <c r="B165" t="s">
+        <v>669</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>960</v>
+      </c>
+      <c r="B166" t="s">
+        <v>959</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>338</v>
+      </c>
+      <c r="B167" t="s">
+        <v>270</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>271</v>
+      </c>
+      <c r="B168" t="s">
+        <v>270</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C170" t="s">
+        <v>111</v>
+      </c>
+      <c r="D170" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B171" t="s">
+        <v>589</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>543</v>
+      </c>
+      <c r="B173" t="s">
+        <v>47</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>529</v>
+      </c>
+      <c r="B177" t="s">
+        <v>528</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>672</v>
+      </c>
+      <c r="B178" t="s">
+        <v>401</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>555</v>
+      </c>
+      <c r="B181" t="s">
+        <v>167</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" t="s">
+        <v>167</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>398</v>
+      </c>
+      <c r="B183" t="s">
+        <v>397</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B185" t="s">
+        <v>270</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>947</v>
+      </c>
+      <c r="B186" t="s">
+        <v>946</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B187" t="s">
+        <v>47</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B189" t="s">
+        <v>270</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B190" t="s">
+        <v>490</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B192" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192" t="s">
+        <v>111</v>
+      </c>
+      <c r="D192" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>137</v>
+      </c>
+      <c r="B195" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195" t="s">
+        <v>111</v>
+      </c>
+      <c r="D195" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B197" t="s">
+        <v>167</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>680</v>
+      </c>
+      <c r="B198" t="s">
+        <v>397</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B199" t="s">
+        <v>185</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>402</v>
+      </c>
+      <c r="B200" t="s">
+        <v>401</v>
+      </c>
+      <c r="C200" t="s">
+        <v>111</v>
+      </c>
+      <c r="D200" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>341</v>
+      </c>
+      <c r="B203" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>186</v>
+      </c>
+      <c r="B205" t="s">
+        <v>185</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>640</v>
+      </c>
+      <c r="B207" t="s">
+        <v>270</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>545</v>
+      </c>
+      <c r="B209" t="s">
+        <v>185</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>590</v>
+      </c>
+      <c r="B210" t="s">
+        <v>589</v>
+      </c>
+      <c r="C210" t="s">
+        <v>111</v>
+      </c>
+      <c r="D210" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B212" t="s">
+        <v>185</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B213" t="s">
+        <v>397</v>
+      </c>
+      <c r="C213" t="s">
+        <v>111</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" t="s">
+        <v>490</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B215" t="s">
+        <v>528</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>757</v>
+      </c>
+      <c r="B216" t="s">
+        <v>756</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B217" t="s">
+        <v>167</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B220" t="s">
+        <v>401</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>574</v>
+      </c>
+      <c r="B221" t="s">
+        <v>573</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B223" t="s">
+        <v>573</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B225" t="s">
+        <v>313</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>164</v>
+      </c>
+      <c r="B226" t="s">
+        <v>163</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B228" t="s">
+        <v>442</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B229" t="s">
+        <v>149</v>
+      </c>
+      <c r="C229" t="s">
+        <v>111</v>
+      </c>
+      <c r="D229" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>730</v>
+      </c>
+      <c r="B230" t="s">
+        <v>442</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B231" t="s">
+        <v>573</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>151</v>
+      </c>
+      <c r="B234" t="s">
+        <v>149</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>598</v>
+      </c>
+      <c r="B235" t="s">
+        <v>149</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B237" t="s">
+        <v>149</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>878</v>
+      </c>
+      <c r="B238" t="s">
+        <v>442</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B239" t="s">
+        <v>412</v>
+      </c>
+      <c r="C239" t="s">
+        <v>111</v>
+      </c>
+      <c r="D239" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B241" t="s">
+        <v>789</v>
+      </c>
+      <c r="C241" t="s">
+        <v>111</v>
+      </c>
+      <c r="D241" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>502</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>413</v>
+      </c>
+      <c r="B243" t="s">
+        <v>412</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C245" t="s">
+        <v>111</v>
+      </c>
+      <c r="D245" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>443</v>
+      </c>
+      <c r="B247" t="s">
+        <v>442</v>
+      </c>
+      <c r="C247" t="s">
+        <v>111</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B248" t="s">
+        <v>631</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B250" t="s">
+        <v>412</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>849</v>
+      </c>
+      <c r="B252" t="s">
+        <v>848</v>
+      </c>
+      <c r="C252" t="s">
+        <v>111</v>
+      </c>
+      <c r="D252" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B253" t="s">
+        <v>502</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C254" t="s">
+        <v>111</v>
+      </c>
+      <c r="D254" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>632</v>
+      </c>
+      <c r="B256" t="s">
+        <v>631</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C259" t="s">
+        <v>111</v>
+      </c>
+      <c r="D259" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B261" t="s">
+        <v>573</v>
+      </c>
+      <c r="C261" t="s">
+        <v>111</v>
+      </c>
+      <c r="D261" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>790</v>
+      </c>
+      <c r="B264" t="s">
+        <v>789</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B266" t="s">
+        <v>442</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B267" t="s">
+        <v>573</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>314</v>
+      </c>
+      <c r="B268" t="s">
+        <v>313</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C270" t="s">
+        <v>111</v>
+      </c>
+      <c r="D270" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B271" t="s">
+        <v>502</v>
+      </c>
+      <c r="C271" t="s">
+        <v>111</v>
+      </c>
+      <c r="D271" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B272" t="s">
+        <v>163</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>503</v>
+      </c>
+      <c r="B273" t="s">
+        <v>502</v>
+      </c>
+      <c r="C273" t="s">
+        <v>111</v>
+      </c>
+      <c r="D273" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>979</v>
+      </c>
+      <c r="B274" t="s">
+        <v>573</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>918</v>
+      </c>
+      <c r="B275" t="s">
+        <v>442</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>921</v>
+      </c>
+      <c r="B277" t="s">
+        <v>412</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B278" t="s">
+        <v>149</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B279" t="s">
+        <v>611</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B280" t="s">
+        <v>390</v>
+      </c>
+      <c r="C280" t="s">
+        <v>111</v>
+      </c>
+      <c r="D280" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>933</v>
+      </c>
+      <c r="B282" t="s">
+        <v>611</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>310</v>
+      </c>
+      <c r="B283" t="s">
+        <v>309</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B285" t="s">
+        <v>390</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B286" t="s">
+        <v>611</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>230</v>
+      </c>
+      <c r="B287" t="s">
+        <v>229</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B288" t="s">
+        <v>229</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C289" t="s">
+        <v>111</v>
+      </c>
+      <c r="D289" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B290" t="s">
+        <v>41</v>
+      </c>
+      <c r="C290" t="s">
+        <v>111</v>
+      </c>
+      <c r="D290" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C292" t="s">
+        <v>111</v>
+      </c>
+      <c r="D292" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B293" t="s">
+        <v>41</v>
+      </c>
+      <c r="C293" t="s">
+        <v>111</v>
+      </c>
+      <c r="D293" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C294" t="s">
+        <v>111</v>
+      </c>
+      <c r="D294" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B295" t="s">
+        <v>576</v>
+      </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>123</v>
+      </c>
+      <c r="B296" t="s">
+        <v>122</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>583</v>
+      </c>
+      <c r="B297" t="s">
+        <v>321</v>
+      </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+      <c r="D297" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B298" t="s">
+        <v>611</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>533</v>
+      </c>
+      <c r="B299" t="s">
+        <v>532</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B300" t="s">
+        <v>611</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>298</v>
+      </c>
+      <c r="B301" t="s">
+        <v>297</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>770</v>
+      </c>
+      <c r="B302" t="s">
+        <v>390</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B303" t="s">
+        <v>122</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>899</v>
+      </c>
+      <c r="B304" t="s">
+        <v>321</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>322</v>
+      </c>
+      <c r="B306" t="s">
+        <v>321</v>
+      </c>
+      <c r="C306" t="s">
+        <v>4</v>
+      </c>
+      <c r="D306" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>737</v>
+      </c>
+      <c r="B307" t="s">
+        <v>122</v>
+      </c>
+      <c r="C307" t="s">
+        <v>4</v>
+      </c>
+      <c r="D307" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>749</v>
+      </c>
+      <c r="B308" t="s">
+        <v>532</v>
+      </c>
+      <c r="C308" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>807</v>
+      </c>
+      <c r="B309" t="s">
+        <v>576</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C311" t="s">
+        <v>111</v>
+      </c>
+      <c r="D311" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B312" t="s">
+        <v>122</v>
+      </c>
+      <c r="C312" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>712</v>
+      </c>
+      <c r="B313" t="s">
+        <v>229</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B314" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C314" t="s">
+        <v>4</v>
+      </c>
+      <c r="D314" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>577</v>
+      </c>
+      <c r="B315" t="s">
+        <v>576</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>563</v>
+      </c>
+      <c r="B316" t="s">
+        <v>562</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B317" t="s">
+        <v>229</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B318" t="s">
+        <v>532</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>391</v>
+      </c>
+      <c r="B319" t="s">
+        <v>390</v>
+      </c>
+      <c r="C319" t="s">
+        <v>111</v>
+      </c>
+      <c r="D319" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>43</v>
+      </c>
+      <c r="B320" t="s">
+        <v>41</v>
+      </c>
+      <c r="C320" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B321" t="s">
+        <v>611</v>
+      </c>
+      <c r="C321" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C322" t="s">
+        <v>111</v>
+      </c>
+      <c r="D322" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B323" t="s">
+        <v>562</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C324" t="s">
+        <v>111</v>
+      </c>
+      <c r="D324" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>612</v>
+      </c>
+      <c r="B325" t="s">
+        <v>611</v>
+      </c>
+      <c r="C325" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B326" t="s">
+        <v>576</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B327" t="s">
+        <v>975</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C328" t="s">
+        <v>111</v>
+      </c>
+      <c r="D328" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B329" t="s">
+        <v>975</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C330" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C331" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>976</v>
+      </c>
+      <c r="B332" t="s">
+        <v>975</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>508</v>
+      </c>
+      <c r="B333" t="s">
+        <v>419</v>
+      </c>
+      <c r="C333" t="s">
+        <v>111</v>
+      </c>
+      <c r="D333" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>656</v>
+      </c>
+      <c r="B336" t="s">
+        <v>615</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>420</v>
+      </c>
+      <c r="B337" t="s">
+        <v>419</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B338" t="s">
+        <v>233</v>
+      </c>
+      <c r="C338" t="s">
+        <v>111</v>
+      </c>
+      <c r="D338" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>395</v>
+      </c>
+      <c r="B339" t="s">
+        <v>394</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>282</v>
+      </c>
+      <c r="B340" t="s">
+        <v>233</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2</v>
+      </c>
+      <c r="D340" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C341" t="s">
+        <v>4</v>
+      </c>
+      <c r="D341" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>566</v>
+      </c>
+      <c r="B342" t="s">
+        <v>458</v>
+      </c>
+      <c r="C342" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C343" t="s">
+        <v>4</v>
+      </c>
+      <c r="D343" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C344" t="s">
+        <v>111</v>
+      </c>
+      <c r="D344" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>740</v>
+      </c>
+      <c r="B345" t="s">
+        <v>363</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>764</v>
+      </c>
+      <c r="B346" t="s">
+        <v>498</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B348" t="s">
+        <v>601</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C349" t="s">
+        <v>111</v>
+      </c>
+      <c r="D349" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B350" t="s">
+        <v>826</v>
+      </c>
+      <c r="C350" t="s">
+        <v>111</v>
+      </c>
+      <c r="D350" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2</v>
+      </c>
+      <c r="D351" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>752</v>
+      </c>
+      <c r="B352" t="s">
+        <v>751</v>
+      </c>
+      <c r="C352" t="s">
+        <v>2</v>
+      </c>
+      <c r="D352" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C353" t="s">
+        <v>111</v>
+      </c>
+      <c r="D353" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B354" t="s">
+        <v>793</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2</v>
+      </c>
+      <c r="D354" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B355" t="s">
+        <v>601</v>
+      </c>
+      <c r="C355" t="s">
+        <v>2</v>
+      </c>
+      <c r="D355" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>263</v>
+      </c>
+      <c r="B356" t="s">
+        <v>262</v>
+      </c>
+      <c r="C356" t="s">
+        <v>111</v>
+      </c>
+      <c r="D356" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C357" t="s">
+        <v>4</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>234</v>
+      </c>
+      <c r="B358" t="s">
+        <v>233</v>
+      </c>
+      <c r="C358" t="s">
+        <v>2</v>
+      </c>
+      <c r="D358" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>246</v>
+      </c>
+      <c r="B359" t="s">
+        <v>245</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B360" t="s">
+        <v>206</v>
+      </c>
+      <c r="C360" t="s">
+        <v>2</v>
+      </c>
+      <c r="D360" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B361" t="s">
+        <v>458</v>
+      </c>
+      <c r="C361" t="s">
+        <v>4</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B362" t="s">
+        <v>386</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C363" t="s">
+        <v>4</v>
+      </c>
+      <c r="D363" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>794</v>
+      </c>
+      <c r="B364" t="s">
+        <v>793</v>
+      </c>
+      <c r="C364" t="s">
+        <v>4</v>
+      </c>
+      <c r="D364" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>387</v>
+      </c>
+      <c r="B365" t="s">
+        <v>386</v>
+      </c>
+      <c r="C365" t="s">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C366" t="s">
+        <v>2</v>
+      </c>
+      <c r="D366" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B367" t="s">
+        <v>419</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2</v>
+      </c>
+      <c r="D367" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B368" t="s">
+        <v>394</v>
+      </c>
+      <c r="C368" t="s">
+        <v>111</v>
+      </c>
+      <c r="D368" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B369" t="s">
+        <v>458</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C370" t="s">
+        <v>4</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>654</v>
+      </c>
+      <c r="B371" t="s">
+        <v>601</v>
+      </c>
+      <c r="C371" t="s">
+        <v>2</v>
+      </c>
+      <c r="D371" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>459</v>
+      </c>
+      <c r="B372" t="s">
+        <v>458</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B373" t="s">
+        <v>386</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B374" t="s">
+        <v>458</v>
+      </c>
+      <c r="C374" t="s">
+        <v>111</v>
+      </c>
+      <c r="D374" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B375" t="s">
+        <v>826</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>364</v>
+      </c>
+      <c r="B376" t="s">
+        <v>363</v>
+      </c>
+      <c r="C376" t="s">
+        <v>4</v>
+      </c>
+      <c r="D376" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>880</v>
+      </c>
+      <c r="B377" t="s">
+        <v>458</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C379" t="s">
+        <v>4</v>
+      </c>
+      <c r="D379" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>616</v>
+      </c>
+      <c r="B380" t="s">
+        <v>615</v>
+      </c>
+      <c r="C380" t="s">
+        <v>111</v>
+      </c>
+      <c r="D380" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B381" t="s">
+        <v>262</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B382" t="s">
+        <v>363</v>
+      </c>
+      <c r="C382" t="s">
+        <v>4</v>
+      </c>
+      <c r="D382" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>602</v>
+      </c>
+      <c r="B383" t="s">
+        <v>601</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>827</v>
+      </c>
+      <c r="B384" t="s">
+        <v>826</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>499</v>
+      </c>
+      <c r="B385" t="s">
+        <v>498</v>
+      </c>
+      <c r="C385" t="s">
+        <v>4</v>
+      </c>
+      <c r="D385" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>635</v>
+      </c>
+      <c r="B386" t="s">
+        <v>634</v>
+      </c>
+      <c r="C386" t="s">
+        <v>111</v>
+      </c>
+      <c r="D386" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C387" t="s">
+        <v>111</v>
+      </c>
+      <c r="D387" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B388" t="s">
+        <v>419</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2</v>
+      </c>
+      <c r="D388" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B390" t="s">
+        <v>262</v>
+      </c>
+      <c r="C390" t="s">
+        <v>111</v>
+      </c>
+      <c r="D390" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C391" t="s">
+        <v>4</v>
+      </c>
+      <c r="D391" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>207</v>
+      </c>
+      <c r="B392" t="s">
+        <v>206</v>
+      </c>
+      <c r="C392" t="s">
+        <v>4</v>
+      </c>
+      <c r="D392" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C393" t="s">
+        <v>2</v>
+      </c>
+      <c r="D393" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C395" t="s">
+        <v>4</v>
+      </c>
+      <c r="D395" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B396" t="s">
+        <v>202</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>128</v>
+      </c>
+      <c r="B397" t="s">
+        <v>126</v>
+      </c>
+      <c r="C397" t="s">
+        <v>4</v>
+      </c>
+      <c r="D397" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B399" t="s">
+        <v>816</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>969</v>
+      </c>
+      <c r="B400" t="s">
+        <v>159</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>895</v>
+      </c>
+      <c r="B401" t="s">
+        <v>694</v>
+      </c>
+      <c r="C401" t="s">
+        <v>111</v>
+      </c>
+      <c r="D401" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C402" t="s">
+        <v>111</v>
+      </c>
+      <c r="D402" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>817</v>
+      </c>
+      <c r="B403" t="s">
+        <v>816</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C404" t="s">
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C405" t="s">
+        <v>2</v>
+      </c>
+      <c r="D405" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B406" t="s">
+        <v>816</v>
+      </c>
+      <c r="C406" t="s">
+        <v>111</v>
+      </c>
+      <c r="D406" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B407" t="s">
+        <v>334</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B409" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C409" t="s">
+        <v>4</v>
+      </c>
+      <c r="D409" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C410" t="s">
+        <v>2</v>
+      </c>
+      <c r="D410" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C411" t="s">
+        <v>2</v>
+      </c>
+      <c r="D411" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C412" t="s">
+        <v>111</v>
+      </c>
+      <c r="D412" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>335</v>
+      </c>
+      <c r="B413" t="s">
+        <v>334</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C414" t="s">
+        <v>4</v>
+      </c>
+      <c r="D414" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>595</v>
+      </c>
+      <c r="B415" t="s">
+        <v>159</v>
+      </c>
+      <c r="C415" t="s">
+        <v>111</v>
+      </c>
+      <c r="D415" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C416" t="s">
+        <v>4</v>
+      </c>
+      <c r="D416" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B417" t="s">
+        <v>816</v>
+      </c>
+      <c r="C417" t="s">
+        <v>111</v>
+      </c>
+      <c r="D417" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>193</v>
+      </c>
+      <c r="B418" t="s">
+        <v>159</v>
+      </c>
+      <c r="C418" t="s">
+        <v>111</v>
+      </c>
+      <c r="D418" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C420" t="s">
+        <v>111</v>
+      </c>
+      <c r="D420" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B421" t="s">
+        <v>159</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C422" t="s">
+        <v>4</v>
+      </c>
+      <c r="D422" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>747</v>
+      </c>
+      <c r="B423" t="s">
+        <v>746</v>
+      </c>
+      <c r="C423" t="s">
+        <v>111</v>
+      </c>
+      <c r="D423" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>160</v>
+      </c>
+      <c r="B424" t="s">
+        <v>159</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2</v>
+      </c>
+      <c r="D424" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>431</v>
+      </c>
+      <c r="B425" t="s">
+        <v>430</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>172</v>
+      </c>
+      <c r="B427" t="s">
+        <v>171</v>
+      </c>
+      <c r="C427" t="s">
+        <v>2</v>
+      </c>
+      <c r="D427" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>998</v>
+      </c>
+      <c r="B428" t="s">
+        <v>997</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2</v>
+      </c>
+      <c r="D428" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C429" t="s">
+        <v>2</v>
+      </c>
+      <c r="D429" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>858</v>
+      </c>
+      <c r="B430" t="s">
+        <v>857</v>
+      </c>
+      <c r="C430" t="s">
+        <v>2</v>
+      </c>
+      <c r="D430" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>721</v>
+      </c>
+      <c r="B431" t="s">
+        <v>694</v>
+      </c>
+      <c r="C431" t="s">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>203</v>
+      </c>
+      <c r="B432" t="s">
+        <v>202</v>
+      </c>
+      <c r="C432" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>695</v>
+      </c>
+      <c r="B433" t="s">
+        <v>694</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B434" t="s">
+        <v>486</v>
+      </c>
+      <c r="C434" t="s">
+        <v>4</v>
+      </c>
+      <c r="D434" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C435" t="s">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>873</v>
+      </c>
+      <c r="B436" t="s">
+        <v>486</v>
+      </c>
+      <c r="C436" t="s">
+        <v>111</v>
+      </c>
+      <c r="D436" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B437" t="s">
+        <v>857</v>
+      </c>
+      <c r="C437" t="s">
+        <v>4</v>
+      </c>
+      <c r="D437" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B438" t="s">
+        <v>126</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B439" t="s">
+        <v>857</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C440" t="s">
+        <v>111</v>
+      </c>
+      <c r="D440" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B441" t="s">
+        <v>816</v>
+      </c>
+      <c r="C441" t="s">
+        <v>2</v>
+      </c>
+      <c r="D441" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>487</v>
+      </c>
+      <c r="B442" t="s">
+        <v>486</v>
+      </c>
+      <c r="C442" t="s">
+        <v>111</v>
+      </c>
+      <c r="D442" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C443" t="s">
+        <v>4</v>
+      </c>
+      <c r="D443" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>689</v>
+      </c>
+      <c r="B444" t="s">
+        <v>486</v>
+      </c>
+      <c r="C444" t="s">
+        <v>2</v>
+      </c>
+      <c r="D444" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B445" t="s">
+        <v>857</v>
+      </c>
+      <c r="C445" t="s">
+        <v>4</v>
+      </c>
+      <c r="D445" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B446" t="s">
+        <v>816</v>
+      </c>
+      <c r="C446" t="s">
+        <v>4</v>
+      </c>
+      <c r="D446" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C447" t="s">
+        <v>4</v>
+      </c>
+      <c r="D447" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C448" t="s">
+        <v>2</v>
+      </c>
+      <c r="D448" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>348</v>
+      </c>
+      <c r="B449" t="s">
+        <v>347</v>
+      </c>
+      <c r="C449" t="s">
+        <v>4</v>
+      </c>
+      <c r="D449" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>781</v>
+      </c>
+      <c r="B450" t="s">
+        <v>780</v>
+      </c>
+      <c r="C450" t="s">
+        <v>4</v>
+      </c>
+      <c r="D450" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C451" t="s">
+        <v>111</v>
+      </c>
+      <c r="D451" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B452" t="s">
+        <v>547</v>
+      </c>
+      <c r="C452" t="s">
+        <v>4</v>
+      </c>
+      <c r="D452" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B453" t="s">
+        <v>144</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B454" t="s">
+        <v>218</v>
+      </c>
+      <c r="C454" t="s">
+        <v>4</v>
+      </c>
+      <c r="D454" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>371</v>
+      </c>
+      <c r="B455" t="s">
+        <v>370</v>
+      </c>
+      <c r="C455" t="s">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B456" t="s">
+        <v>144</v>
+      </c>
+      <c r="C456" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B457" t="s">
+        <v>494</v>
+      </c>
+      <c r="C457" t="s">
+        <v>4</v>
+      </c>
+      <c r="D457" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C458" t="s">
+        <v>2</v>
+      </c>
+      <c r="D458" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B459" t="s">
+        <v>908</v>
+      </c>
+      <c r="C459" t="s">
+        <v>111</v>
+      </c>
+      <c r="D459" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>227</v>
+      </c>
+      <c r="B460" t="s">
+        <v>226</v>
+      </c>
+      <c r="C460" t="s">
+        <v>2</v>
+      </c>
+      <c r="D460" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B461" t="s">
+        <v>518</v>
+      </c>
+      <c r="C461" t="s">
+        <v>4</v>
+      </c>
+      <c r="D461" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>548</v>
+      </c>
+      <c r="B462" t="s">
+        <v>547</v>
+      </c>
+      <c r="C462" t="s">
+        <v>4</v>
+      </c>
+      <c r="D462" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C463" t="s">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>350</v>
+      </c>
+      <c r="B464" t="s">
+        <v>218</v>
+      </c>
+      <c r="C464" t="s">
+        <v>4</v>
+      </c>
+      <c r="D464" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B465" t="s">
+        <v>902</v>
+      </c>
+      <c r="C465" t="s">
+        <v>4</v>
+      </c>
+      <c r="D465" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>219</v>
+      </c>
+      <c r="B466" t="s">
+        <v>218</v>
+      </c>
+      <c r="C466" t="s">
+        <v>4</v>
+      </c>
+      <c r="D466" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B467" t="s">
+        <v>154</v>
+      </c>
+      <c r="C467" t="s">
+        <v>4</v>
+      </c>
+      <c r="D467" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>495</v>
+      </c>
+      <c r="B468" t="s">
+        <v>494</v>
+      </c>
+      <c r="C468" t="s">
+        <v>4</v>
+      </c>
+      <c r="D468" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>903</v>
+      </c>
+      <c r="B469" t="s">
+        <v>902</v>
+      </c>
+      <c r="C469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B470" t="s">
+        <v>547</v>
+      </c>
+      <c r="C470" t="s">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>710</v>
+      </c>
+      <c r="B471" t="s">
+        <v>709</v>
+      </c>
+      <c r="C471" t="s">
+        <v>4</v>
+      </c>
+      <c r="D471" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>619</v>
+      </c>
+      <c r="B472" t="s">
+        <v>92</v>
+      </c>
+      <c r="C472" t="s">
+        <v>2</v>
+      </c>
+      <c r="D472" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C473" t="s">
+        <v>2</v>
+      </c>
+      <c r="D473" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B474" t="s">
+        <v>494</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>687</v>
+      </c>
+      <c r="B475" t="s">
+        <v>686</v>
+      </c>
+      <c r="C475" t="s">
+        <v>2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>835</v>
+      </c>
+      <c r="B476" t="s">
+        <v>180</v>
+      </c>
+      <c r="C476" t="s">
+        <v>111</v>
+      </c>
+      <c r="D476" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C477" t="s">
+        <v>2</v>
+      </c>
+      <c r="D477" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B478" t="s">
+        <v>518</v>
+      </c>
+      <c r="C478" t="s">
+        <v>111</v>
+      </c>
+      <c r="D478" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B479" t="s">
+        <v>144</v>
+      </c>
+      <c r="C479" t="s">
+        <v>2</v>
+      </c>
+      <c r="D479" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B480" t="s">
+        <v>547</v>
+      </c>
+      <c r="C480" t="s">
+        <v>4</v>
+      </c>
+      <c r="D480" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>924</v>
+      </c>
+      <c r="B481" t="s">
+        <v>686</v>
+      </c>
+      <c r="C481" t="s">
+        <v>2</v>
+      </c>
+      <c r="D481" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B482" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C482" t="s">
+        <v>111</v>
+      </c>
+      <c r="D482" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C483" t="s">
+        <v>111</v>
+      </c>
+      <c r="D483" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B484" t="s">
+        <v>266</v>
+      </c>
+      <c r="C484" t="s">
+        <v>2</v>
+      </c>
+      <c r="D484" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>909</v>
+      </c>
+      <c r="B485" t="s">
+        <v>908</v>
+      </c>
+      <c r="C485" t="s">
+        <v>111</v>
+      </c>
+      <c r="D485" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B486" t="s">
+        <v>357</v>
+      </c>
+      <c r="C486" t="s">
+        <v>4</v>
+      </c>
+      <c r="D486" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>358</v>
+      </c>
+      <c r="B487" t="s">
+        <v>357</v>
+      </c>
+      <c r="C487" t="s">
+        <v>4</v>
+      </c>
+      <c r="D487" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>519</v>
+      </c>
+      <c r="B488" t="s">
+        <v>518</v>
+      </c>
+      <c r="C488" t="s">
+        <v>4</v>
+      </c>
+      <c r="D488" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B489" t="s">
+        <v>547</v>
+      </c>
+      <c r="C489" t="s">
+        <v>4</v>
+      </c>
+      <c r="D489" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>797</v>
+      </c>
+      <c r="B490" t="s">
+        <v>370</v>
+      </c>
+      <c r="C490" t="s">
+        <v>4</v>
+      </c>
+      <c r="D490" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>267</v>
+      </c>
+      <c r="B491" t="s">
+        <v>266</v>
+      </c>
+      <c r="C491" t="s">
+        <v>4</v>
+      </c>
+      <c r="D491" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C492" t="s">
+        <v>2</v>
+      </c>
+      <c r="D492" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>146</v>
+      </c>
+      <c r="B493" t="s">
+        <v>144</v>
+      </c>
+      <c r="C493" t="s">
+        <v>4</v>
+      </c>
+      <c r="D493" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B494" t="s">
+        <v>154</v>
+      </c>
+      <c r="C494" t="s">
+        <v>111</v>
+      </c>
+      <c r="D494" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>868</v>
+      </c>
+      <c r="B495" t="s">
+        <v>180</v>
+      </c>
+      <c r="C495" t="s">
+        <v>2</v>
+      </c>
+      <c r="D495" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>700</v>
+      </c>
+      <c r="B496" t="s">
+        <v>370</v>
+      </c>
+      <c r="C496" t="s">
+        <v>111</v>
+      </c>
+      <c r="D496" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>897</v>
+      </c>
+      <c r="B497" t="s">
+        <v>218</v>
+      </c>
+      <c r="C497" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>845</v>
+      </c>
+      <c r="B498" t="s">
+        <v>709</v>
+      </c>
+      <c r="C498" t="s">
+        <v>4</v>
+      </c>
+      <c r="D498" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B499" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C499" t="s">
+        <v>4</v>
+      </c>
+      <c r="D499" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>156</v>
+      </c>
+      <c r="B500" t="s">
+        <v>154</v>
+      </c>
+      <c r="C500" t="s">
+        <v>111</v>
+      </c>
+      <c r="D500" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B501" t="s">
+        <v>92</v>
+      </c>
+      <c r="C501" t="s">
+        <v>2</v>
+      </c>
+      <c r="D501" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>182</v>
+      </c>
+      <c r="B502" t="s">
+        <v>180</v>
+      </c>
+      <c r="C502" t="s">
+        <v>111</v>
+      </c>
+      <c r="D502" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C503" t="s">
+        <v>111</v>
+      </c>
+      <c r="D503" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>814</v>
+      </c>
+      <c r="B504" t="s">
+        <v>357</v>
+      </c>
+      <c r="C504" t="s">
+        <v>2</v>
+      </c>
+      <c r="D504" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>820</v>
+      </c>
+      <c r="B505" t="s">
+        <v>547</v>
+      </c>
+      <c r="C505" t="s">
+        <v>2</v>
+      </c>
+      <c r="D505" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C506" t="s">
+        <v>111</v>
+      </c>
+      <c r="D506" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>93</v>
+      </c>
+      <c r="B507" t="s">
+        <v>92</v>
+      </c>
+      <c r="C507" t="s">
+        <v>2</v>
+      </c>
+      <c r="D507" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B508" t="s">
+        <v>551</v>
+      </c>
+      <c r="C508" t="s">
+        <v>4</v>
+      </c>
+      <c r="D508" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>823</v>
+      </c>
+      <c r="B509" t="s">
+        <v>822</v>
+      </c>
+      <c r="C509" t="s">
+        <v>2</v>
+      </c>
+      <c r="D509" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B510" t="s">
+        <v>786</v>
+      </c>
+      <c r="C510" t="s">
+        <v>111</v>
+      </c>
+      <c r="D510" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>354</v>
+      </c>
+      <c r="B511" t="s">
+        <v>353</v>
+      </c>
+      <c r="C511" t="s">
+        <v>4</v>
+      </c>
+      <c r="D511" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>506</v>
+      </c>
+      <c r="B512" t="s">
+        <v>505</v>
+      </c>
+      <c r="C512" t="s">
+        <v>4</v>
+      </c>
+      <c r="D512" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>406</v>
+      </c>
+      <c r="B513" t="s">
+        <v>405</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>842</v>
+      </c>
+      <c r="B514" t="s">
+        <v>841</v>
+      </c>
+      <c r="C514" t="s">
+        <v>4</v>
+      </c>
+      <c r="D514" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>954</v>
+      </c>
+      <c r="B515" t="s">
+        <v>953</v>
+      </c>
+      <c r="C515" t="s">
+        <v>4</v>
+      </c>
+      <c r="D515" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B516" t="s">
+        <v>249</v>
+      </c>
+      <c r="C516" t="s">
+        <v>2</v>
+      </c>
+      <c r="D516" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C517" t="s">
+        <v>2</v>
+      </c>
+      <c r="D517" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C518" t="s">
+        <v>2</v>
+      </c>
+      <c r="D518" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C519" t="s">
+        <v>111</v>
+      </c>
+      <c r="D519" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C520" t="s">
+        <v>4</v>
+      </c>
+      <c r="D520" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B521" t="s">
+        <v>222</v>
+      </c>
+      <c r="C521" t="s">
+        <v>111</v>
+      </c>
+      <c r="D521" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>250</v>
+      </c>
+      <c r="B522" t="s">
+        <v>249</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2</v>
+      </c>
+      <c r="D522" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C523" t="s">
+        <v>6</v>
+      </c>
+      <c r="D523" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>777</v>
+      </c>
+      <c r="B524" t="s">
+        <v>776</v>
+      </c>
+      <c r="C524" t="s">
+        <v>4</v>
+      </c>
+      <c r="D524" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B525" t="s">
+        <v>353</v>
+      </c>
+      <c r="C525" t="s">
+        <v>2</v>
+      </c>
+      <c r="D525" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>967</v>
+      </c>
+      <c r="B526" t="s">
+        <v>966</v>
+      </c>
+      <c r="C526" t="s">
+        <v>6</v>
+      </c>
+      <c r="D526" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B527" t="s">
+        <v>405</v>
+      </c>
+      <c r="C527" t="s">
+        <v>6</v>
+      </c>
+      <c r="D527" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>294</v>
+      </c>
+      <c r="B528" t="s">
+        <v>293</v>
+      </c>
+      <c r="C528" t="s">
+        <v>111</v>
+      </c>
+      <c r="D528" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B529" t="s">
+        <v>966</v>
+      </c>
+      <c r="C529" t="s">
+        <v>2</v>
+      </c>
+      <c r="D529" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B530" t="s">
+        <v>953</v>
+      </c>
+      <c r="C530" t="s">
+        <v>2</v>
+      </c>
+      <c r="D530" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B531" t="s">
+        <v>293</v>
+      </c>
+      <c r="C531" t="s">
+        <v>6</v>
+      </c>
+      <c r="D531" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B532" t="s">
+        <v>786</v>
+      </c>
+      <c r="C532" t="s">
+        <v>111</v>
+      </c>
+      <c r="D532" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C533" t="s">
+        <v>6</v>
+      </c>
+      <c r="D533" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>912</v>
+      </c>
+      <c r="B534" t="s">
+        <v>822</v>
+      </c>
+      <c r="C534" t="s">
+        <v>4</v>
+      </c>
+      <c r="D534" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>476</v>
+      </c>
+      <c r="B535" t="s">
+        <v>293</v>
+      </c>
+      <c r="C535" t="s">
+        <v>6</v>
+      </c>
+      <c r="D535" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B536" t="s">
+        <v>966</v>
+      </c>
+      <c r="C536" t="s">
+        <v>2</v>
+      </c>
+      <c r="D536" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B537" t="s">
+        <v>222</v>
+      </c>
+      <c r="C537" t="s">
+        <v>6</v>
+      </c>
+      <c r="D537" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>870</v>
+      </c>
+      <c r="B538" t="s">
+        <v>569</v>
+      </c>
+      <c r="C538" t="s">
+        <v>2</v>
+      </c>
+      <c r="D538" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B539" t="s">
+        <v>222</v>
+      </c>
+      <c r="C539" t="s">
+        <v>2</v>
+      </c>
+      <c r="D539" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>223</v>
+      </c>
+      <c r="B540" t="s">
+        <v>222</v>
+      </c>
+      <c r="C540" t="s">
+        <v>2</v>
+      </c>
+      <c r="D540" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>552</v>
+      </c>
+      <c r="B541" t="s">
+        <v>551</v>
+      </c>
+      <c r="C541" t="s">
+        <v>4</v>
+      </c>
+      <c r="D541" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C542" t="s">
+        <v>2</v>
+      </c>
+      <c r="D542" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>992</v>
+      </c>
+      <c r="B543" t="s">
+        <v>991</v>
+      </c>
+      <c r="C543" t="s">
+        <v>6</v>
+      </c>
+      <c r="D543" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B544" t="s">
+        <v>222</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2</v>
+      </c>
+      <c r="D544" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B545" t="s">
+        <v>569</v>
+      </c>
+      <c r="C545" t="s">
+        <v>2</v>
+      </c>
+      <c r="D545" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C546" t="s">
+        <v>6</v>
+      </c>
+      <c r="D546" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B547" t="s">
+        <v>966</v>
+      </c>
+      <c r="C547" t="s">
+        <v>2</v>
+      </c>
+      <c r="D547" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B548" t="s">
+        <v>353</v>
+      </c>
+      <c r="C548" t="s">
+        <v>2</v>
+      </c>
+      <c r="D548" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C549" t="s">
+        <v>6</v>
+      </c>
+      <c r="D549" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B550" t="s">
+        <v>551</v>
+      </c>
+      <c r="C550" t="s">
+        <v>2</v>
+      </c>
+      <c r="D550" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>524</v>
+      </c>
+      <c r="B551" t="s">
+        <v>222</v>
+      </c>
+      <c r="C551" t="s">
+        <v>2</v>
+      </c>
+      <c r="D551" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B552" t="s">
+        <v>249</v>
+      </c>
+      <c r="C552" t="s">
+        <v>6</v>
+      </c>
+      <c r="D552" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C553" t="s">
+        <v>4</v>
+      </c>
+      <c r="D553" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B554" t="s">
+        <v>786</v>
+      </c>
+      <c r="C554" t="s">
+        <v>4</v>
+      </c>
+      <c r="D554" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>838</v>
+      </c>
+      <c r="B555" t="s">
+        <v>353</v>
+      </c>
+      <c r="C555" t="s">
+        <v>4</v>
+      </c>
+      <c r="D555" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>344</v>
+      </c>
+      <c r="B556" t="s">
+        <v>249</v>
+      </c>
+      <c r="C556" t="s">
+        <v>6</v>
+      </c>
+      <c r="D556" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C557" t="s">
+        <v>4</v>
+      </c>
+      <c r="D557" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B558" t="s">
+        <v>222</v>
+      </c>
+      <c r="C558" t="s">
+        <v>2</v>
+      </c>
+      <c r="D558" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>570</v>
+      </c>
+      <c r="B559" t="s">
+        <v>569</v>
+      </c>
+      <c r="C559" t="s">
+        <v>2</v>
+      </c>
+      <c r="D559" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>928</v>
+      </c>
+      <c r="B560" t="s">
+        <v>927</v>
+      </c>
+      <c r="C560" t="s">
+        <v>4</v>
+      </c>
+      <c r="D560" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>787</v>
+      </c>
+      <c r="B561" t="s">
+        <v>786</v>
+      </c>
+      <c r="C561" t="s">
+        <v>6</v>
+      </c>
+      <c r="D561" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B562" t="s">
+        <v>249</v>
+      </c>
+      <c r="C562" t="s">
+        <v>6</v>
+      </c>
+      <c r="D562" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>938</v>
+      </c>
+      <c r="B563" t="s">
+        <v>937</v>
+      </c>
+      <c r="C563" t="s">
+        <v>2</v>
+      </c>
+      <c r="D563" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>957</v>
+      </c>
+      <c r="B564" t="s">
+        <v>87</v>
+      </c>
+      <c r="C564" t="s">
+        <v>6</v>
+      </c>
+      <c r="D564" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B565" t="s">
+        <v>786</v>
+      </c>
+      <c r="C565" t="s">
+        <v>4</v>
+      </c>
+      <c r="D565" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>89</v>
+      </c>
+      <c r="B566" t="s">
+        <v>87</v>
+      </c>
+      <c r="C566" t="s">
+        <v>6</v>
+      </c>
+      <c r="D566" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>242</v>
+      </c>
+      <c r="B567" t="s">
+        <v>241</v>
+      </c>
+      <c r="C567" t="s">
+        <v>111</v>
+      </c>
+      <c r="D567" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C568" t="s">
+        <v>111</v>
+      </c>
+      <c r="D568" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>884</v>
+      </c>
+      <c r="B569" t="s">
+        <v>222</v>
+      </c>
+      <c r="C569" t="s">
+        <v>6</v>
+      </c>
+      <c r="D569" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C570" t="s">
+        <v>2</v>
+      </c>
+      <c r="D570" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B571" t="s">
+        <v>966</v>
+      </c>
+      <c r="C571" t="s">
+        <v>4</v>
+      </c>
+      <c r="D571" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B572" t="s">
+        <v>209</v>
+      </c>
+      <c r="C572" t="s">
+        <v>4</v>
+      </c>
+      <c r="D572" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>210</v>
+      </c>
+      <c r="B573" t="s">
+        <v>209</v>
+      </c>
+      <c r="C573" t="s">
+        <v>4</v>
+      </c>
+      <c r="D573" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C574" t="s">
+        <v>4</v>
+      </c>
+      <c r="D574" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>743</v>
+      </c>
+      <c r="B575" t="s">
+        <v>742</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2</v>
+      </c>
+      <c r="D575" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>608</v>
+      </c>
+      <c r="B576" t="s">
+        <v>607</v>
+      </c>
+      <c r="C576" t="s">
+        <v>4</v>
+      </c>
+      <c r="D576" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>988</v>
+      </c>
+      <c r="B577" t="s">
+        <v>438</v>
+      </c>
+      <c r="C577" t="s">
+        <v>4</v>
+      </c>
+      <c r="D577" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C578" t="s">
+        <v>111</v>
+      </c>
+      <c r="D578" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C579" t="s">
+        <v>111</v>
+      </c>
+      <c r="D579" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C580" t="s">
+        <v>6</v>
+      </c>
+      <c r="D580" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>675</v>
+      </c>
+      <c r="B581" t="s">
+        <v>674</v>
+      </c>
+      <c r="C581" t="s">
+        <v>4</v>
+      </c>
+      <c r="D581" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>439</v>
+      </c>
+      <c r="B582" t="s">
+        <v>438</v>
+      </c>
+      <c r="C582" t="s">
+        <v>4</v>
+      </c>
+      <c r="D582" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>724</v>
+      </c>
+      <c r="B583" t="s">
+        <v>723</v>
+      </c>
+      <c r="C583" t="s">
+        <v>4</v>
+      </c>
+      <c r="D583" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C584" t="s">
+        <v>2</v>
+      </c>
+      <c r="D584" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2</v>
+      </c>
+      <c r="D585" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B586" t="s">
+        <v>82</v>
+      </c>
+      <c r="C586" t="s">
+        <v>6</v>
+      </c>
+      <c r="D586" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B587" t="s">
+        <v>301</v>
+      </c>
+      <c r="C587" t="s">
+        <v>111</v>
+      </c>
+      <c r="D587" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B588" t="s">
+        <v>446</v>
+      </c>
+      <c r="C588" t="s">
+        <v>2</v>
+      </c>
+      <c r="D588" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B589" t="s">
+        <v>536</v>
+      </c>
+      <c r="C589" t="s">
+        <v>2</v>
+      </c>
+      <c r="D589" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>951</v>
+      </c>
+      <c r="B590" t="s">
+        <v>950</v>
+      </c>
+      <c r="C590" t="s">
+        <v>2</v>
+      </c>
+      <c r="D590" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C591" t="s">
+        <v>2</v>
+      </c>
+      <c r="D591" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C592" t="s">
+        <v>111</v>
+      </c>
+      <c r="D592" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B593" t="s">
+        <v>586</v>
+      </c>
+      <c r="C593" t="s">
+        <v>2</v>
+      </c>
+      <c r="D593" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>733</v>
+      </c>
+      <c r="B594" t="s">
+        <v>53</v>
+      </c>
+      <c r="C594" t="s">
+        <v>111</v>
+      </c>
+      <c r="D594" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>692</v>
+      </c>
+      <c r="B595" t="s">
+        <v>536</v>
+      </c>
+      <c r="C595" t="s">
+        <v>2</v>
+      </c>
+      <c r="D595" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C596" t="s">
+        <v>4</v>
+      </c>
+      <c r="D596" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C597" t="s">
+        <v>4</v>
+      </c>
+      <c r="D597" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C598" t="s">
+        <v>4</v>
+      </c>
+      <c r="D598" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C599" t="s">
+        <v>4</v>
+      </c>
+      <c r="D599" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C600" t="s">
+        <v>111</v>
+      </c>
+      <c r="D600" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B601" t="s">
+        <v>783</v>
+      </c>
+      <c r="C601" t="s">
+        <v>111</v>
+      </c>
+      <c r="D601" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B602" t="s">
+        <v>209</v>
+      </c>
+      <c r="C602" t="s">
+        <v>6</v>
+      </c>
+      <c r="D602" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C603" t="s">
+        <v>6</v>
+      </c>
+      <c r="D603" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>84</v>
+      </c>
+      <c r="B604" t="s">
+        <v>82</v>
+      </c>
+      <c r="C604" t="s">
+        <v>2</v>
+      </c>
+      <c r="D604" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>784</v>
+      </c>
+      <c r="B605" t="s">
+        <v>783</v>
+      </c>
+      <c r="C605" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C606" t="s">
+        <v>4</v>
+      </c>
+      <c r="D606" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>587</v>
+      </c>
+      <c r="B607" t="s">
+        <v>586</v>
+      </c>
+      <c r="C607" t="s">
+        <v>2</v>
+      </c>
+      <c r="D607" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C608" t="s">
+        <v>2</v>
+      </c>
+      <c r="D608" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C609" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C610" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B611" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C611" t="s">
+        <v>2</v>
+      </c>
+      <c r="D611" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B612" t="s">
+        <v>361</v>
+      </c>
+      <c r="C612" t="s">
+        <v>111</v>
+      </c>
+      <c r="D612" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>522</v>
+      </c>
+      <c r="B613" t="s">
+        <v>301</v>
+      </c>
+      <c r="C613" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C614" t="s">
+        <v>2</v>
+      </c>
+      <c r="D614" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>678</v>
+      </c>
+      <c r="B615" t="s">
+        <v>446</v>
+      </c>
+      <c r="C615" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>447</v>
+      </c>
+      <c r="B616" t="s">
+        <v>446</v>
+      </c>
+      <c r="C616" t="s">
+        <v>6</v>
+      </c>
+      <c r="D616" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>362</v>
+      </c>
+      <c r="B617" t="s">
+        <v>361</v>
+      </c>
+      <c r="C617" t="s">
+        <v>111</v>
+      </c>
+      <c r="D617" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B618" t="s">
+        <v>301</v>
+      </c>
+      <c r="C618" t="s">
+        <v>2</v>
+      </c>
+      <c r="D618" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C619" t="s">
+        <v>2</v>
+      </c>
+      <c r="D619" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>302</v>
+      </c>
+      <c r="B620" t="s">
+        <v>301</v>
+      </c>
+      <c r="C620" t="s">
+        <v>2</v>
+      </c>
+      <c r="D620" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C621" t="s">
+        <v>6</v>
+      </c>
+      <c r="D621" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C622" t="s">
+        <v>111</v>
+      </c>
+      <c r="D622" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>537</v>
+      </c>
+      <c r="B623" t="s">
+        <v>536</v>
+      </c>
+      <c r="C623" t="s">
+        <v>4</v>
+      </c>
+      <c r="D623" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B624" t="s">
+        <v>674</v>
+      </c>
+      <c r="C624" t="s">
+        <v>111</v>
+      </c>
+      <c r="D624" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B625" t="s">
+        <v>783</v>
+      </c>
+      <c r="C625" t="s">
+        <v>2</v>
+      </c>
+      <c r="D625" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B626" t="s">
+        <v>53</v>
+      </c>
+      <c r="C626" t="s">
+        <v>6</v>
+      </c>
+      <c r="D626" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C627" t="s">
+        <v>2</v>
+      </c>
+      <c r="D627" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>55</v>
+      </c>
+      <c r="B628" t="s">
+        <v>53</v>
+      </c>
+      <c r="C628" t="s">
+        <v>6</v>
+      </c>
+      <c r="D628" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B629" t="s">
+        <v>209</v>
+      </c>
+      <c r="C629" t="s">
+        <v>111</v>
+      </c>
+      <c r="D629" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C630" t="s">
+        <v>4</v>
+      </c>
+      <c r="D630" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B631" t="s">
+        <v>82</v>
+      </c>
+      <c r="C631" t="s">
+        <v>111</v>
+      </c>
+      <c r="D631" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>559</v>
+      </c>
+      <c r="B632" t="s">
+        <v>558</v>
+      </c>
+      <c r="C632" t="s">
+        <v>2</v>
+      </c>
+      <c r="D632" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B633" t="s">
+        <v>325</v>
+      </c>
+      <c r="C633" t="s">
+        <v>6</v>
+      </c>
+      <c r="D633" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B634" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C634" t="s">
+        <v>4</v>
+      </c>
+      <c r="D634" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C635" t="s">
+        <v>111</v>
+      </c>
+      <c r="D635" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>98</v>
+      </c>
+      <c r="B636" t="s">
+        <v>96</v>
+      </c>
+      <c r="C636" t="s">
+        <v>4</v>
+      </c>
+      <c r="D636" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C637" t="s">
+        <v>2</v>
+      </c>
+      <c r="D637" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C638" t="s">
+        <v>111</v>
+      </c>
+      <c r="D638" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C639" t="s">
+        <v>6</v>
+      </c>
+      <c r="D639" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C640" t="s">
+        <v>6</v>
+      </c>
+      <c r="D640" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>644</v>
+      </c>
+      <c r="B641" t="s">
+        <v>643</v>
+      </c>
+      <c r="C641" t="s">
+        <v>2</v>
+      </c>
+      <c r="D641" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B642" t="s">
+        <v>558</v>
+      </c>
+      <c r="C642" t="s">
+        <v>111</v>
+      </c>
+      <c r="D642" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C643" t="s">
+        <v>2</v>
+      </c>
+      <c r="D643" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B644" t="s">
+        <v>558</v>
+      </c>
+      <c r="C644" t="s">
+        <v>111</v>
+      </c>
+      <c r="D644" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C645" t="s">
+        <v>4</v>
+      </c>
+      <c r="D645" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B646" t="s">
+        <v>423</v>
+      </c>
+      <c r="C646" t="s">
+        <v>111</v>
+      </c>
+      <c r="D646" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>604</v>
+      </c>
+      <c r="B647" t="s">
+        <v>213</v>
+      </c>
+      <c r="C647" t="s">
+        <v>111</v>
+      </c>
+      <c r="D647" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>416</v>
+      </c>
+      <c r="B648" t="s">
+        <v>415</v>
+      </c>
+      <c r="C648" t="s">
+        <v>2</v>
+      </c>
+      <c r="D648" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C649" t="s">
+        <v>2</v>
+      </c>
+      <c r="D649" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C650" t="s">
+        <v>2</v>
+      </c>
+      <c r="D650" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C651" t="s">
+        <v>2</v>
+      </c>
+      <c r="D651" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>761</v>
+      </c>
+      <c r="B652" t="s">
+        <v>760</v>
+      </c>
+      <c r="C652" t="s">
+        <v>2</v>
+      </c>
+      <c r="D652" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>215</v>
+      </c>
+      <c r="B653" t="s">
+        <v>213</v>
+      </c>
+      <c r="C653" t="s">
+        <v>111</v>
+      </c>
+      <c r="D653" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B654" t="s">
+        <v>317</v>
+      </c>
+      <c r="C654" t="s">
+        <v>111</v>
+      </c>
+      <c r="D654" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C655" t="s">
+        <v>4</v>
+      </c>
+      <c r="D655" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C656" t="s">
+        <v>4</v>
+      </c>
+      <c r="D656" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>318</v>
+      </c>
+      <c r="B657" t="s">
+        <v>317</v>
+      </c>
+      <c r="C657" t="s">
+        <v>111</v>
+      </c>
+      <c r="D657" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C658" t="s">
+        <v>2</v>
+      </c>
+      <c r="D658" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B659" t="s">
+        <v>213</v>
+      </c>
+      <c r="C659" t="s">
+        <v>111</v>
+      </c>
+      <c r="D659" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B660" t="s">
+        <v>96</v>
+      </c>
+      <c r="C660" t="s">
+        <v>111</v>
+      </c>
+      <c r="D660" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C661" t="s">
+        <v>111</v>
+      </c>
+      <c r="D661" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>660</v>
+      </c>
+      <c r="B662" t="s">
+        <v>659</v>
+      </c>
+      <c r="C662" t="s">
+        <v>111</v>
+      </c>
+      <c r="D662" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>963</v>
+      </c>
+      <c r="B663" t="s">
+        <v>415</v>
+      </c>
+      <c r="C663" t="s">
+        <v>2</v>
+      </c>
+      <c r="D663" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B664" t="s">
+        <v>450</v>
+      </c>
+      <c r="C664" t="s">
+        <v>2</v>
+      </c>
+      <c r="D664" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C665" t="s">
+        <v>6</v>
+      </c>
+      <c r="D665" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B666" t="s">
+        <v>643</v>
+      </c>
+      <c r="C666" t="s">
+        <v>111</v>
+      </c>
+      <c r="D666" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C667" t="s">
+        <v>6</v>
+      </c>
+      <c r="D667" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B668" t="s">
+        <v>213</v>
+      </c>
+      <c r="C668" t="s">
+        <v>2</v>
+      </c>
+      <c r="D668" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B669" t="s">
+        <v>96</v>
+      </c>
+      <c r="C669" t="s">
+        <v>2</v>
+      </c>
+      <c r="D669" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C670" t="s">
+        <v>111</v>
+      </c>
+      <c r="D670" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B671" t="s">
+        <v>659</v>
+      </c>
+      <c r="C671" t="s">
+        <v>2</v>
+      </c>
+      <c r="D671" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>703</v>
+      </c>
+      <c r="B672" t="s">
+        <v>175</v>
+      </c>
+      <c r="C672" t="s">
+        <v>2</v>
+      </c>
+      <c r="D672" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>718</v>
+      </c>
+      <c r="B673" t="s">
+        <v>717</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2</v>
+      </c>
+      <c r="D673" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>451</v>
+      </c>
+      <c r="B674" t="s">
+        <v>450</v>
+      </c>
+      <c r="C674" t="s">
+        <v>4</v>
+      </c>
+      <c r="D674" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>177</v>
+      </c>
+      <c r="B675" t="s">
+        <v>175</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2</v>
+      </c>
+      <c r="D675" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C676" t="s">
+        <v>111</v>
+      </c>
+      <c r="D676" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>424</v>
+      </c>
+      <c r="B677" t="s">
+        <v>423</v>
+      </c>
+      <c r="C677" t="s">
+        <v>2</v>
+      </c>
+      <c r="D677" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2</v>
+      </c>
+      <c r="D678" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C679" t="s">
+        <v>4</v>
+      </c>
+      <c r="D679" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>327</v>
+      </c>
+      <c r="B680" t="s">
+        <v>325</v>
+      </c>
+      <c r="C680" t="s">
+        <v>4</v>
+      </c>
+      <c r="D680" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C681" t="s">
+        <v>111</v>
+      </c>
+      <c r="D681" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B682" t="s">
+        <v>96</v>
+      </c>
+      <c r="C682" t="s">
+        <v>2</v>
+      </c>
+      <c r="D682" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C683" t="s">
+        <v>111</v>
+      </c>
+      <c r="D683" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C684" t="s">
+        <v>111</v>
+      </c>
+      <c r="D684" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B685" t="s">
+        <v>175</v>
+      </c>
+      <c r="C685" t="s">
+        <v>6</v>
+      </c>
+      <c r="D685" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B686" t="s">
+        <v>325</v>
+      </c>
+      <c r="C686" t="s">
+        <v>2</v>
+      </c>
+      <c r="D686" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>435</v>
+      </c>
+      <c r="B687" t="s">
+        <v>434</v>
+      </c>
+      <c r="C687" t="s">
+        <v>6</v>
+      </c>
+      <c r="D687" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/DB_csv/교통사고예방시스템_최종본.xlsx
+++ b/DB_csv/교통사고예방시스템_최종본.xlsx
@@ -18,6 +18,9 @@
     <sheet name="지역 구" sheetId="14" r:id="rId4"/>
     <sheet name="지역별 교통사고 테이블" sheetId="16" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'지역별 교통사고 테이블'!$A$1:$I$687</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16534" uniqueCount="3113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18206" uniqueCount="3131">
   <si>
     <t>교통사고 종류</t>
   </si>
@@ -9415,6 +9418,78 @@
   </si>
   <si>
     <t>사고지역 중앙 분리대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9467,11 +9542,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -60635,10 +60713,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H687"/>
+  <dimension ref="A1:I687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -60649,9 +60727,10 @@
     <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2405</v>
       </c>
@@ -60676,8 +60755,9 @@
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3076</v>
       </c>
@@ -60687,11 +60767,23 @@
       <c r="C2" t="s">
         <v>75</v>
       </c>
+      <c r="D2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3115</v>
+      </c>
       <c r="H2" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2449</v>
       </c>
@@ -60701,11 +60793,23 @@
       <c r="C3" t="s">
         <v>133</v>
       </c>
+      <c r="D3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3118</v>
+      </c>
       <c r="H3" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3077</v>
       </c>
@@ -60715,11 +60819,23 @@
       <c r="C4" t="s">
         <v>99</v>
       </c>
+      <c r="D4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3115</v>
+      </c>
       <c r="H4" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2443</v>
       </c>
@@ -60729,11 +60845,23 @@
       <c r="C5" t="s">
         <v>75</v>
       </c>
+      <c r="D5" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3118</v>
+      </c>
       <c r="H5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2444</v>
       </c>
@@ -60743,11 +60871,23 @@
       <c r="C6" t="s">
         <v>99</v>
       </c>
+      <c r="D6" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3118</v>
+      </c>
       <c r="H6" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2445</v>
       </c>
@@ -60757,11 +60897,23 @@
       <c r="C7" t="s">
         <v>110</v>
       </c>
+      <c r="D7" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3115</v>
+      </c>
       <c r="H7" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2446</v>
       </c>
@@ -60771,11 +60923,23 @@
       <c r="C8" t="s">
         <v>133</v>
       </c>
+      <c r="D8" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3120</v>
+      </c>
       <c r="H8" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2447</v>
       </c>
@@ -60785,11 +60949,23 @@
       <c r="C9" t="s">
         <v>133</v>
       </c>
+      <c r="D9" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3118</v>
+      </c>
       <c r="H9" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2448</v>
       </c>
@@ -60799,11 +60975,23 @@
       <c r="C10" t="s">
         <v>75</v>
       </c>
+      <c r="D10" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3115</v>
+      </c>
       <c r="H10" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2450</v>
       </c>
@@ -60813,11 +61001,23 @@
       <c r="C11" t="s">
         <v>133</v>
       </c>
+      <c r="D11" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3120</v>
+      </c>
       <c r="H11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2451</v>
       </c>
@@ -60827,11 +61027,23 @@
       <c r="C12" t="s">
         <v>75</v>
       </c>
+      <c r="D12" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3120</v>
+      </c>
       <c r="H12" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2452</v>
       </c>
@@ -60841,11 +61053,23 @@
       <c r="C13" t="s">
         <v>75</v>
       </c>
+      <c r="D13" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3120</v>
+      </c>
       <c r="H13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2453</v>
       </c>
@@ -60855,11 +61079,23 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
+      <c r="D14" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3115</v>
+      </c>
       <c r="H14" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2454</v>
       </c>
@@ -60869,11 +61105,23 @@
       <c r="C15" t="s">
         <v>75</v>
       </c>
+      <c r="D15" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3115</v>
+      </c>
       <c r="H15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2455</v>
       </c>
@@ -60882,6 +61130,18 @@
       </c>
       <c r="C16" t="s">
         <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3115</v>
       </c>
       <c r="H16" t="s">
         <v>2251</v>
@@ -60897,6 +61157,18 @@
       <c r="C17" t="s">
         <v>110</v>
       </c>
+      <c r="D17" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3120</v>
+      </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
@@ -60911,6 +61183,18 @@
       <c r="C18" t="s">
         <v>75</v>
       </c>
+      <c r="D18" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3114</v>
+      </c>
       <c r="H18" t="s">
         <v>2073</v>
       </c>
@@ -60925,6 +61209,18 @@
       <c r="C19" t="s">
         <v>110</v>
       </c>
+      <c r="D19" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3114</v>
+      </c>
       <c r="H19" t="s">
         <v>2226</v>
       </c>
@@ -60939,6 +61235,18 @@
       <c r="C20" t="s">
         <v>110</v>
       </c>
+      <c r="D20" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3114</v>
+      </c>
       <c r="H20" t="s">
         <v>460</v>
       </c>
@@ -60953,6 +61261,18 @@
       <c r="C21" t="s">
         <v>178</v>
       </c>
+      <c r="D21" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3115</v>
+      </c>
       <c r="H21" t="s">
         <v>1060</v>
       </c>
@@ -60967,6 +61287,18 @@
       <c r="C22" t="s">
         <v>110</v>
       </c>
+      <c r="D22" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3114</v>
+      </c>
       <c r="H22" t="s">
         <v>886</v>
       </c>
@@ -60981,6 +61313,18 @@
       <c r="C23" t="s">
         <v>75</v>
       </c>
+      <c r="D23" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3115</v>
+      </c>
       <c r="H23" t="s">
         <v>1918</v>
       </c>
@@ -60995,6 +61339,18 @@
       <c r="C24" t="s">
         <v>75</v>
       </c>
+      <c r="D24" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3115</v>
+      </c>
       <c r="H24" t="s">
         <v>76</v>
       </c>
@@ -61009,6 +61365,18 @@
       <c r="C25" t="s">
         <v>75</v>
       </c>
+      <c r="D25" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3120</v>
+      </c>
       <c r="H25" t="s">
         <v>1025</v>
       </c>
@@ -61023,6 +61391,18 @@
       <c r="C26" t="s">
         <v>110</v>
       </c>
+      <c r="D26" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3118</v>
+      </c>
       <c r="H26" t="s">
         <v>2167</v>
       </c>
@@ -61037,6 +61417,18 @@
       <c r="C27" t="s">
         <v>99</v>
       </c>
+      <c r="D27" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3120</v>
+      </c>
       <c r="H27" t="s">
         <v>1150</v>
       </c>
@@ -61051,6 +61443,18 @@
       <c r="C28" t="s">
         <v>99</v>
       </c>
+      <c r="D28" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3120</v>
+      </c>
       <c r="H28" t="s">
         <v>1510</v>
       </c>
@@ -61065,6 +61469,18 @@
       <c r="C29" t="s">
         <v>99</v>
       </c>
+      <c r="D29" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3118</v>
+      </c>
       <c r="H29" t="s">
         <v>703</v>
       </c>
@@ -61079,6 +61495,18 @@
       <c r="C30" t="s">
         <v>99</v>
       </c>
+      <c r="D30" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3120</v>
+      </c>
       <c r="H30" t="s">
         <v>1132</v>
       </c>
@@ -61093,6 +61521,18 @@
       <c r="C31" t="s">
         <v>75</v>
       </c>
+      <c r="D31" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3115</v>
+      </c>
       <c r="H31" t="s">
         <v>663</v>
       </c>
@@ -61107,6 +61547,18 @@
       <c r="C32" t="s">
         <v>75</v>
       </c>
+      <c r="D32" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3114</v>
+      </c>
       <c r="H32" t="s">
         <v>1308</v>
       </c>
@@ -61121,6 +61573,18 @@
       <c r="C33" t="s">
         <v>99</v>
       </c>
+      <c r="D33" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3118</v>
+      </c>
       <c r="H33" t="s">
         <v>100</v>
       </c>
@@ -61135,6 +61599,18 @@
       <c r="C34" t="s">
         <v>75</v>
       </c>
+      <c r="D34" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3115</v>
+      </c>
       <c r="H34" t="s">
         <v>2279</v>
       </c>
@@ -61149,6 +61625,18 @@
       <c r="C35" t="s">
         <v>133</v>
       </c>
+      <c r="D35" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3115</v>
+      </c>
       <c r="H35" t="s">
         <v>2087</v>
       </c>
@@ -61163,6 +61651,18 @@
       <c r="C36" t="s">
         <v>133</v>
       </c>
+      <c r="D36" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3115</v>
+      </c>
       <c r="H36" t="s">
         <v>476</v>
       </c>
@@ -61177,6 +61677,18 @@
       <c r="C37" t="s">
         <v>75</v>
       </c>
+      <c r="D37" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3118</v>
+      </c>
       <c r="H37" t="s">
         <v>1377</v>
       </c>
@@ -61191,6 +61703,18 @@
       <c r="C38" t="s">
         <v>99</v>
       </c>
+      <c r="D38" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3118</v>
+      </c>
       <c r="H38" t="s">
         <v>667</v>
       </c>
@@ -61205,6 +61729,18 @@
       <c r="C39" t="s">
         <v>178</v>
       </c>
+      <c r="D39" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3115</v>
+      </c>
       <c r="H39" t="s">
         <v>335</v>
       </c>
@@ -61219,6 +61755,18 @@
       <c r="C40" t="s">
         <v>178</v>
       </c>
+      <c r="D40" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3115</v>
+      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
@@ -61233,6 +61781,18 @@
       <c r="C41" t="s">
         <v>133</v>
       </c>
+      <c r="D41" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3114</v>
+      </c>
       <c r="H41" t="s">
         <v>1600</v>
       </c>
@@ -61247,6 +61807,18 @@
       <c r="C42" t="s">
         <v>99</v>
       </c>
+      <c r="D42" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3118</v>
+      </c>
       <c r="H42" t="s">
         <v>2094</v>
       </c>
@@ -61261,6 +61833,18 @@
       <c r="C43" t="s">
         <v>75</v>
       </c>
+      <c r="D43" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3115</v>
+      </c>
       <c r="H43" t="s">
         <v>669</v>
       </c>
@@ -61275,6 +61859,18 @@
       <c r="C44" t="s">
         <v>178</v>
       </c>
+      <c r="D44" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3114</v>
+      </c>
       <c r="H44" t="s">
         <v>2097</v>
       </c>
@@ -61289,6 +61885,18 @@
       <c r="C45" t="s">
         <v>99</v>
       </c>
+      <c r="D45" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3114</v>
+      </c>
       <c r="H45" t="s">
         <v>2327</v>
       </c>
@@ -61303,6 +61911,18 @@
       <c r="C46" t="s">
         <v>133</v>
       </c>
+      <c r="D46" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3120</v>
+      </c>
       <c r="H46" t="s">
         <v>134</v>
       </c>
@@ -61317,6 +61937,18 @@
       <c r="C47" t="s">
         <v>110</v>
       </c>
+      <c r="D47" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3114</v>
+      </c>
       <c r="H47" t="s">
         <v>1587</v>
       </c>
@@ -61331,6 +61963,18 @@
       <c r="C48" t="s">
         <v>99</v>
       </c>
+      <c r="D48" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3115</v>
+      </c>
       <c r="H48" t="s">
         <v>1159</v>
       </c>
@@ -61345,6 +61989,18 @@
       <c r="C49" t="s">
         <v>99</v>
       </c>
+      <c r="D49" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3115</v>
+      </c>
       <c r="H49" t="s">
         <v>488</v>
       </c>
@@ -61359,6 +62015,18 @@
       <c r="C50" t="s">
         <v>133</v>
       </c>
+      <c r="D50" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3115</v>
+      </c>
       <c r="H50" t="s">
         <v>1988</v>
       </c>
@@ -61373,6 +62041,18 @@
       <c r="C51" t="s">
         <v>110</v>
       </c>
+      <c r="D51" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3118</v>
+      </c>
       <c r="H51" t="s">
         <v>1426</v>
       </c>
@@ -61387,6 +62067,18 @@
       <c r="C52" t="s">
         <v>133</v>
       </c>
+      <c r="D52" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G52" t="s">
+        <v>3120</v>
+      </c>
       <c r="H52" t="s">
         <v>2191</v>
       </c>
@@ -61401,6 +62093,18 @@
       <c r="C53" t="s">
         <v>133</v>
       </c>
+      <c r="D53" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3118</v>
+      </c>
       <c r="H53" t="s">
         <v>1484</v>
       </c>
@@ -61415,6 +62119,18 @@
       <c r="C54" t="s">
         <v>110</v>
       </c>
+      <c r="D54" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G54" t="s">
+        <v>3120</v>
+      </c>
       <c r="H54" t="s">
         <v>1500</v>
       </c>
@@ -61429,6 +62145,18 @@
       <c r="C55" t="s">
         <v>99</v>
       </c>
+      <c r="D55" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G55" t="s">
+        <v>3120</v>
+      </c>
       <c r="H55" t="s">
         <v>1897</v>
       </c>
@@ -61443,6 +62171,18 @@
       <c r="C56" t="s">
         <v>178</v>
       </c>
+      <c r="D56" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3120</v>
+      </c>
       <c r="H56" t="s">
         <v>1864</v>
       </c>
@@ -61457,6 +62197,18 @@
       <c r="C57" t="s">
         <v>99</v>
       </c>
+      <c r="D57" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G57" t="s">
+        <v>3118</v>
+      </c>
       <c r="H57" t="s">
         <v>1390</v>
       </c>
@@ -61471,6 +62223,18 @@
       <c r="C58" t="s">
         <v>75</v>
       </c>
+      <c r="D58" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3114</v>
+      </c>
       <c r="H58" t="s">
         <v>1184</v>
       </c>
@@ -61485,6 +62249,18 @@
       <c r="C59" t="s">
         <v>99</v>
       </c>
+      <c r="D59" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3118</v>
+      </c>
       <c r="H59" t="s">
         <v>734</v>
       </c>
@@ -61499,6 +62275,18 @@
       <c r="C60" t="s">
         <v>133</v>
       </c>
+      <c r="D60" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3115</v>
+      </c>
       <c r="H60" t="s">
         <v>804</v>
       </c>
@@ -61513,6 +62301,18 @@
       <c r="C61" t="s">
         <v>178</v>
       </c>
+      <c r="D61" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3115</v>
+      </c>
       <c r="H61" t="s">
         <v>1518</v>
       </c>
@@ -61527,6 +62327,18 @@
       <c r="C62" t="s">
         <v>178</v>
       </c>
+      <c r="D62" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G62" t="s">
+        <v>3114</v>
+      </c>
       <c r="H62" t="s">
         <v>709</v>
       </c>
@@ -61541,6 +62353,18 @@
       <c r="C63" t="s">
         <v>133</v>
       </c>
+      <c r="D63" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G63" t="s">
+        <v>3115</v>
+      </c>
       <c r="H63" t="s">
         <v>574</v>
       </c>
@@ -61555,6 +62379,18 @@
       <c r="C64" t="s">
         <v>133</v>
       </c>
+      <c r="D64" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3120</v>
+      </c>
       <c r="H64" t="s">
         <v>388</v>
       </c>
@@ -61569,6 +62405,18 @@
       <c r="C65" t="s">
         <v>75</v>
       </c>
+      <c r="D65" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G65" t="s">
+        <v>3115</v>
+      </c>
       <c r="H65" t="s">
         <v>1421</v>
       </c>
@@ -61583,6 +62431,18 @@
       <c r="C66" t="s">
         <v>110</v>
       </c>
+      <c r="D66" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G66" t="s">
+        <v>3118</v>
+      </c>
       <c r="H66" t="s">
         <v>1011</v>
       </c>
@@ -61597,6 +62457,18 @@
       <c r="C67" t="s">
         <v>178</v>
       </c>
+      <c r="D67" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G67" t="s">
+        <v>3115</v>
+      </c>
       <c r="H67" t="s">
         <v>653</v>
       </c>
@@ -61611,6 +62483,18 @@
       <c r="C68" t="s">
         <v>110</v>
       </c>
+      <c r="D68" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3115</v>
+      </c>
       <c r="H68" t="s">
         <v>417</v>
       </c>
@@ -61625,6 +62509,18 @@
       <c r="C69" t="s">
         <v>178</v>
       </c>
+      <c r="D69" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G69" t="s">
+        <v>3115</v>
+      </c>
       <c r="H69" t="s">
         <v>279</v>
       </c>
@@ -61639,6 +62535,18 @@
       <c r="C70" t="s">
         <v>110</v>
       </c>
+      <c r="D70" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3115</v>
+      </c>
       <c r="H70" t="s">
         <v>737</v>
       </c>
@@ -61653,6 +62561,18 @@
       <c r="C71" t="s">
         <v>110</v>
       </c>
+      <c r="D71" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G71" t="s">
+        <v>3115</v>
+      </c>
       <c r="H71" t="s">
         <v>1821</v>
       </c>
@@ -61667,6 +62587,18 @@
       <c r="C72" t="s">
         <v>110</v>
       </c>
+      <c r="D72" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3120</v>
+      </c>
       <c r="H72" t="s">
         <v>2309</v>
       </c>
@@ -61681,6 +62613,18 @@
       <c r="C73" t="s">
         <v>99</v>
       </c>
+      <c r="D73" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3115</v>
+      </c>
       <c r="H73" t="s">
         <v>749</v>
       </c>
@@ -61695,6 +62639,18 @@
       <c r="C74" t="s">
         <v>133</v>
       </c>
+      <c r="D74" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G74" t="s">
+        <v>3120</v>
+      </c>
       <c r="H74" t="s">
         <v>1036</v>
       </c>
@@ -61709,6 +62665,18 @@
       <c r="C75" t="s">
         <v>110</v>
       </c>
+      <c r="D75" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3120</v>
+      </c>
       <c r="H75" t="s">
         <v>2066</v>
       </c>
@@ -61723,6 +62691,18 @@
       <c r="C76" t="s">
         <v>110</v>
       </c>
+      <c r="D76" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3118</v>
+      </c>
       <c r="H76" t="s">
         <v>2209</v>
       </c>
@@ -61737,6 +62717,18 @@
       <c r="C77" t="s">
         <v>178</v>
       </c>
+      <c r="D77" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G77" t="s">
+        <v>3118</v>
+      </c>
       <c r="H77" t="s">
         <v>204</v>
       </c>
@@ -61751,6 +62743,18 @@
       <c r="C78" t="s">
         <v>133</v>
       </c>
+      <c r="D78" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3114</v>
+      </c>
       <c r="H78" t="s">
         <v>966</v>
       </c>
@@ -61765,6 +62769,18 @@
       <c r="C79" t="s">
         <v>99</v>
       </c>
+      <c r="D79" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3114</v>
+      </c>
       <c r="H79" t="s">
         <v>1309</v>
       </c>
@@ -61779,6 +62795,18 @@
       <c r="C80" t="s">
         <v>110</v>
       </c>
+      <c r="D80" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3118</v>
+      </c>
       <c r="H80" t="s">
         <v>2294</v>
       </c>
@@ -61793,6 +62821,18 @@
       <c r="C81" t="s">
         <v>99</v>
       </c>
+      <c r="D81" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G81" t="s">
+        <v>3114</v>
+      </c>
       <c r="H81" t="s">
         <v>332</v>
       </c>
@@ -61807,6 +62847,18 @@
       <c r="C82" t="s">
         <v>75</v>
       </c>
+      <c r="D82" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3118</v>
+      </c>
       <c r="H82" t="s">
         <v>1561</v>
       </c>
@@ -61821,6 +62873,18 @@
       <c r="C83" t="s">
         <v>178</v>
       </c>
+      <c r="D83" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3118</v>
+      </c>
       <c r="H83" t="s">
         <v>1969</v>
       </c>
@@ -61835,6 +62899,18 @@
       <c r="C84" t="s">
         <v>75</v>
       </c>
+      <c r="D84" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G84" t="s">
+        <v>3118</v>
+      </c>
       <c r="H84" t="s">
         <v>200</v>
       </c>
@@ -61849,6 +62925,18 @@
       <c r="C85" t="s">
         <v>178</v>
       </c>
+      <c r="D85" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3115</v>
+      </c>
       <c r="H85" t="s">
         <v>1922</v>
       </c>
@@ -61863,6 +62951,18 @@
       <c r="C86" t="s">
         <v>75</v>
       </c>
+      <c r="D86" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G86" t="s">
+        <v>3114</v>
+      </c>
       <c r="H86" t="s">
         <v>1731</v>
       </c>
@@ -61877,6 +62977,18 @@
       <c r="C87" t="s">
         <v>133</v>
       </c>
+      <c r="D87" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3115</v>
+      </c>
       <c r="H87" t="s">
         <v>686</v>
       </c>
@@ -61891,6 +63003,18 @@
       <c r="C88" t="s">
         <v>75</v>
       </c>
+      <c r="D88" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3118</v>
+      </c>
       <c r="H88" t="s">
         <v>778</v>
       </c>
@@ -61905,6 +63029,18 @@
       <c r="C89" t="s">
         <v>99</v>
       </c>
+      <c r="D89" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3115</v>
+      </c>
       <c r="H89" t="s">
         <v>368</v>
       </c>
@@ -61919,6 +63055,18 @@
       <c r="C90" t="s">
         <v>110</v>
       </c>
+      <c r="D90" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3115</v>
+      </c>
       <c r="H90" t="s">
         <v>1694</v>
       </c>
@@ -61933,6 +63081,18 @@
       <c r="C91" t="s">
         <v>178</v>
       </c>
+      <c r="D91" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3118</v>
+      </c>
       <c r="H91" t="s">
         <v>545</v>
       </c>
@@ -61947,6 +63107,18 @@
       <c r="C92" t="s">
         <v>133</v>
       </c>
+      <c r="D92" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3115</v>
+      </c>
       <c r="H92" t="s">
         <v>1084</v>
       </c>
@@ -61961,6 +63133,18 @@
       <c r="C93" t="s">
         <v>178</v>
       </c>
+      <c r="D93" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G93" t="s">
+        <v>3115</v>
+      </c>
       <c r="H93" t="s">
         <v>1532</v>
       </c>
@@ -61975,6 +63159,18 @@
       <c r="C94" t="s">
         <v>99</v>
       </c>
+      <c r="D94" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3115</v>
+      </c>
       <c r="H94" t="s">
         <v>616</v>
       </c>
@@ -61989,6 +63185,18 @@
       <c r="C95" t="s">
         <v>110</v>
       </c>
+      <c r="D95" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3114</v>
+      </c>
       <c r="H95" t="s">
         <v>1708</v>
       </c>
@@ -62003,6 +63211,18 @@
       <c r="C96" t="s">
         <v>110</v>
       </c>
+      <c r="D96" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G96" t="s">
+        <v>3118</v>
+      </c>
       <c r="H96" t="s">
         <v>2353</v>
       </c>
@@ -62017,6 +63237,18 @@
       <c r="C97" t="s">
         <v>110</v>
       </c>
+      <c r="D97" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3115</v>
+      </c>
       <c r="H97" t="s">
         <v>921</v>
       </c>
@@ -62031,6 +63263,18 @@
       <c r="C98" t="s">
         <v>178</v>
       </c>
+      <c r="D98" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3120</v>
+      </c>
       <c r="H98" t="s">
         <v>179</v>
       </c>
@@ -62045,6 +63289,18 @@
       <c r="C99" t="s">
         <v>99</v>
       </c>
+      <c r="D99" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3120</v>
+      </c>
       <c r="H99" t="s">
         <v>1925</v>
       </c>
@@ -62059,6 +63315,18 @@
       <c r="C100" t="s">
         <v>99</v>
       </c>
+      <c r="D100" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3115</v>
+      </c>
       <c r="H100" t="s">
         <v>820</v>
       </c>
@@ -62073,6 +63341,18 @@
       <c r="C101" t="s">
         <v>99</v>
       </c>
+      <c r="D101" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3114</v>
+      </c>
       <c r="H101" t="s">
         <v>2382</v>
       </c>
@@ -62087,6 +63367,18 @@
       <c r="C102" t="s">
         <v>99</v>
       </c>
+      <c r="D102" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3115</v>
+      </c>
       <c r="H102" t="s">
         <v>2256</v>
       </c>
@@ -62101,6 +63393,18 @@
       <c r="C103" t="s">
         <v>99</v>
       </c>
+      <c r="D103" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3114</v>
+      </c>
       <c r="H103" t="s">
         <v>1563</v>
       </c>
@@ -62115,6 +63419,18 @@
       <c r="C104" t="s">
         <v>110</v>
       </c>
+      <c r="D104" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G104" t="s">
+        <v>3115</v>
+      </c>
       <c r="H104" t="s">
         <v>1048</v>
       </c>
@@ -62129,6 +63445,18 @@
       <c r="C105" t="s">
         <v>133</v>
       </c>
+      <c r="D105" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3115</v>
+      </c>
       <c r="H105" t="s">
         <v>935</v>
       </c>
@@ -62143,6 +63471,18 @@
       <c r="C106" t="s">
         <v>178</v>
       </c>
+      <c r="D106" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3115</v>
+      </c>
       <c r="H106" t="s">
         <v>1334</v>
       </c>
@@ -62157,6 +63497,18 @@
       <c r="C107" t="s">
         <v>110</v>
       </c>
+      <c r="D107" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G107" t="s">
+        <v>3115</v>
+      </c>
       <c r="H107" t="s">
         <v>740</v>
       </c>
@@ -62171,6 +63523,18 @@
       <c r="C108" t="s">
         <v>99</v>
       </c>
+      <c r="D108" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3118</v>
+      </c>
       <c r="H108" t="s">
         <v>605</v>
       </c>
@@ -62185,6 +63549,18 @@
       <c r="C109" t="s">
         <v>75</v>
       </c>
+      <c r="D109" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3118</v>
+      </c>
       <c r="H109" t="s">
         <v>721</v>
       </c>
@@ -62199,6 +63575,18 @@
       <c r="C110" t="s">
         <v>178</v>
       </c>
+      <c r="D110" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E110" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G110" t="s">
+        <v>3115</v>
+      </c>
       <c r="H110" t="s">
         <v>1954</v>
       </c>
@@ -62213,6 +63601,18 @@
       <c r="C111" t="s">
         <v>133</v>
       </c>
+      <c r="D111" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E111" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G111" t="s">
+        <v>3115</v>
+      </c>
       <c r="H111" t="s">
         <v>1792</v>
       </c>
@@ -62227,6 +63627,18 @@
       <c r="C112" t="s">
         <v>133</v>
       </c>
+      <c r="D112" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G112" t="s">
+        <v>3114</v>
+      </c>
       <c r="H112" t="s">
         <v>1107</v>
       </c>
@@ -62241,6 +63653,18 @@
       <c r="C113" t="s">
         <v>110</v>
       </c>
+      <c r="D113" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E113" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3120</v>
+      </c>
       <c r="H113" t="s">
         <v>1366</v>
       </c>
@@ -62255,6 +63679,18 @@
       <c r="C114" t="s">
         <v>110</v>
       </c>
+      <c r="D114" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E114" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3118</v>
+      </c>
       <c r="H114" t="s">
         <v>1848</v>
       </c>
@@ -62269,6 +63705,18 @@
       <c r="C115" t="s">
         <v>110</v>
       </c>
+      <c r="D115" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G115" t="s">
+        <v>3115</v>
+      </c>
       <c r="H115" t="s">
         <v>556</v>
       </c>
@@ -62283,6 +63731,18 @@
       <c r="C116" t="s">
         <v>133</v>
       </c>
+      <c r="D116" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E116" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3115</v>
+      </c>
       <c r="H116" t="s">
         <v>1966</v>
       </c>
@@ -62297,6 +63757,18 @@
       <c r="C117" t="s">
         <v>178</v>
       </c>
+      <c r="D117" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E117" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3118</v>
+      </c>
       <c r="H117" t="s">
         <v>1477</v>
       </c>
@@ -62311,6 +63783,18 @@
       <c r="C118" t="s">
         <v>110</v>
       </c>
+      <c r="D118" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E118" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F118" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3115</v>
+      </c>
       <c r="H118" t="s">
         <v>758</v>
       </c>
@@ -62325,6 +63809,18 @@
       <c r="C119" t="s">
         <v>110</v>
       </c>
+      <c r="D119" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E119" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G119" t="s">
+        <v>3120</v>
+      </c>
       <c r="H119" t="s">
         <v>1622</v>
       </c>
@@ -62339,6 +63835,18 @@
       <c r="C120" t="s">
         <v>110</v>
       </c>
+      <c r="D120" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E120" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G120" t="s">
+        <v>3118</v>
+      </c>
       <c r="H120" t="s">
         <v>1300</v>
       </c>
@@ -62353,6 +63861,18 @@
       <c r="C121" t="s">
         <v>178</v>
       </c>
+      <c r="D121" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E121" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F121" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G121" t="s">
+        <v>3115</v>
+      </c>
       <c r="H121" t="s">
         <v>1653</v>
       </c>
@@ -62367,6 +63887,18 @@
       <c r="C122" t="s">
         <v>133</v>
       </c>
+      <c r="D122" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E122" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F122" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3120</v>
+      </c>
       <c r="H122" t="s">
         <v>1775</v>
       </c>
@@ -62381,6 +63913,18 @@
       <c r="C123" t="s">
         <v>99</v>
       </c>
+      <c r="D123" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E123" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F123" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G123" t="s">
+        <v>3115</v>
+      </c>
       <c r="H123" t="s">
         <v>2120</v>
       </c>
@@ -62395,6 +63939,18 @@
       <c r="C124" t="s">
         <v>99</v>
       </c>
+      <c r="D124" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E124" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F124" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G124" t="s">
+        <v>3115</v>
+      </c>
       <c r="H124" t="s">
         <v>1593</v>
       </c>
@@ -62409,6 +63965,18 @@
       <c r="C125" t="s">
         <v>75</v>
       </c>
+      <c r="D125" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E125" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F125" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G125" t="s">
+        <v>3115</v>
+      </c>
       <c r="H125" t="s">
         <v>715</v>
       </c>
@@ -62423,6 +63991,18 @@
       <c r="C126" t="s">
         <v>110</v>
       </c>
+      <c r="D126" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E126" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F126" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G126" t="s">
+        <v>3120</v>
+      </c>
       <c r="H126" t="s">
         <v>2176</v>
       </c>
@@ -62437,6 +64017,18 @@
       <c r="C127" t="s">
         <v>75</v>
       </c>
+      <c r="D127" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E127" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F127" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G127" t="s">
+        <v>3118</v>
+      </c>
       <c r="H127" t="s">
         <v>1172</v>
       </c>
@@ -62451,6 +64043,18 @@
       <c r="C128" t="s">
         <v>133</v>
       </c>
+      <c r="D128" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E128" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F128" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G128" t="s">
+        <v>3120</v>
+      </c>
       <c r="H128" t="s">
         <v>2377</v>
       </c>
@@ -62465,6 +64069,18 @@
       <c r="C129" t="s">
         <v>133</v>
       </c>
+      <c r="D129" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E129" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G129" t="s">
+        <v>3118</v>
+      </c>
       <c r="H129" t="s">
         <v>2103</v>
       </c>
@@ -62479,6 +64095,18 @@
       <c r="C130" t="s">
         <v>99</v>
       </c>
+      <c r="D130" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E130" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F130" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G130" t="s">
+        <v>3120</v>
+      </c>
       <c r="H130" t="s">
         <v>1437</v>
       </c>
@@ -62493,6 +64121,18 @@
       <c r="C131" t="s">
         <v>178</v>
       </c>
+      <c r="D131" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E131" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F131" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3114</v>
+      </c>
       <c r="H131" t="s">
         <v>1238</v>
       </c>
@@ -62507,6 +64147,18 @@
       <c r="C132" t="s">
         <v>133</v>
       </c>
+      <c r="D132" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E132" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G132" t="s">
+        <v>3115</v>
+      </c>
       <c r="H132" t="s">
         <v>2064</v>
       </c>
@@ -62521,6 +64173,18 @@
       <c r="C133" t="s">
         <v>75</v>
       </c>
+      <c r="D133" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E133" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F133" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3120</v>
+      </c>
       <c r="H133" t="s">
         <v>1323</v>
       </c>
@@ -62535,6 +64199,18 @@
       <c r="C134" t="s">
         <v>75</v>
       </c>
+      <c r="D134" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E134" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F134" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G134" t="s">
+        <v>3118</v>
+      </c>
       <c r="H134" t="s">
         <v>1231</v>
       </c>
@@ -62549,6 +64225,18 @@
       <c r="C135" t="s">
         <v>178</v>
       </c>
+      <c r="D135" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E135" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G135" t="s">
+        <v>3114</v>
+      </c>
       <c r="H135" t="s">
         <v>1900</v>
       </c>
@@ -62563,6 +64251,18 @@
       <c r="C136" t="s">
         <v>133</v>
       </c>
+      <c r="D136" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E136" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F136" t="s">
+        <v>3116</v>
+      </c>
+      <c r="G136" t="s">
+        <v>3114</v>
+      </c>
       <c r="H136" t="s">
         <v>1940</v>
       </c>
@@ -62577,6 +64277,18 @@
       <c r="C137" t="s">
         <v>99</v>
       </c>
+      <c r="D137" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E137" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F137" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G137" t="s">
+        <v>3115</v>
+      </c>
       <c r="H137" t="s">
         <v>1468</v>
       </c>
@@ -62591,6 +64303,18 @@
       <c r="C138" t="s">
         <v>99</v>
       </c>
+      <c r="D138" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E138" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F138" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G138" t="s">
+        <v>3118</v>
+      </c>
       <c r="H138" t="s">
         <v>311</v>
       </c>
@@ -62605,6 +64329,18 @@
       <c r="C139" t="s">
         <v>133</v>
       </c>
+      <c r="D139" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E139" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F139" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G139" t="s">
+        <v>3118</v>
+      </c>
       <c r="H139" t="s">
         <v>915</v>
       </c>
@@ -66371,6 +68107,18 @@
       <c r="C408" t="s">
         <v>104</v>
       </c>
+      <c r="D408" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E408" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F408" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G408" t="s">
+        <v>3125</v>
+      </c>
       <c r="H408" t="s">
         <v>480</v>
       </c>
@@ -66385,6 +68133,18 @@
       <c r="C409" t="s">
         <v>152</v>
       </c>
+      <c r="D409" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E409" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F409" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G409" t="s">
+        <v>3113</v>
+      </c>
       <c r="H409" t="s">
         <v>1942</v>
       </c>
@@ -66399,6 +68159,18 @@
       <c r="C410" t="s">
         <v>152</v>
       </c>
+      <c r="D410" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E410" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F410" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G410" t="s">
+        <v>3113</v>
+      </c>
       <c r="H410" t="s">
         <v>537</v>
       </c>
@@ -66413,6 +68185,18 @@
       <c r="C411" t="s">
         <v>152</v>
       </c>
+      <c r="D411" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E411" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F411" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G411" t="s">
+        <v>3113</v>
+      </c>
       <c r="H411" t="s">
         <v>1869</v>
       </c>
@@ -66427,6 +68211,18 @@
       <c r="C412" t="s">
         <v>211</v>
       </c>
+      <c r="D412" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E412" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F412" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G412" t="s">
+        <v>3124</v>
+      </c>
       <c r="H412" t="s">
         <v>1735</v>
       </c>
@@ -66441,6 +68237,18 @@
       <c r="C413" t="s">
         <v>152</v>
       </c>
+      <c r="D413" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E413" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F413" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G413" t="s">
+        <v>3113</v>
+      </c>
       <c r="H413" t="s">
         <v>187</v>
       </c>
@@ -66455,6 +68263,18 @@
       <c r="C414" t="s">
         <v>152</v>
       </c>
+      <c r="D414" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E414" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F414" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G414" t="s">
+        <v>3124</v>
+      </c>
       <c r="H414" t="s">
         <v>1215</v>
       </c>
@@ -66469,6 +68289,18 @@
       <c r="C415" t="s">
         <v>152</v>
       </c>
+      <c r="D415" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E415" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F415" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G415" t="s">
+        <v>3124</v>
+      </c>
       <c r="H415" t="s">
         <v>283</v>
       </c>
@@ -66483,6 +68315,18 @@
       <c r="C416" t="s">
         <v>56</v>
       </c>
+      <c r="D416" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E416" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F416" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G416" t="s">
+        <v>3124</v>
+      </c>
       <c r="H416" t="s">
         <v>1028</v>
       </c>
@@ -66497,6 +68341,18 @@
       <c r="C417" t="s">
         <v>115</v>
       </c>
+      <c r="D417" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E417" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F417" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G417" t="s">
+        <v>3124</v>
+      </c>
       <c r="H417" t="s">
         <v>2399</v>
       </c>
@@ -66511,6 +68367,18 @@
       <c r="C418" t="s">
         <v>104</v>
       </c>
+      <c r="D418" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E418" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F418" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G418" t="s">
+        <v>3124</v>
+      </c>
       <c r="H418" t="s">
         <v>680</v>
       </c>
@@ -66525,6 +68393,18 @@
       <c r="C419" t="s">
         <v>104</v>
       </c>
+      <c r="D419" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E419" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F419" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G419" t="s">
+        <v>3125</v>
+      </c>
       <c r="H419" t="s">
         <v>105</v>
       </c>
@@ -66539,6 +68419,18 @@
       <c r="C420" t="s">
         <v>152</v>
       </c>
+      <c r="D420" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E420" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F420" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G420" t="s">
+        <v>3125</v>
+      </c>
       <c r="H420" t="s">
         <v>648</v>
       </c>
@@ -66553,6 +68445,18 @@
       <c r="C421" t="s">
         <v>115</v>
       </c>
+      <c r="D421" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E421" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F421" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G421" t="s">
+        <v>3124</v>
+      </c>
       <c r="H421" t="s">
         <v>116</v>
       </c>
@@ -66567,6 +68471,18 @@
       <c r="C422" t="s">
         <v>211</v>
       </c>
+      <c r="D422" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E422" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F422" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G422" t="s">
+        <v>3124</v>
+      </c>
       <c r="H422" t="s">
         <v>1208</v>
       </c>
@@ -66581,6 +68497,18 @@
       <c r="C423" t="s">
         <v>56</v>
       </c>
+      <c r="D423" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E423" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F423" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G423" t="s">
+        <v>3124</v>
+      </c>
       <c r="H423" t="s">
         <v>2145</v>
       </c>
@@ -66595,6 +68523,18 @@
       <c r="C424" t="s">
         <v>56</v>
       </c>
+      <c r="D424" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E424" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F424" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G424" t="s">
+        <v>3124</v>
+      </c>
       <c r="H424" t="s">
         <v>57</v>
       </c>
@@ -66609,6 +68549,18 @@
       <c r="C425" t="s">
         <v>152</v>
       </c>
+      <c r="D425" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E425" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F425" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G425" t="s">
+        <v>3113</v>
+      </c>
       <c r="H425" t="s">
         <v>372</v>
       </c>
@@ -66623,6 +68575,18 @@
       <c r="C426" t="s">
         <v>211</v>
       </c>
+      <c r="D426" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E426" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F426" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G426" t="s">
+        <v>3113</v>
+      </c>
       <c r="H426" t="s">
         <v>1200</v>
       </c>
@@ -66637,6 +68601,18 @@
       <c r="C427" t="s">
         <v>211</v>
       </c>
+      <c r="D427" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E427" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F427" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G427" t="s">
+        <v>3113</v>
+      </c>
       <c r="H427" t="s">
         <v>577</v>
       </c>
@@ -66651,6 +68627,18 @@
       <c r="C428" t="s">
         <v>56</v>
       </c>
+      <c r="D428" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E428" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F428" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G428" t="s">
+        <v>3124</v>
+      </c>
       <c r="H428" t="s">
         <v>635</v>
       </c>
@@ -66665,6 +68653,18 @@
       <c r="C429" t="s">
         <v>211</v>
       </c>
+      <c r="D429" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E429" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F429" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G429" t="s">
+        <v>3124</v>
+      </c>
       <c r="H429" t="s">
         <v>1578</v>
       </c>
@@ -66679,6 +68679,18 @@
       <c r="C430" t="s">
         <v>56</v>
       </c>
+      <c r="D430" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E430" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F430" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G430" t="s">
+        <v>3124</v>
+      </c>
       <c r="H430" t="s">
         <v>2069</v>
       </c>
@@ -66693,6 +68705,18 @@
       <c r="C431" t="s">
         <v>104</v>
       </c>
+      <c r="D431" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E431" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F431" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G431" t="s">
+        <v>3124</v>
+      </c>
       <c r="H431" t="s">
         <v>512</v>
       </c>
@@ -66707,6 +68731,18 @@
       <c r="C432" t="s">
         <v>56</v>
       </c>
+      <c r="D432" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E432" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F432" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G432" t="s">
+        <v>3124</v>
+      </c>
       <c r="H432" t="s">
         <v>850</v>
       </c>
@@ -66721,6 +68757,18 @@
       <c r="C433" t="s">
         <v>115</v>
       </c>
+      <c r="D433" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E433" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F433" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G433" t="s">
+        <v>3124</v>
+      </c>
       <c r="H433" t="s">
         <v>1081</v>
       </c>
@@ -66735,6 +68783,18 @@
       <c r="C434" t="s">
         <v>56</v>
       </c>
+      <c r="D434" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E434" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F434" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G434" t="s">
+        <v>3124</v>
+      </c>
       <c r="H434" t="s">
         <v>622</v>
       </c>
@@ -66749,6 +68809,18 @@
       <c r="C435" t="s">
         <v>56</v>
       </c>
+      <c r="D435" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E435" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F435" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G435" t="s">
+        <v>3124</v>
+      </c>
       <c r="H435" t="s">
         <v>1688</v>
       </c>
@@ -66763,6 +68835,18 @@
       <c r="C436" t="s">
         <v>56</v>
       </c>
+      <c r="D436" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E436" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F436" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G436" t="s">
+        <v>3124</v>
+      </c>
       <c r="H436" t="s">
         <v>765</v>
       </c>
@@ -66777,6 +68861,18 @@
       <c r="C437" t="s">
         <v>211</v>
       </c>
+      <c r="D437" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E437" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F437" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G437" t="s">
+        <v>3113</v>
+      </c>
       <c r="H437" t="s">
         <v>1773</v>
       </c>
@@ -66791,6 +68887,18 @@
       <c r="C438" t="s">
         <v>211</v>
       </c>
+      <c r="D438" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E438" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F438" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G438" t="s">
+        <v>3125</v>
+      </c>
       <c r="H438" t="s">
         <v>1249</v>
       </c>
@@ -66805,6 +68913,18 @@
       <c r="C439" t="s">
         <v>56</v>
       </c>
+      <c r="D439" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E439" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F439" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G439" t="s">
+        <v>3125</v>
+      </c>
       <c r="H439" t="s">
         <v>464</v>
       </c>
@@ -66819,6 +68939,18 @@
       <c r="C440" t="s">
         <v>104</v>
       </c>
+      <c r="D440" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E440" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F440" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G440" t="s">
+        <v>3124</v>
+      </c>
       <c r="H440" t="s">
         <v>540</v>
       </c>
@@ -66833,6 +68965,18 @@
       <c r="C441" t="s">
         <v>104</v>
       </c>
+      <c r="D441" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E441" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F441" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G441" t="s">
+        <v>3125</v>
+      </c>
       <c r="H441" t="s">
         <v>2197</v>
       </c>
@@ -66847,6 +68991,18 @@
       <c r="C442" t="s">
         <v>115</v>
       </c>
+      <c r="D442" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E442" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F442" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G442" t="s">
+        <v>3113</v>
+      </c>
       <c r="H442" t="s">
         <v>1495</v>
       </c>
@@ -66861,6 +69017,18 @@
       <c r="C443" t="s">
         <v>115</v>
       </c>
+      <c r="D443" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E443" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F443" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G443" t="s">
+        <v>3125</v>
+      </c>
       <c r="H443" t="s">
         <v>2288</v>
       </c>
@@ -66875,6 +69043,18 @@
       <c r="C444" t="s">
         <v>211</v>
       </c>
+      <c r="D444" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E444" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F444" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G444" t="s">
+        <v>3124</v>
+      </c>
       <c r="H444" t="s">
         <v>677</v>
       </c>
@@ -66889,6 +69069,18 @@
       <c r="C445" t="s">
         <v>115</v>
       </c>
+      <c r="D445" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E445" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F445" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G445" t="s">
+        <v>3125</v>
+      </c>
       <c r="H445" t="s">
         <v>1657</v>
       </c>
@@ -66903,6 +69095,18 @@
       <c r="C446" t="s">
         <v>104</v>
       </c>
+      <c r="D446" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E446" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F446" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G446" t="s">
+        <v>3125</v>
+      </c>
       <c r="H446" t="s">
         <v>542</v>
       </c>
@@ -66917,6 +69121,18 @@
       <c r="C447" t="s">
         <v>115</v>
       </c>
+      <c r="D447" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E447" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F447" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G447" t="s">
+        <v>3124</v>
+      </c>
       <c r="H447" t="s">
         <v>2233</v>
       </c>
@@ -66931,6 +69147,18 @@
       <c r="C448" t="s">
         <v>104</v>
       </c>
+      <c r="D448" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E448" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F448" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G448" t="s">
+        <v>3124</v>
+      </c>
       <c r="H448" t="s">
         <v>1986</v>
       </c>
@@ -66945,6 +69173,18 @@
       <c r="C449" t="s">
         <v>115</v>
       </c>
+      <c r="D449" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E449" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F449" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G449" t="s">
+        <v>3124</v>
+      </c>
       <c r="H449" t="s">
         <v>1717</v>
       </c>
@@ -66959,6 +69199,18 @@
       <c r="C450" t="s">
         <v>211</v>
       </c>
+      <c r="D450" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E450" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F450" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G450" t="s">
+        <v>3124</v>
+      </c>
       <c r="H450" t="s">
         <v>1443</v>
       </c>
@@ -66973,6 +69225,18 @@
       <c r="C451" t="s">
         <v>152</v>
       </c>
+      <c r="D451" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E451" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F451" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G451" t="s">
+        <v>3124</v>
+      </c>
       <c r="H451" t="s">
         <v>1046</v>
       </c>
@@ -66987,6 +69251,18 @@
       <c r="C452" t="s">
         <v>104</v>
       </c>
+      <c r="D452" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E452" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F452" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G452" t="s">
+        <v>3124</v>
+      </c>
       <c r="H452" t="s">
         <v>295</v>
       </c>
@@ -67001,6 +69277,18 @@
       <c r="C453" t="s">
         <v>211</v>
       </c>
+      <c r="D453" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E453" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F453" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G453" t="s">
+        <v>3113</v>
+      </c>
       <c r="H453" t="s">
         <v>767</v>
       </c>
@@ -67015,6 +69303,18 @@
       <c r="C454" t="s">
         <v>152</v>
       </c>
+      <c r="D454" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E454" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F454" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G454" t="s">
+        <v>3125</v>
+      </c>
       <c r="H454" t="s">
         <v>1635</v>
       </c>
@@ -67029,6 +69329,18 @@
       <c r="C455" t="s">
         <v>115</v>
       </c>
+      <c r="D455" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E455" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F455" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G455" t="s">
+        <v>3113</v>
+      </c>
       <c r="H455" t="s">
         <v>1544</v>
       </c>
@@ -67043,6 +69355,18 @@
       <c r="C456" t="s">
         <v>104</v>
       </c>
+      <c r="D456" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E456" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F456" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G456" t="s">
+        <v>3124</v>
+      </c>
       <c r="H456" t="s">
         <v>1759</v>
       </c>
@@ -67057,6 +69381,18 @@
       <c r="C457" t="s">
         <v>115</v>
       </c>
+      <c r="D457" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E457" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F457" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G457" t="s">
+        <v>3113</v>
+      </c>
       <c r="H457" t="s">
         <v>609</v>
       </c>
@@ -67071,6 +69407,18 @@
       <c r="C458" t="s">
         <v>115</v>
       </c>
+      <c r="D458" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E458" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F458" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G458" t="s">
+        <v>3124</v>
+      </c>
       <c r="H458" t="s">
         <v>1828</v>
       </c>
@@ -67085,6 +69433,18 @@
       <c r="C459" t="s">
         <v>115</v>
       </c>
+      <c r="D459" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E459" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F459" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G459" t="s">
+        <v>3124</v>
+      </c>
       <c r="H459" t="s">
         <v>973</v>
       </c>
@@ -67099,6 +69459,18 @@
       <c r="C460" t="s">
         <v>104</v>
       </c>
+      <c r="D460" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E460" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F460" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G460" t="s">
+        <v>3125</v>
+      </c>
       <c r="H460" t="s">
         <v>392</v>
       </c>
@@ -67113,6 +69485,18 @@
       <c r="C461" t="s">
         <v>56</v>
       </c>
+      <c r="D461" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E461" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F461" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G461" t="s">
+        <v>3113</v>
+      </c>
       <c r="H461" t="s">
         <v>563</v>
       </c>
@@ -67127,6 +69511,18 @@
       <c r="C462" t="s">
         <v>104</v>
       </c>
+      <c r="D462" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E462" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F462" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G462" t="s">
+        <v>3113</v>
+      </c>
       <c r="H462" t="s">
         <v>1523</v>
       </c>
@@ -67141,6 +69537,18 @@
       <c r="C463" t="s">
         <v>152</v>
       </c>
+      <c r="D463" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E463" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F463" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G463" t="s">
+        <v>3124</v>
+      </c>
       <c r="H463" t="s">
         <v>1890</v>
       </c>
@@ -67155,6 +69563,18 @@
       <c r="C464" t="s">
         <v>56</v>
       </c>
+      <c r="D464" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E464" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F464" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G464" t="s">
+        <v>3124</v>
+      </c>
       <c r="H464" t="s">
         <v>761</v>
       </c>
@@ -67169,6 +69589,18 @@
       <c r="C465" t="s">
         <v>152</v>
       </c>
+      <c r="D465" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E465" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F465" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G465" t="s">
+        <v>3124</v>
+      </c>
       <c r="H465" t="s">
         <v>1769</v>
       </c>
@@ -67183,6 +69615,18 @@
       <c r="C466" t="s">
         <v>104</v>
       </c>
+      <c r="D466" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E466" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F466" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G466" t="s">
+        <v>3124</v>
+      </c>
       <c r="H466" t="s">
         <v>1604</v>
       </c>
@@ -67197,6 +69641,18 @@
       <c r="C467" t="s">
         <v>115</v>
       </c>
+      <c r="D467" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E467" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F467" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G467" t="s">
+        <v>3124</v>
+      </c>
       <c r="H467" t="s">
         <v>1217</v>
       </c>
@@ -67211,6 +69667,18 @@
       <c r="C468" t="s">
         <v>211</v>
       </c>
+      <c r="D468" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E468" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F468" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G468" t="s">
+        <v>3124</v>
+      </c>
       <c r="H468" t="s">
         <v>2128</v>
       </c>
@@ -67225,6 +69693,18 @@
       <c r="C469" t="s">
         <v>211</v>
       </c>
+      <c r="D469" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E469" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F469" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G469" t="s">
+        <v>3124</v>
+      </c>
       <c r="H469" t="s">
         <v>260</v>
       </c>
@@ -67239,6 +69719,18 @@
       <c r="C470" t="s">
         <v>152</v>
       </c>
+      <c r="D470" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E470" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F470" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G470" t="s">
+        <v>3125</v>
+      </c>
       <c r="H470" t="s">
         <v>243</v>
       </c>
@@ -67253,6 +69745,18 @@
       <c r="C471" t="s">
         <v>56</v>
       </c>
+      <c r="D471" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E471" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F471" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G471" t="s">
+        <v>3124</v>
+      </c>
       <c r="H471" t="s">
         <v>1584</v>
       </c>
@@ -67267,6 +69771,18 @@
       <c r="C472" t="s">
         <v>56</v>
       </c>
+      <c r="D472" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E472" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F472" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G472" t="s">
+        <v>3124</v>
+      </c>
       <c r="H472" t="s">
         <v>384</v>
       </c>
@@ -67281,6 +69797,18 @@
       <c r="C473" t="s">
         <v>115</v>
       </c>
+      <c r="D473" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E473" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F473" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G473" t="s">
+        <v>3124</v>
+      </c>
       <c r="H473" t="s">
         <v>1244</v>
       </c>
@@ -67295,6 +69823,18 @@
       <c r="C474" t="s">
         <v>115</v>
       </c>
+      <c r="D474" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E474" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F474" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G474" t="s">
+        <v>3124</v>
+      </c>
       <c r="H474" t="s">
         <v>1074</v>
       </c>
@@ -67309,6 +69849,18 @@
       <c r="C475" t="s">
         <v>115</v>
       </c>
+      <c r="D475" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E475" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F475" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G475" t="s">
+        <v>3124</v>
+      </c>
       <c r="H475" t="s">
         <v>1270</v>
       </c>
@@ -67323,6 +69875,18 @@
       <c r="C476" t="s">
         <v>152</v>
       </c>
+      <c r="D476" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E476" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F476" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G476" t="s">
+        <v>3113</v>
+      </c>
       <c r="H476" t="s">
         <v>361</v>
       </c>
@@ -67337,6 +69901,18 @@
       <c r="C477" t="s">
         <v>104</v>
       </c>
+      <c r="D477" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E477" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F477" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G477" t="s">
+        <v>3113</v>
+      </c>
       <c r="H477" t="s">
         <v>1044</v>
       </c>
@@ -67351,6 +69927,18 @@
       <c r="C478" t="s">
         <v>115</v>
       </c>
+      <c r="D478" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E478" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F478" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G478" t="s">
+        <v>3125</v>
+      </c>
       <c r="H478" t="s">
         <v>1812</v>
       </c>
@@ -67365,6 +69953,18 @@
       <c r="C479" t="s">
         <v>104</v>
       </c>
+      <c r="D479" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E479" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F479" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G479" t="s">
+        <v>3124</v>
+      </c>
       <c r="H479" t="s">
         <v>2403</v>
       </c>
@@ -67379,6 +69979,18 @@
       <c r="C480" t="s">
         <v>152</v>
       </c>
+      <c r="D480" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E480" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F480" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G480" t="s">
+        <v>3125</v>
+      </c>
       <c r="H480" t="s">
         <v>1032</v>
       </c>
@@ -67393,6 +70005,18 @@
       <c r="C481" t="s">
         <v>115</v>
       </c>
+      <c r="D481" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E481" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F481" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G481" t="s">
+        <v>3124</v>
+      </c>
       <c r="H481" t="s">
         <v>1722</v>
       </c>
@@ -67407,6 +70031,18 @@
       <c r="C482" t="s">
         <v>104</v>
       </c>
+      <c r="D482" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E482" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F482" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G482" t="s">
+        <v>3124</v>
+      </c>
       <c r="H482" t="s">
         <v>1984</v>
       </c>
@@ -67421,6 +70057,18 @@
       <c r="C483" t="s">
         <v>115</v>
       </c>
+      <c r="D483" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E483" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F483" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G483" t="s">
+        <v>3124</v>
+      </c>
       <c r="H483" t="s">
         <v>814</v>
       </c>
@@ -67435,6 +70083,18 @@
       <c r="C484" t="s">
         <v>104</v>
       </c>
+      <c r="D484" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E484" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F484" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G484" t="s">
+        <v>3124</v>
+      </c>
       <c r="H484" t="s">
         <v>2336</v>
       </c>
@@ -67449,6 +70109,18 @@
       <c r="C485" t="s">
         <v>56</v>
       </c>
+      <c r="D485" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E485" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F485" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G485" t="s">
+        <v>3124</v>
+      </c>
       <c r="H485" t="s">
         <v>1068</v>
       </c>
@@ -67463,6 +70135,18 @@
       <c r="C486" t="s">
         <v>115</v>
       </c>
+      <c r="D486" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E486" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F486" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G486" t="s">
+        <v>3124</v>
+      </c>
       <c r="H486" t="s">
         <v>592</v>
       </c>
@@ -67477,6 +70161,18 @@
       <c r="C487" t="s">
         <v>115</v>
       </c>
+      <c r="D487" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E487" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F487" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G487" t="s">
+        <v>3124</v>
+      </c>
       <c r="H487" t="s">
         <v>190</v>
       </c>
@@ -67491,6 +70187,18 @@
       <c r="C488" t="s">
         <v>211</v>
       </c>
+      <c r="D488" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E488" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F488" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G488" t="s">
+        <v>3124</v>
+      </c>
       <c r="H488" t="s">
         <v>995</v>
       </c>
@@ -67505,6 +70213,18 @@
       <c r="C489" t="s">
         <v>152</v>
       </c>
+      <c r="D489" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E489" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F489" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G489" t="s">
+        <v>3124</v>
+      </c>
       <c r="H489" t="s">
         <v>718</v>
       </c>
@@ -67519,6 +70239,18 @@
       <c r="C490" t="s">
         <v>211</v>
       </c>
+      <c r="D490" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E490" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F490" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G490" t="s">
+        <v>3124</v>
+      </c>
       <c r="H490" t="s">
         <v>2396</v>
       </c>
@@ -67533,6 +70265,18 @@
       <c r="C491" t="s">
         <v>104</v>
       </c>
+      <c r="D491" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E491" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F491" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G491" t="s">
+        <v>3113</v>
+      </c>
       <c r="H491" t="s">
         <v>1839</v>
       </c>
@@ -67547,6 +70291,18 @@
       <c r="C492" t="s">
         <v>104</v>
       </c>
+      <c r="D492" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E492" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F492" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G492" t="s">
+        <v>3113</v>
+      </c>
       <c r="H492" t="s">
         <v>1409</v>
       </c>
@@ -67561,6 +70317,18 @@
       <c r="C493" t="s">
         <v>104</v>
       </c>
+      <c r="D493" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E493" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F493" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G493" t="s">
+        <v>3113</v>
+      </c>
       <c r="H493" t="s">
         <v>1608</v>
       </c>
@@ -67575,6 +70343,18 @@
       <c r="C494" t="s">
         <v>56</v>
       </c>
+      <c r="D494" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E494" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F494" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G494" t="s">
+        <v>3124</v>
+      </c>
       <c r="H494" t="s">
         <v>1914</v>
       </c>
@@ -67589,6 +70369,18 @@
       <c r="C495" t="s">
         <v>104</v>
       </c>
+      <c r="D495" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E495" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F495" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G495" t="s">
+        <v>3124</v>
+      </c>
       <c r="H495" t="s">
         <v>1825</v>
       </c>
@@ -67603,6 +70395,18 @@
       <c r="C496" t="s">
         <v>56</v>
       </c>
+      <c r="D496" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E496" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F496" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G496" t="s">
+        <v>3124</v>
+      </c>
       <c r="H496" t="s">
         <v>832</v>
       </c>
@@ -67617,6 +70421,18 @@
       <c r="C497" t="s">
         <v>56</v>
       </c>
+      <c r="D497" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E497" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F497" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G497" t="s">
+        <v>3124</v>
+      </c>
       <c r="H497" t="s">
         <v>1785</v>
       </c>
@@ -67631,6 +70447,18 @@
       <c r="C498" t="s">
         <v>211</v>
       </c>
+      <c r="D498" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E498" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F498" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G498" t="s">
+        <v>3124</v>
+      </c>
       <c r="H498" t="s">
         <v>1007</v>
       </c>
@@ -67645,6 +70473,18 @@
       <c r="C499" t="s">
         <v>152</v>
       </c>
+      <c r="D499" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E499" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F499" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G499" t="s">
+        <v>3124</v>
+      </c>
       <c r="H499" t="s">
         <v>1267</v>
       </c>
@@ -67659,6 +70499,18 @@
       <c r="C500" t="s">
         <v>152</v>
       </c>
+      <c r="D500" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E500" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F500" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G500" t="s">
+        <v>3124</v>
+      </c>
       <c r="H500" t="s">
         <v>697</v>
       </c>
@@ -67673,6 +70525,18 @@
       <c r="C501" t="s">
         <v>152</v>
       </c>
+      <c r="D501" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E501" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F501" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G501" t="s">
+        <v>3124</v>
+      </c>
       <c r="H501" t="s">
         <v>153</v>
       </c>
@@ -67687,6 +70551,18 @@
       <c r="C502" t="s">
         <v>56</v>
       </c>
+      <c r="D502" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E502" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F502" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G502" t="s">
+        <v>3124</v>
+      </c>
       <c r="H502" t="s">
         <v>1535</v>
       </c>
@@ -67701,6 +70577,18 @@
       <c r="C503" t="s">
         <v>152</v>
       </c>
+      <c r="D503" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E503" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F503" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G503" t="s">
+        <v>3124</v>
+      </c>
       <c r="H503" t="s">
         <v>817</v>
       </c>
@@ -67715,6 +70603,18 @@
       <c r="C504" t="s">
         <v>56</v>
       </c>
+      <c r="D504" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E504" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F504" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G504" t="s">
+        <v>3124</v>
+      </c>
       <c r="H504" t="s">
         <v>90</v>
       </c>
@@ -67729,6 +70629,18 @@
       <c r="C505" t="s">
         <v>56</v>
       </c>
+      <c r="D505" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E505" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F505" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G505" t="s">
+        <v>3113</v>
+      </c>
       <c r="H505" t="s">
         <v>503</v>
       </c>
@@ -67743,6 +70655,18 @@
       <c r="C506" t="s">
         <v>211</v>
       </c>
+      <c r="D506" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E506" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F506" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G506" t="s">
+        <v>3125</v>
+      </c>
       <c r="H506" t="s">
         <v>403</v>
       </c>
@@ -67757,6 +70681,18 @@
       <c r="C507" t="s">
         <v>115</v>
       </c>
+      <c r="D507" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E507" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F507" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G507" t="s">
+        <v>3113</v>
+      </c>
       <c r="H507" t="s">
         <v>839</v>
       </c>
@@ -67771,6 +70707,18 @@
       <c r="C508" t="s">
         <v>115</v>
       </c>
+      <c r="D508" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E508" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F508" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G508" t="s">
+        <v>3124</v>
+      </c>
       <c r="H508" t="s">
         <v>1197</v>
       </c>
@@ -67785,6 +70733,18 @@
       <c r="C509" t="s">
         <v>115</v>
       </c>
+      <c r="D509" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E509" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F509" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G509" t="s">
+        <v>3124</v>
+      </c>
       <c r="H509" t="s">
         <v>1530</v>
       </c>
@@ -67799,6 +70759,18 @@
       <c r="C510" t="s">
         <v>115</v>
       </c>
+      <c r="D510" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E510" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F510" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G510" t="s">
+        <v>3124</v>
+      </c>
       <c r="H510" t="s">
         <v>1329</v>
       </c>
@@ -67813,6 +70785,18 @@
       <c r="C511" t="s">
         <v>104</v>
       </c>
+      <c r="D511" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E511" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F511" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G511" t="s">
+        <v>3125</v>
+      </c>
       <c r="H511" t="s">
         <v>1757</v>
       </c>
@@ -67827,6 +70811,18 @@
       <c r="C512" t="s">
         <v>152</v>
       </c>
+      <c r="D512" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E512" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F512" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G512" t="s">
+        <v>3124</v>
+      </c>
       <c r="H512" t="s">
         <v>2005</v>
       </c>
@@ -67841,6 +70837,18 @@
       <c r="C513" t="s">
         <v>56</v>
       </c>
+      <c r="D513" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E513" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F513" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G513" t="s">
+        <v>3125</v>
+      </c>
       <c r="H513" t="s">
         <v>2227</v>
       </c>
@@ -67855,6 +70863,18 @@
       <c r="C514" t="s">
         <v>211</v>
       </c>
+      <c r="D514" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E514" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F514" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G514" t="s">
+        <v>3125</v>
+      </c>
       <c r="H514" t="s">
         <v>2219</v>
       </c>
@@ -67869,6 +70889,18 @@
       <c r="C515" t="s">
         <v>211</v>
       </c>
+      <c r="D515" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E515" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F515" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G515" t="s">
+        <v>3125</v>
+      </c>
       <c r="H515" t="s">
         <v>341</v>
       </c>
@@ -67883,6 +70915,18 @@
       <c r="C516" t="s">
         <v>56</v>
       </c>
+      <c r="D516" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E516" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F516" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G516" t="s">
+        <v>3124</v>
+      </c>
       <c r="H516" t="s">
         <v>2118</v>
       </c>
@@ -67897,6 +70941,18 @@
       <c r="C517" t="s">
         <v>211</v>
       </c>
+      <c r="D517" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E517" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F517" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G517" t="s">
+        <v>3124</v>
+      </c>
       <c r="H517" t="s">
         <v>567</v>
       </c>
@@ -67911,6 +70967,18 @@
       <c r="C518" t="s">
         <v>211</v>
       </c>
+      <c r="D518" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E518" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F518" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G518" t="s">
+        <v>3124</v>
+      </c>
       <c r="H518" t="s">
         <v>239</v>
       </c>
@@ -67925,6 +70993,18 @@
       <c r="C519" t="s">
         <v>56</v>
       </c>
+      <c r="D519" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E519" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F519" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G519" t="s">
+        <v>3113</v>
+      </c>
       <c r="H519" t="s">
         <v>2307</v>
       </c>
@@ -67939,6 +71019,18 @@
       <c r="C520" t="s">
         <v>56</v>
       </c>
+      <c r="D520" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E520" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F520" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G520" t="s">
+        <v>3113</v>
+      </c>
       <c r="H520" t="s">
         <v>207</v>
       </c>
@@ -67953,6 +71045,18 @@
       <c r="C521" t="s">
         <v>211</v>
       </c>
+      <c r="D521" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E521" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F521" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G521" t="s">
+        <v>3113</v>
+      </c>
       <c r="H521" t="s">
         <v>1247</v>
       </c>
@@ -67967,6 +71071,18 @@
       <c r="C522" t="s">
         <v>104</v>
       </c>
+      <c r="D522" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E522" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F522" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G522" t="s">
+        <v>3124</v>
+      </c>
       <c r="H522" t="s">
         <v>1754</v>
       </c>
@@ -67981,6 +71097,18 @@
       <c r="C523" t="s">
         <v>211</v>
       </c>
+      <c r="D523" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E523" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F523" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G523" t="s">
+        <v>3113</v>
+      </c>
       <c r="H523" t="s">
         <v>672</v>
       </c>
@@ -67995,6 +71123,18 @@
       <c r="C524" t="s">
         <v>56</v>
       </c>
+      <c r="D524" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E524" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F524" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G524" t="s">
+        <v>3124</v>
+      </c>
       <c r="H524" t="s">
         <v>1659</v>
       </c>
@@ -68009,6 +71149,18 @@
       <c r="C525" t="s">
         <v>115</v>
       </c>
+      <c r="D525" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E525" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F525" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G525" t="s">
+        <v>3124</v>
+      </c>
       <c r="H525" t="s">
         <v>730</v>
       </c>
@@ -68023,6 +71175,18 @@
       <c r="C526" t="s">
         <v>56</v>
       </c>
+      <c r="D526" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E526" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F526" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G526" t="s">
+        <v>3113</v>
+      </c>
       <c r="H526" t="s">
         <v>1673</v>
       </c>
@@ -68037,6 +71201,18 @@
       <c r="C527" t="s">
         <v>115</v>
       </c>
+      <c r="D527" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E527" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F527" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G527" t="s">
+        <v>3124</v>
+      </c>
       <c r="H527" t="s">
         <v>1254</v>
       </c>
@@ -68051,6 +71227,18 @@
       <c r="C528" t="s">
         <v>56</v>
       </c>
+      <c r="D528" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E528" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F528" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G528" t="s">
+        <v>3125</v>
+      </c>
       <c r="H528" t="s">
         <v>781</v>
       </c>
@@ -68065,6 +71253,18 @@
       <c r="C529" t="s">
         <v>152</v>
       </c>
+      <c r="D529" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E529" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F529" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G529" t="s">
+        <v>3125</v>
+      </c>
       <c r="H529" t="s">
         <v>675</v>
       </c>
@@ -68079,6 +71279,18 @@
       <c r="C530" t="s">
         <v>56</v>
       </c>
+      <c r="D530" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E530" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F530" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G530" t="s">
+        <v>3125</v>
+      </c>
       <c r="H530" t="s">
         <v>1685</v>
       </c>
@@ -68093,6 +71305,18 @@
       <c r="C531" t="s">
         <v>211</v>
       </c>
+      <c r="D531" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E531" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F531" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G531" t="s">
+        <v>3124</v>
+      </c>
       <c r="H531" t="s">
         <v>2330</v>
       </c>
@@ -68107,6 +71331,18 @@
       <c r="C532" t="s">
         <v>152</v>
       </c>
+      <c r="D532" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E532" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F532" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G532" t="s">
+        <v>3113</v>
+      </c>
       <c r="H532" t="s">
         <v>2012</v>
       </c>
@@ -68121,6 +71357,18 @@
       <c r="C533" t="s">
         <v>56</v>
       </c>
+      <c r="D533" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E533" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F533" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G533" t="s">
+        <v>3124</v>
+      </c>
       <c r="H533" t="s">
         <v>641</v>
       </c>
@@ -68135,6 +71383,18 @@
       <c r="C534" t="s">
         <v>56</v>
       </c>
+      <c r="D534" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E534" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F534" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G534" t="s">
+        <v>3124</v>
+      </c>
       <c r="H534" t="s">
         <v>2318</v>
       </c>
@@ -68149,6 +71409,18 @@
       <c r="C535" t="s">
         <v>211</v>
       </c>
+      <c r="D535" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E535" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F535" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G535" t="s">
+        <v>3124</v>
+      </c>
       <c r="H535" t="s">
         <v>601</v>
       </c>
@@ -68163,6 +71435,18 @@
       <c r="C536" t="s">
         <v>115</v>
       </c>
+      <c r="D536" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E536" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F536" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G536" t="s">
+        <v>3124</v>
+      </c>
       <c r="H536" t="s">
         <v>1831</v>
       </c>
@@ -68177,6 +71461,18 @@
       <c r="C537" t="s">
         <v>211</v>
       </c>
+      <c r="D537" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E537" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F537" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G537" t="s">
+        <v>3124</v>
+      </c>
       <c r="H537" t="s">
         <v>212</v>
       </c>
@@ -68191,6 +71487,18 @@
       <c r="C538" t="s">
         <v>56</v>
       </c>
+      <c r="D538" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E538" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F538" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G538" t="s">
+        <v>3124</v>
+      </c>
       <c r="H538" t="s">
         <v>1435</v>
       </c>
@@ -68205,6 +71513,18 @@
       <c r="C539" t="s">
         <v>152</v>
       </c>
+      <c r="D539" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E539" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F539" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G539" t="s">
+        <v>3124</v>
+      </c>
       <c r="H539" t="s">
         <v>1466</v>
       </c>
@@ -68219,6 +71539,18 @@
       <c r="C540" t="s">
         <v>115</v>
       </c>
+      <c r="D540" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E540" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F540" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G540" t="s">
+        <v>3124</v>
+      </c>
       <c r="H540" t="s">
         <v>1933</v>
       </c>
@@ -68233,6 +71565,18 @@
       <c r="C541" t="s">
         <v>211</v>
       </c>
+      <c r="D541" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E541" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F541" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G541" t="s">
+        <v>3124</v>
+      </c>
       <c r="H541" t="s">
         <v>1292</v>
       </c>
@@ -68247,6 +71591,18 @@
       <c r="C542" t="s">
         <v>56</v>
       </c>
+      <c r="D542" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E542" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F542" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G542" t="s">
+        <v>3124</v>
+      </c>
       <c r="H542" t="s">
         <v>1782</v>
       </c>
@@ -68261,6 +71617,18 @@
       <c r="C543" t="s">
         <v>152</v>
       </c>
+      <c r="D543" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E543" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F543" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G543" t="s">
+        <v>3124</v>
+      </c>
       <c r="H543" t="s">
         <v>1957</v>
       </c>
@@ -68275,6 +71643,18 @@
       <c r="C544" t="s">
         <v>56</v>
       </c>
+      <c r="D544" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E544" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F544" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G544" t="s">
+        <v>3124</v>
+      </c>
       <c r="H544" t="s">
         <v>2031</v>
       </c>
@@ -68289,6 +71669,18 @@
       <c r="C545" t="s">
         <v>115</v>
       </c>
+      <c r="D545" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E545" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F545" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G545" t="s">
+        <v>3125</v>
+      </c>
       <c r="H545" t="s">
         <v>1624</v>
       </c>
@@ -68303,6 +71695,18 @@
       <c r="C546" t="s">
         <v>115</v>
       </c>
+      <c r="D546" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E546" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F546" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G546" t="s">
+        <v>3124</v>
+      </c>
       <c r="H546" t="s">
         <v>2246</v>
       </c>
@@ -68317,6 +71721,18 @@
       <c r="C547" t="s">
         <v>56</v>
       </c>
+      <c r="D547" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E547" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F547" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G547" t="s">
+        <v>3113</v>
+      </c>
       <c r="H547" t="s">
         <v>595</v>
       </c>
@@ -68331,6 +71747,18 @@
       <c r="C548" t="s">
         <v>211</v>
       </c>
+      <c r="D548" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E548" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F548" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G548" t="s">
+        <v>3124</v>
+      </c>
       <c r="H548" t="s">
         <v>2297</v>
       </c>
@@ -68345,6 +71773,18 @@
       <c r="C549" t="s">
         <v>211</v>
       </c>
+      <c r="D549" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E549" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F549" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G549" t="s">
+        <v>3124</v>
+      </c>
       <c r="H549" t="s">
         <v>1302</v>
       </c>
@@ -68359,6 +71799,18 @@
       <c r="C550" t="s">
         <v>115</v>
       </c>
+      <c r="D550" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E550" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F550" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G550" t="s">
+        <v>3125</v>
+      </c>
       <c r="H550" t="s">
         <v>1729</v>
       </c>
@@ -68373,6 +71825,18 @@
       <c r="C551" t="s">
         <v>115</v>
       </c>
+      <c r="D551" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E551" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F551" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G551" t="s">
+        <v>3124</v>
+      </c>
       <c r="H551" t="s">
         <v>1280</v>
       </c>
@@ -68387,6 +71851,18 @@
       <c r="C552" t="s">
         <v>152</v>
       </c>
+      <c r="D552" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E552" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F552" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G552" t="s">
+        <v>3124</v>
+      </c>
       <c r="H552" t="s">
         <v>1675</v>
       </c>
@@ -68401,6 +71877,18 @@
       <c r="C553" t="s">
         <v>152</v>
       </c>
+      <c r="D553" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E553" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F553" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G553" t="s">
+        <v>3124</v>
+      </c>
       <c r="H553" t="s">
         <v>1471</v>
       </c>
@@ -68415,6 +71903,18 @@
       <c r="C554" t="s">
         <v>211</v>
       </c>
+      <c r="D554" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E554" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F554" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G554" t="s">
+        <v>3124</v>
+      </c>
       <c r="H554" t="s">
         <v>1802</v>
       </c>
@@ -68429,6 +71929,18 @@
       <c r="C555" t="s">
         <v>115</v>
       </c>
+      <c r="D555" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E555" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F555" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G555" t="s">
+        <v>3113</v>
+      </c>
       <c r="H555" t="s">
         <v>1340</v>
       </c>
@@ -68443,6 +71955,18 @@
       <c r="C556" t="s">
         <v>104</v>
       </c>
+      <c r="D556" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E556" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F556" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G556" t="s">
+        <v>3113</v>
+      </c>
       <c r="H556" t="s">
         <v>787</v>
       </c>
@@ -68457,6 +71981,18 @@
       <c r="C557" t="s">
         <v>56</v>
       </c>
+      <c r="D557" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E557" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F557" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G557" t="s">
+        <v>3124</v>
+      </c>
       <c r="H557" t="s">
         <v>976</v>
       </c>
@@ -68471,6 +72007,18 @@
       <c r="C558" t="s">
         <v>80</v>
       </c>
+      <c r="D558" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E558" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F558" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G558" t="s">
+        <v>3114</v>
+      </c>
       <c r="H558" t="s">
         <v>1234</v>
       </c>
@@ -68485,6 +72033,18 @@
       <c r="C559" t="s">
         <v>94</v>
       </c>
+      <c r="D559" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E559" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F559" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G559" t="s">
+        <v>3114</v>
+      </c>
       <c r="H559" t="s">
         <v>1259</v>
       </c>
@@ -68499,6 +72059,18 @@
       <c r="C560" t="s">
         <v>66</v>
       </c>
+      <c r="D560" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E560" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F560" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G560" t="s">
+        <v>3114</v>
+      </c>
       <c r="H560" t="s">
         <v>67</v>
       </c>
@@ -68513,6 +72085,18 @@
       <c r="C561" t="s">
         <v>94</v>
       </c>
+      <c r="D561" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E561" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F561" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G561" t="s">
+        <v>3114</v>
+      </c>
       <c r="H561" t="s">
         <v>770</v>
       </c>
@@ -68527,6 +72111,18 @@
       <c r="C562" t="s">
         <v>255</v>
       </c>
+      <c r="D562" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E562" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F562" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G562" t="s">
+        <v>3113</v>
+      </c>
       <c r="H562" t="s">
         <v>2357</v>
       </c>
@@ -68541,6 +72137,18 @@
       <c r="C563" t="s">
         <v>39</v>
       </c>
+      <c r="D563" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E563" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F563" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G563" t="s">
+        <v>3113</v>
+      </c>
       <c r="H563" t="s">
         <v>2254</v>
       </c>
@@ -68555,6 +72163,18 @@
       <c r="C564" t="s">
         <v>80</v>
       </c>
+      <c r="D564" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E564" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F564" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G564" t="s">
+        <v>3114</v>
+      </c>
       <c r="H564" t="s">
         <v>797</v>
       </c>
@@ -68569,6 +72189,18 @@
       <c r="C565" t="s">
         <v>39</v>
       </c>
+      <c r="D565" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E565" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F565" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G565" t="s">
+        <v>3114</v>
+      </c>
       <c r="H565" t="s">
         <v>1788</v>
       </c>
@@ -68583,6 +72215,18 @@
       <c r="C566" t="s">
         <v>94</v>
       </c>
+      <c r="D566" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E566" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F566" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G566" t="s">
+        <v>3113</v>
+      </c>
       <c r="H566" t="s">
         <v>863</v>
       </c>
@@ -68597,6 +72241,18 @@
       <c r="C567" t="s">
         <v>255</v>
       </c>
+      <c r="D567" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E567" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F567" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G567" t="s">
+        <v>3114</v>
+      </c>
       <c r="H567" t="s">
         <v>724</v>
       </c>
@@ -68611,6 +72267,18 @@
       <c r="C568" t="s">
         <v>255</v>
       </c>
+      <c r="D568" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E568" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F568" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G568" t="s">
+        <v>3114</v>
+      </c>
       <c r="H568" t="s">
         <v>2123</v>
       </c>
@@ -68625,6 +72293,18 @@
       <c r="C569" t="s">
         <v>94</v>
       </c>
+      <c r="D569" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E569" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F569" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G569" t="s">
+        <v>3114</v>
+      </c>
       <c r="H569" t="s">
         <v>1628</v>
       </c>
@@ -68639,6 +72319,18 @@
       <c r="C570" t="s">
         <v>39</v>
       </c>
+      <c r="D570" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E570" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F570" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G570" t="s">
+        <v>3114</v>
+      </c>
       <c r="H570" t="s">
         <v>2390</v>
       </c>
@@ -68653,6 +72345,18 @@
       <c r="C571" t="s">
         <v>255</v>
       </c>
+      <c r="D571" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E571" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F571" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G571" t="s">
+        <v>3114</v>
+      </c>
       <c r="H571" t="s">
         <v>618</v>
       </c>
@@ -68667,6 +72371,18 @@
       <c r="C572" t="s">
         <v>80</v>
       </c>
+      <c r="D572" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E572" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F572" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G572" t="s">
+        <v>3113</v>
+      </c>
       <c r="H572" t="s">
         <v>276</v>
       </c>
@@ -68681,6 +72397,18 @@
       <c r="C573" t="s">
         <v>255</v>
       </c>
+      <c r="D573" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E573" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F573" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G573" t="s">
+        <v>3114</v>
+      </c>
       <c r="H573" t="s">
         <v>256</v>
       </c>
@@ -68695,6 +72423,18 @@
       <c r="C574" t="s">
         <v>255</v>
       </c>
+      <c r="D574" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E574" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F574" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G574" t="s">
+        <v>3114</v>
+      </c>
       <c r="H574" t="s">
         <v>406</v>
       </c>
@@ -68709,6 +72449,18 @@
       <c r="C575" t="s">
         <v>66</v>
       </c>
+      <c r="D575" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E575" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F575" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G575" t="s">
+        <v>3113</v>
+      </c>
       <c r="H575" t="s">
         <v>2275</v>
       </c>
@@ -68723,6 +72475,18 @@
       <c r="C576" t="s">
         <v>255</v>
       </c>
+      <c r="D576" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E576" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F576" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G576" t="s">
+        <v>3113</v>
+      </c>
       <c r="H576" t="s">
         <v>659</v>
       </c>
@@ -68737,6 +72501,18 @@
       <c r="C577" t="s">
         <v>255</v>
       </c>
+      <c r="D577" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E577" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F577" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G577" t="s">
+        <v>3114</v>
+      </c>
       <c r="H577" t="s">
         <v>857</v>
       </c>
@@ -68751,6 +72527,18 @@
       <c r="C578" t="s">
         <v>80</v>
       </c>
+      <c r="D578" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E578" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F578" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G578" t="s">
+        <v>3113</v>
+      </c>
       <c r="H578" t="s">
         <v>1861</v>
       </c>
@@ -68765,6 +72553,18 @@
       <c r="C579" t="s">
         <v>255</v>
       </c>
+      <c r="D579" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E579" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F579" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G579" t="s">
+        <v>3113</v>
+      </c>
       <c r="H579" t="s">
         <v>982</v>
       </c>
@@ -68779,6 +72579,18 @@
       <c r="C580" t="s">
         <v>94</v>
       </c>
+      <c r="D580" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E580" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F580" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G580" t="s">
+        <v>3114</v>
+      </c>
       <c r="H580" t="s">
         <v>1394</v>
       </c>
@@ -68793,6 +72605,18 @@
       <c r="C581" t="s">
         <v>39</v>
       </c>
+      <c r="D581" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E581" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F581" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G581" t="s">
+        <v>3114</v>
+      </c>
       <c r="H581" t="s">
         <v>470</v>
       </c>
@@ -68807,6 +72631,18 @@
       <c r="C582" t="s">
         <v>39</v>
       </c>
+      <c r="D582" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E582" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F582" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G582" t="s">
+        <v>3114</v>
+      </c>
       <c r="H582" t="s">
         <v>328</v>
       </c>
@@ -68821,6 +72657,18 @@
       <c r="C583" t="s">
         <v>66</v>
       </c>
+      <c r="D583" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E583" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F583" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G583" t="s">
+        <v>3130</v>
+      </c>
       <c r="H583" t="s">
         <v>1128</v>
       </c>
@@ -68835,6 +72683,18 @@
       <c r="C584" t="s">
         <v>39</v>
       </c>
+      <c r="D584" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E584" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F584" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G584" t="s">
+        <v>3114</v>
+      </c>
       <c r="H584" t="s">
         <v>1496</v>
       </c>
@@ -68849,6 +72709,18 @@
       <c r="C585" t="s">
         <v>94</v>
       </c>
+      <c r="D585" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E585" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F585" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G585" t="s">
+        <v>3114</v>
+      </c>
       <c r="H585" t="s">
         <v>1343</v>
       </c>
@@ -68863,6 +72735,18 @@
       <c r="C586" t="s">
         <v>39</v>
       </c>
+      <c r="D586" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E586" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F586" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G586" t="s">
+        <v>3113</v>
+      </c>
       <c r="H586" t="s">
         <v>1937</v>
       </c>
@@ -68877,6 +72761,18 @@
       <c r="C587" t="s">
         <v>39</v>
       </c>
+      <c r="D587" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E587" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F587" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G587" t="s">
+        <v>3130</v>
+      </c>
       <c r="H587" t="s">
         <v>1429</v>
       </c>
@@ -68891,6 +72787,18 @@
       <c r="C588" t="s">
         <v>80</v>
       </c>
+      <c r="D588" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E588" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F588" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G588" t="s">
+        <v>3114</v>
+      </c>
       <c r="H588" t="s">
         <v>395</v>
       </c>
@@ -68905,6 +72813,18 @@
       <c r="C589" t="s">
         <v>66</v>
       </c>
+      <c r="D589" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E589" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F589" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G589" t="s">
+        <v>3113</v>
+      </c>
       <c r="H589" t="s">
         <v>1555</v>
       </c>
@@ -68919,6 +72839,18 @@
       <c r="C590" t="s">
         <v>66</v>
       </c>
+      <c r="D590" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E590" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F590" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G590" t="s">
+        <v>3114</v>
+      </c>
       <c r="H590" t="s">
         <v>1701</v>
       </c>
@@ -68933,6 +72865,18 @@
       <c r="C591" t="s">
         <v>80</v>
       </c>
+      <c r="D591" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E591" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F591" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G591" t="s">
+        <v>3114</v>
+      </c>
       <c r="H591" t="s">
         <v>2160</v>
       </c>
@@ -68947,6 +72891,18 @@
       <c r="C592" t="s">
         <v>94</v>
       </c>
+      <c r="D592" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E592" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F592" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G592" t="s">
+        <v>3114</v>
+      </c>
       <c r="H592" t="s">
         <v>2036</v>
       </c>
@@ -68961,6 +72917,18 @@
       <c r="C593" t="s">
         <v>80</v>
       </c>
+      <c r="D593" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E593" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F593" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G593" t="s">
+        <v>3113</v>
+      </c>
       <c r="H593" t="s">
         <v>1927</v>
       </c>
@@ -68975,6 +72943,18 @@
       <c r="C594" t="s">
         <v>80</v>
       </c>
+      <c r="D594" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E594" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F594" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G594" t="s">
+        <v>3113</v>
+      </c>
       <c r="H594" t="s">
         <v>1505</v>
       </c>
@@ -68989,6 +72969,18 @@
       <c r="C595" t="s">
         <v>39</v>
       </c>
+      <c r="D595" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E595" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F595" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G595" t="s">
+        <v>3113</v>
+      </c>
       <c r="H595" t="s">
         <v>1449</v>
       </c>
@@ -69003,6 +72995,18 @@
       <c r="C596" t="s">
         <v>80</v>
       </c>
+      <c r="D596" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E596" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F596" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G596" t="s">
+        <v>3113</v>
+      </c>
       <c r="H596" t="s">
         <v>183</v>
       </c>
@@ -69017,6 +73021,18 @@
       <c r="C597" t="s">
         <v>66</v>
       </c>
+      <c r="D597" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E597" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F597" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G597" t="s">
+        <v>3130</v>
+      </c>
       <c r="H597" t="s">
         <v>1681</v>
       </c>
@@ -69031,6 +73047,18 @@
       <c r="C598" t="s">
         <v>94</v>
       </c>
+      <c r="D598" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E598" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F598" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G598" t="s">
+        <v>3113</v>
+      </c>
       <c r="H598" t="s">
         <v>754</v>
       </c>
@@ -69045,6 +73073,18 @@
       <c r="C599" t="s">
         <v>39</v>
       </c>
+      <c r="D599" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E599" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F599" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G599" t="s">
+        <v>3114</v>
+      </c>
       <c r="H599" t="s">
         <v>1452</v>
       </c>
@@ -69059,6 +73099,18 @@
       <c r="C600" t="s">
         <v>39</v>
       </c>
+      <c r="D600" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E600" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F600" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G600" t="s">
+        <v>3114</v>
+      </c>
       <c r="H600" t="s">
         <v>2355</v>
       </c>
@@ -69073,6 +73125,18 @@
       <c r="C601" t="s">
         <v>66</v>
       </c>
+      <c r="D601" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E601" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F601" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G601" t="s">
+        <v>3114</v>
+      </c>
       <c r="H601" t="s">
         <v>1698</v>
       </c>
@@ -69087,6 +73151,18 @@
       <c r="C602" t="s">
         <v>94</v>
       </c>
+      <c r="D602" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E602" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F602" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G602" t="s">
+        <v>3114</v>
+      </c>
       <c r="H602" t="s">
         <v>120</v>
       </c>
@@ -69101,6 +73177,18 @@
       <c r="C603" t="s">
         <v>39</v>
       </c>
+      <c r="D603" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E603" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F603" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G603" t="s">
+        <v>3114</v>
+      </c>
       <c r="H603" t="s">
         <v>2002</v>
       </c>
@@ -69115,6 +73203,18 @@
       <c r="C604" t="s">
         <v>255</v>
       </c>
+      <c r="D604" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E604" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F604" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G604" t="s">
+        <v>3113</v>
+      </c>
       <c r="H604" t="s">
         <v>319</v>
       </c>
@@ -69129,6 +73229,18 @@
       <c r="C605" t="s">
         <v>39</v>
       </c>
+      <c r="D605" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E605" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F605" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G605" t="s">
+        <v>3114</v>
+      </c>
       <c r="H605" t="s">
         <v>2107</v>
       </c>
@@ -69143,6 +73255,18 @@
       <c r="C606" t="s">
         <v>66</v>
       </c>
+      <c r="D606" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E606" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F606" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G606" t="s">
+        <v>3113</v>
+      </c>
       <c r="H606" t="s">
         <v>2149</v>
       </c>
@@ -69157,6 +73281,18 @@
       <c r="C607" t="s">
         <v>80</v>
       </c>
+      <c r="D607" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E607" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F607" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G607" t="s">
+        <v>3113</v>
+      </c>
       <c r="H607" t="s">
         <v>2285</v>
       </c>
@@ -69171,6 +73307,18 @@
       <c r="C608" t="s">
         <v>39</v>
       </c>
+      <c r="D608" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E608" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F608" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G608" t="s">
+        <v>3114</v>
+      </c>
       <c r="H608" t="s">
         <v>40</v>
       </c>
@@ -69185,6 +73333,18 @@
       <c r="C609" t="s">
         <v>39</v>
       </c>
+      <c r="D609" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E609" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F609" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G609" t="s">
+        <v>3130</v>
+      </c>
       <c r="H609" t="s">
         <v>1225</v>
       </c>
@@ -69199,6 +73359,18 @@
       <c r="C610" t="s">
         <v>39</v>
       </c>
+      <c r="D610" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E610" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F610" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G610" t="s">
+        <v>3114</v>
+      </c>
       <c r="H610" t="s">
         <v>1345</v>
       </c>
@@ -69213,6 +73385,18 @@
       <c r="C611" t="s">
         <v>255</v>
       </c>
+      <c r="D611" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E611" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F611" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G611" t="s">
+        <v>3114</v>
+      </c>
       <c r="H611" t="s">
         <v>2187</v>
       </c>
@@ -69227,6 +73411,18 @@
       <c r="C612" t="s">
         <v>66</v>
       </c>
+      <c r="D612" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E612" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F612" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G612" t="s">
+        <v>3113</v>
+      </c>
       <c r="H612" t="s">
         <v>1490</v>
       </c>
@@ -69241,6 +73437,18 @@
       <c r="C613" t="s">
         <v>94</v>
       </c>
+      <c r="D613" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E613" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F613" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G613" t="s">
+        <v>3114</v>
+      </c>
       <c r="H613" t="s">
         <v>231</v>
       </c>
@@ -69255,6 +73463,18 @@
       <c r="C614" t="s">
         <v>66</v>
       </c>
+      <c r="D614" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E614" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F614" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G614" t="s">
+        <v>3113</v>
+      </c>
       <c r="H614" t="s">
         <v>1726</v>
       </c>
@@ -69269,6 +73489,18 @@
       <c r="C615" t="s">
         <v>66</v>
       </c>
+      <c r="D615" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E615" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F615" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G615" t="s">
+        <v>3113</v>
+      </c>
       <c r="H615" t="s">
         <v>1894</v>
       </c>
@@ -69283,6 +73515,18 @@
       <c r="C616" t="s">
         <v>94</v>
       </c>
+      <c r="D616" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E616" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F616" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G616" t="s">
+        <v>3114</v>
+      </c>
       <c r="H616" t="s">
         <v>1944</v>
       </c>
@@ -69297,6 +73541,18 @@
       <c r="C617" t="s">
         <v>66</v>
       </c>
+      <c r="D617" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E617" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F617" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G617" t="s">
+        <v>3113</v>
+      </c>
       <c r="H617" t="s">
         <v>1762</v>
       </c>
@@ -69311,6 +73567,18 @@
       <c r="C618" t="s">
         <v>94</v>
       </c>
+      <c r="D618" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E618" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F618" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G618" t="s">
+        <v>3114</v>
+      </c>
       <c r="H618" t="s">
         <v>2157</v>
       </c>
@@ -69325,6 +73593,18 @@
       <c r="C619" t="s">
         <v>66</v>
       </c>
+      <c r="D619" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E619" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F619" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G619" t="s">
+        <v>3114</v>
+      </c>
       <c r="H619" t="s">
         <v>877</v>
       </c>
@@ -69339,6 +73619,18 @@
       <c r="C620" t="s">
         <v>39</v>
       </c>
+      <c r="D620" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E620" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F620" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G620" t="s">
+        <v>3114</v>
+      </c>
       <c r="H620" t="s">
         <v>1353</v>
       </c>
@@ -69353,6 +73645,18 @@
       <c r="C621" t="s">
         <v>255</v>
       </c>
+      <c r="D621" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E621" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F621" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G621" t="s">
+        <v>3114</v>
+      </c>
       <c r="H621" t="s">
         <v>2171</v>
       </c>
@@ -69367,6 +73671,18 @@
       <c r="C622" t="s">
         <v>39</v>
       </c>
+      <c r="D622" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E622" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F622" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G622" t="s">
+        <v>3130</v>
+      </c>
       <c r="H622" t="s">
         <v>1677</v>
       </c>
@@ -69381,6 +73697,18 @@
       <c r="C623" t="s">
         <v>39</v>
       </c>
+      <c r="D623" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E623" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F623" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G623" t="s">
+        <v>3113</v>
+      </c>
       <c r="H623" t="s">
         <v>1780</v>
       </c>
@@ -69395,6 +73723,18 @@
       <c r="C624" t="s">
         <v>94</v>
       </c>
+      <c r="D624" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E624" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F624" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G624" t="s">
+        <v>3130</v>
+      </c>
       <c r="H624" t="s">
         <v>1071</v>
       </c>
@@ -69409,6 +73749,18 @@
       <c r="C625" t="s">
         <v>80</v>
       </c>
+      <c r="D625" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E625" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F625" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G625" t="s">
+        <v>3114</v>
+      </c>
       <c r="H625" t="s">
         <v>1057</v>
       </c>
@@ -69423,6 +73775,18 @@
       <c r="C626" t="s">
         <v>66</v>
       </c>
+      <c r="D626" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E626" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F626" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G626" t="s">
+        <v>3114</v>
+      </c>
       <c r="H626" t="s">
         <v>1265</v>
       </c>
@@ -69437,6 +73801,18 @@
       <c r="C627" t="s">
         <v>80</v>
       </c>
+      <c r="D627" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E627" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F627" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G627" t="s">
+        <v>3114</v>
+      </c>
       <c r="H627" t="s">
         <v>1798</v>
       </c>
@@ -69451,6 +73827,18 @@
       <c r="C628" t="s">
         <v>66</v>
       </c>
+      <c r="D628" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E628" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F628" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G628" t="s">
+        <v>3114</v>
+      </c>
       <c r="H628" t="s">
         <v>1974</v>
       </c>
@@ -69465,6 +73853,18 @@
       <c r="C629" t="s">
         <v>66</v>
       </c>
+      <c r="D629" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E629" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F629" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G629" t="s">
+        <v>3113</v>
+      </c>
       <c r="H629" t="s">
         <v>1795</v>
       </c>
@@ -69479,6 +73879,18 @@
       <c r="C630" t="s">
         <v>66</v>
       </c>
+      <c r="D630" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E630" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F630" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G630" t="s">
+        <v>3114</v>
+      </c>
       <c r="H630" t="s">
         <v>2139</v>
       </c>
@@ -69493,6 +73905,18 @@
       <c r="C631" t="s">
         <v>66</v>
       </c>
+      <c r="D631" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E631" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F631" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G631" t="s">
+        <v>3113</v>
+      </c>
       <c r="H631" t="s">
         <v>1538</v>
       </c>
@@ -69507,6 +73931,18 @@
       <c r="C632" t="s">
         <v>255</v>
       </c>
+      <c r="D632" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E632" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F632" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G632" t="s">
+        <v>3113</v>
+      </c>
       <c r="H632" t="s">
         <v>1187</v>
       </c>
@@ -69521,6 +73957,18 @@
       <c r="C633" t="s">
         <v>66</v>
       </c>
+      <c r="D633" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E633" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F633" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G633" t="s">
+        <v>3114</v>
+      </c>
       <c r="H633" t="s">
         <v>684</v>
       </c>
@@ -69535,6 +73983,18 @@
       <c r="C634" t="s">
         <v>66</v>
       </c>
+      <c r="D634" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E634" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F634" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G634" t="s">
+        <v>3130</v>
+      </c>
       <c r="H634" t="s">
         <v>2230</v>
       </c>
@@ -69549,6 +74009,18 @@
       <c r="C635" t="s">
         <v>39</v>
       </c>
+      <c r="D635" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E635" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F635" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G635" t="s">
+        <v>3113</v>
+      </c>
       <c r="H635" t="s">
         <v>1116</v>
       </c>
@@ -69563,6 +74035,18 @@
       <c r="C636" t="s">
         <v>39</v>
       </c>
+      <c r="D636" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E636" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F636" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G636" t="s">
+        <v>3113</v>
+      </c>
       <c r="H636" t="s">
         <v>355</v>
       </c>
@@ -69577,6 +74061,18 @@
       <c r="C637" t="s">
         <v>66</v>
       </c>
+      <c r="D637" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E637" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F637" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G637" t="s">
+        <v>3114</v>
+      </c>
       <c r="H637" t="s">
         <v>2345</v>
       </c>
@@ -69591,6 +74087,18 @@
       <c r="C638" t="s">
         <v>255</v>
       </c>
+      <c r="D638" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E638" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F638" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G638" t="s">
+        <v>3114</v>
+      </c>
       <c r="H638" t="s">
         <v>811</v>
       </c>
@@ -69605,6 +74113,18 @@
       <c r="C639" t="s">
         <v>94</v>
       </c>
+      <c r="D639" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E639" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F639" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G639" t="s">
+        <v>3114</v>
+      </c>
       <c r="H639" t="s">
         <v>1514</v>
       </c>
@@ -69619,6 +74139,18 @@
       <c r="C640" t="s">
         <v>94</v>
       </c>
+      <c r="D640" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E640" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F640" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G640" t="s">
+        <v>3114</v>
+      </c>
       <c r="H640" t="s">
         <v>247</v>
       </c>
@@ -69633,6 +74165,18 @@
       <c r="C641" t="s">
         <v>255</v>
       </c>
+      <c r="D641" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E641" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F641" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G641" t="s">
+        <v>3114</v>
+      </c>
       <c r="H641" t="s">
         <v>964</v>
       </c>
@@ -69647,6 +74191,18 @@
       <c r="C642" t="s">
         <v>94</v>
       </c>
+      <c r="D642" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E642" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F642" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G642" t="s">
+        <v>3130</v>
+      </c>
       <c r="H642" t="s">
         <v>291</v>
       </c>
@@ -69661,6 +74217,18 @@
       <c r="C643" t="s">
         <v>80</v>
       </c>
+      <c r="D643" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E643" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F643" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G643" t="s">
+        <v>3114</v>
+      </c>
       <c r="H643" t="s">
         <v>2204</v>
       </c>
@@ -69675,6 +74243,18 @@
       <c r="C644" t="s">
         <v>94</v>
       </c>
+      <c r="D644" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E644" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F644" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G644" t="s">
+        <v>3114</v>
+      </c>
       <c r="H644" t="s">
         <v>867</v>
       </c>
@@ -69689,6 +74269,18 @@
       <c r="C645" t="s">
         <v>80</v>
       </c>
+      <c r="D645" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E645" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F645" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G645" t="s">
+        <v>3114</v>
+      </c>
       <c r="H645" t="s">
         <v>1590</v>
       </c>
@@ -69703,6 +74295,18 @@
       <c r="C646" t="s">
         <v>255</v>
       </c>
+      <c r="D646" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E646" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F646" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G646" t="s">
+        <v>3114</v>
+      </c>
       <c r="H646" t="s">
         <v>2044</v>
       </c>
@@ -69717,6 +74321,18 @@
       <c r="C647" t="s">
         <v>66</v>
       </c>
+      <c r="D647" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E647" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F647" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G647" t="s">
+        <v>3114</v>
+      </c>
       <c r="H647" t="s">
         <v>1273</v>
       </c>
@@ -69731,6 +74347,18 @@
       <c r="C648" t="s">
         <v>255</v>
       </c>
+      <c r="D648" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E648" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F648" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G648" t="s">
+        <v>3114</v>
+      </c>
       <c r="H648" t="s">
         <v>1364</v>
       </c>
@@ -69745,6 +74373,18 @@
       <c r="C649" t="s">
         <v>94</v>
       </c>
+      <c r="D649" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E649" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F649" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G649" t="s">
+        <v>3114</v>
+      </c>
       <c r="H649" t="s">
         <v>1980</v>
       </c>
@@ -69759,6 +74399,18 @@
       <c r="C650" t="s">
         <v>255</v>
       </c>
+      <c r="D650" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E650" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F650" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G650" t="s">
+        <v>3114</v>
+      </c>
       <c r="H650" t="s">
         <v>521</v>
       </c>
@@ -69773,6 +74425,18 @@
       <c r="C651" t="s">
         <v>94</v>
       </c>
+      <c r="D651" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E651" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F651" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G651" t="s">
+        <v>3113</v>
+      </c>
       <c r="H651" t="s">
         <v>2006</v>
       </c>
@@ -69787,6 +74451,18 @@
       <c r="C652" t="s">
         <v>66</v>
       </c>
+      <c r="D652" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E652" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F652" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G652" t="s">
+        <v>3113</v>
+      </c>
       <c r="H652" t="s">
         <v>835</v>
       </c>
@@ -69801,6 +74477,18 @@
       <c r="C653" t="s">
         <v>94</v>
       </c>
+      <c r="D653" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E653" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F653" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G653" t="s">
+        <v>3114</v>
+      </c>
       <c r="H653" t="s">
         <v>784</v>
       </c>
@@ -69815,6 +74503,18 @@
       <c r="C654" t="s">
         <v>39</v>
       </c>
+      <c r="D654" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E654" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F654" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G654" t="s">
+        <v>3114</v>
+      </c>
       <c r="H654" t="s">
         <v>1481</v>
       </c>
@@ -69829,6 +74529,18 @@
       <c r="C655" t="s">
         <v>80</v>
       </c>
+      <c r="D655" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E655" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F655" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G655" t="s">
+        <v>3130</v>
+      </c>
       <c r="H655" t="s">
         <v>2040</v>
       </c>
@@ -69843,6 +74555,18 @@
       <c r="C656" t="s">
         <v>39</v>
       </c>
+      <c r="D656" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E656" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F656" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G656" t="s">
+        <v>3114</v>
+      </c>
       <c r="H656" t="s">
         <v>2350</v>
       </c>
@@ -69857,6 +74581,18 @@
       <c r="C657" t="s">
         <v>255</v>
       </c>
+      <c r="D657" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E657" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F657" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G657" t="s">
+        <v>3114</v>
+      </c>
       <c r="H657" t="s">
         <v>948</v>
       </c>
@@ -69871,6 +74607,18 @@
       <c r="C658" t="s">
         <v>39</v>
       </c>
+      <c r="D658" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E658" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F658" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G658" t="s">
+        <v>3114</v>
+      </c>
       <c r="H658" t="s">
         <v>689</v>
       </c>
@@ -69885,6 +74633,18 @@
       <c r="C659" t="s">
         <v>255</v>
       </c>
+      <c r="D659" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E659" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F659" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G659" t="s">
+        <v>3113</v>
+      </c>
       <c r="H659" t="s">
         <v>2137</v>
       </c>
@@ -69899,6 +74659,18 @@
       <c r="C660" t="s">
         <v>66</v>
       </c>
+      <c r="D660" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E660" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F660" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G660" t="s">
+        <v>3114</v>
+      </c>
       <c r="H660" t="s">
         <v>1277</v>
       </c>
@@ -69913,6 +74685,18 @@
       <c r="C661" t="s">
         <v>80</v>
       </c>
+      <c r="D661" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E661" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F661" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G661" t="s">
+        <v>3114</v>
+      </c>
       <c r="H661" t="s">
         <v>81</v>
       </c>
@@ -69927,6 +74711,18 @@
       <c r="C662" t="s">
         <v>94</v>
       </c>
+      <c r="D662" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E662" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F662" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G662" t="s">
+        <v>3114</v>
+      </c>
       <c r="H662" t="s">
         <v>2184</v>
       </c>
@@ -69941,6 +74737,18 @@
       <c r="C663" t="s">
         <v>255</v>
       </c>
+      <c r="D663" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E663" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F663" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G663" t="s">
+        <v>3114</v>
+      </c>
       <c r="H663" t="s">
         <v>1873</v>
       </c>
@@ -69955,6 +74763,18 @@
       <c r="C664" t="s">
         <v>39</v>
       </c>
+      <c r="D664" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E664" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F664" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G664" t="s">
+        <v>3114</v>
+      </c>
       <c r="H664" t="s">
         <v>2264</v>
       </c>
@@ -69969,6 +74789,18 @@
       <c r="C665" t="s">
         <v>66</v>
       </c>
+      <c r="D665" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E665" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F665" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G665" t="s">
+        <v>3114</v>
+      </c>
       <c r="H665" t="s">
         <v>1843</v>
       </c>
@@ -69983,6 +74815,18 @@
       <c r="C666" t="s">
         <v>255</v>
       </c>
+      <c r="D666" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E666" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F666" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G666" t="s">
+        <v>3130</v>
+      </c>
       <c r="H666" t="s">
         <v>1191</v>
       </c>
@@ -69997,6 +74841,18 @@
       <c r="C667" t="s">
         <v>94</v>
       </c>
+      <c r="D667" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E667" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F667" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G667" t="s">
+        <v>3113</v>
+      </c>
       <c r="H667" t="s">
         <v>95</v>
       </c>
@@ -70011,6 +74867,18 @@
       <c r="C668" t="s">
         <v>94</v>
       </c>
+      <c r="D668" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E668" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F668" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G668" t="s">
+        <v>3114</v>
+      </c>
       <c r="H668" t="s">
         <v>1949</v>
       </c>
@@ -70025,6 +74893,18 @@
       <c r="C669" t="s">
         <v>80</v>
       </c>
+      <c r="D669" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E669" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F669" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G669" t="s">
+        <v>3114</v>
+      </c>
       <c r="H669" t="s">
         <v>413</v>
       </c>
@@ -70039,6 +74919,18 @@
       <c r="C670" t="s">
         <v>94</v>
       </c>
+      <c r="D670" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E670" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F670" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G670" t="s">
+        <v>3130</v>
+      </c>
       <c r="H670" t="s">
         <v>315</v>
       </c>
@@ -70053,6 +74945,18 @@
       <c r="C671" t="s">
         <v>80</v>
       </c>
+      <c r="D671" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E671" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F671" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G671" t="s">
+        <v>3114</v>
+      </c>
       <c r="H671" t="s">
         <v>960</v>
       </c>
@@ -70067,6 +74971,18 @@
       <c r="C672" t="s">
         <v>39</v>
       </c>
+      <c r="D672" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E672" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F672" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G672" t="s">
+        <v>3130</v>
+      </c>
       <c r="H672" t="s">
         <v>1712</v>
       </c>
@@ -70081,6 +74997,18 @@
       <c r="C673" t="s">
         <v>255</v>
       </c>
+      <c r="D673" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E673" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F673" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G673" t="s">
+        <v>3130</v>
+      </c>
       <c r="H673" t="s">
         <v>1283</v>
       </c>
@@ -70095,6 +75023,18 @@
       <c r="C674" t="s">
         <v>80</v>
       </c>
+      <c r="D674" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E674" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F674" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G674" t="s">
+        <v>3114</v>
+      </c>
       <c r="H674" t="s">
         <v>2273</v>
       </c>
@@ -70109,6 +75049,18 @@
       <c r="C675" t="s">
         <v>66</v>
       </c>
+      <c r="D675" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E675" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F675" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G675" t="s">
+        <v>3114</v>
+      </c>
       <c r="H675" t="s">
         <v>432</v>
       </c>
@@ -70123,6 +75075,18 @@
       <c r="C676" t="s">
         <v>39</v>
       </c>
+      <c r="D676" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E676" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F676" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G676" t="s">
+        <v>3114</v>
+      </c>
       <c r="H676" t="s">
         <v>1123</v>
       </c>
@@ -70137,6 +75101,18 @@
       <c r="C677" t="s">
         <v>66</v>
       </c>
+      <c r="D677" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E677" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F677" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G677" t="s">
+        <v>3130</v>
+      </c>
       <c r="H677" t="s">
         <v>440</v>
       </c>
@@ -70151,6 +75127,18 @@
       <c r="C678" t="s">
         <v>66</v>
       </c>
+      <c r="D678" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E678" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F678" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G678" t="s">
+        <v>3113</v>
+      </c>
       <c r="H678" t="s">
         <v>2057</v>
       </c>
@@ -70165,6 +75153,18 @@
       <c r="C679" t="s">
         <v>66</v>
       </c>
+      <c r="D679" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E679" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F679" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G679" t="s">
+        <v>3114</v>
+      </c>
       <c r="H679" t="s">
         <v>1257</v>
       </c>
@@ -70179,6 +75179,18 @@
       <c r="C680" t="s">
         <v>94</v>
       </c>
+      <c r="D680" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E680" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F680" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G680" t="s">
+        <v>3114</v>
+      </c>
       <c r="H680" t="s">
         <v>1386</v>
       </c>
@@ -70193,6 +75205,18 @@
       <c r="C681" t="s">
         <v>255</v>
       </c>
+      <c r="D681" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E681" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F681" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G681" t="s">
+        <v>3114</v>
+      </c>
       <c r="H681" t="s">
         <v>1845</v>
       </c>
@@ -70207,6 +75231,18 @@
       <c r="C682" t="s">
         <v>39</v>
       </c>
+      <c r="D682" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E682" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F682" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G682" t="s">
+        <v>3130</v>
+      </c>
       <c r="H682" t="s">
         <v>2271</v>
       </c>
@@ -70221,6 +75257,18 @@
       <c r="C683" t="s">
         <v>39</v>
       </c>
+      <c r="D683" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E683" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F683" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G683" t="s">
+        <v>3130</v>
+      </c>
       <c r="H683" t="s">
         <v>1704</v>
       </c>
@@ -70235,6 +75283,18 @@
       <c r="C684" t="s">
         <v>66</v>
       </c>
+      <c r="D684" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E684" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F684" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G684" t="s">
+        <v>3113</v>
+      </c>
       <c r="H684" t="s">
         <v>1611</v>
       </c>
@@ -70249,6 +75309,18 @@
       <c r="C685" t="s">
         <v>39</v>
       </c>
+      <c r="D685" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E685" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F685" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G685" t="s">
+        <v>3130</v>
+      </c>
       <c r="H685" t="s">
         <v>500</v>
       </c>
@@ -70263,6 +75335,18 @@
       <c r="C686" t="s">
         <v>255</v>
       </c>
+      <c r="D686" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E686" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F686" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G686" t="s">
+        <v>3114</v>
+      </c>
       <c r="H686" t="s">
         <v>1632</v>
       </c>
@@ -70277,6 +75361,18 @@
       <c r="C687" t="s">
         <v>39</v>
       </c>
+      <c r="D687" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E687" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F687" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G687" t="s">
+        <v>3114</v>
+      </c>
       <c r="H687" t="s">
         <v>1837</v>
       </c>
@@ -70284,5 +75380,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB_csv/교통사고예방시스템_최종본.xlsx
+++ b/DB_csv/교통사고예방시스템_최종본.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23430" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23430" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="교통사고 발생 현황" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="교통사고 당사자" sheetId="13" r:id="rId3"/>
     <sheet name="지역 구" sheetId="14" r:id="rId4"/>
     <sheet name="지역별 교통사고 테이블" sheetId="16" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'교통사고 당사자'!$A$1:$M$1001</definedName>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19292" uniqueCount="3188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19278" uniqueCount="3178">
   <si>
     <t>교통사고 종류</t>
   </si>
@@ -9513,46 +9512,6 @@
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월평</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10169,7 +10128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D687"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A295" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -19808,7 +19767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -19837,10 +19796,10 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3171</v>
+        <v>3161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3172</v>
+        <v>3162</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>24</v>
@@ -20022,7 +19981,7 @@
         <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M5" t="s">
         <v>53</v>
@@ -20209,7 +20168,7 @@
         <v>3127</v>
       </c>
       <c r="F10" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G10" t="s">
         <v>3128</v>
@@ -20291,7 +20250,7 @@
         <v>3127</v>
       </c>
       <c r="F12" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G12" t="s">
         <v>3128</v>
@@ -20309,7 +20268,7 @@
         <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M12" t="s">
         <v>86</v>
@@ -20432,7 +20391,7 @@
         <v>109</v>
       </c>
       <c r="L15" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M15" t="s">
         <v>101</v>
@@ -20514,7 +20473,7 @@
         <v>107</v>
       </c>
       <c r="L17" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M17" t="s">
         <v>112</v>
@@ -20842,7 +20801,7 @@
         <v>119</v>
       </c>
       <c r="L25" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M25" t="s">
         <v>149</v>
@@ -21170,7 +21129,7 @@
         <v>104</v>
       </c>
       <c r="L33" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M33" t="s">
         <v>183</v>
@@ -21211,7 +21170,7 @@
         <v>92</v>
       </c>
       <c r="L34" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M34" t="s">
         <v>186</v>
@@ -21416,7 +21375,7 @@
         <v>94</v>
       </c>
       <c r="L39" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M39" t="s">
         <v>203</v>
@@ -21457,7 +21416,7 @@
         <v>112</v>
       </c>
       <c r="L40" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M40" t="s">
         <v>208</v>
@@ -21521,7 +21480,7 @@
         <v>3127</v>
       </c>
       <c r="F42" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G42" t="s">
         <v>3128</v>
@@ -21685,7 +21644,7 @@
         <v>3127</v>
       </c>
       <c r="F46" t="s">
-        <v>3161</v>
+        <v>3151</v>
       </c>
       <c r="G46" t="s">
         <v>3128</v>
@@ -21744,7 +21703,7 @@
         <v>98</v>
       </c>
       <c r="L47" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M47" t="s">
         <v>235</v>
@@ -21785,7 +21744,7 @@
         <v>84</v>
       </c>
       <c r="L48" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M48" t="s">
         <v>239</v>
@@ -21849,7 +21808,7 @@
         <v>3127</v>
       </c>
       <c r="F50" t="s">
-        <v>3173</v>
+        <v>3163</v>
       </c>
       <c r="G50" t="s">
         <v>3128</v>
@@ -21949,7 +21908,7 @@
         <v>107</v>
       </c>
       <c r="L52" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M52" t="s">
         <v>256</v>
@@ -22195,7 +22154,7 @@
         <v>83</v>
       </c>
       <c r="L58" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M58" t="s">
         <v>279</v>
@@ -22318,7 +22277,7 @@
         <v>95</v>
       </c>
       <c r="L61" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M61" t="s">
         <v>291</v>
@@ -22669,7 +22628,7 @@
         <v>3127</v>
       </c>
       <c r="F70" t="s">
-        <v>3173</v>
+        <v>3163</v>
       </c>
       <c r="G70" t="s">
         <v>3128</v>
@@ -22810,7 +22769,7 @@
         <v>80</v>
       </c>
       <c r="L73" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M73" t="s">
         <v>337</v>
@@ -23056,7 +23015,7 @@
         <v>92</v>
       </c>
       <c r="L79" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M79" t="s">
         <v>357</v>
@@ -23120,7 +23079,7 @@
         <v>3127</v>
       </c>
       <c r="F81" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G81" t="s">
         <v>3128</v>
@@ -23179,7 +23138,7 @@
         <v>117</v>
       </c>
       <c r="L82" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M82" t="s">
         <v>368</v>
@@ -23343,7 +23302,7 @@
         <v>129</v>
       </c>
       <c r="L86" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M86" t="s">
         <v>380</v>
@@ -23407,7 +23366,7 @@
         <v>3127</v>
       </c>
       <c r="F88" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G88" t="s">
         <v>3128</v>
@@ -23425,7 +23384,7 @@
         <v>106</v>
       </c>
       <c r="L88" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M88" t="s">
         <v>388</v>
@@ -23448,7 +23407,7 @@
         <v>3127</v>
       </c>
       <c r="F89" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G89" t="s">
         <v>3128</v>
@@ -23548,7 +23507,7 @@
         <v>117</v>
       </c>
       <c r="L91" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M91" t="s">
         <v>399</v>
@@ -23653,7 +23612,7 @@
         <v>3127</v>
       </c>
       <c r="F94" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G94" t="s">
         <v>3128</v>
@@ -23858,7 +23817,7 @@
         <v>3127</v>
       </c>
       <c r="F99" t="s">
-        <v>3174</v>
+        <v>3164</v>
       </c>
       <c r="G99" t="s">
         <v>3128</v>
@@ -24063,7 +24022,7 @@
         <v>3127</v>
       </c>
       <c r="F104" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G104" t="s">
         <v>3128</v>
@@ -24204,7 +24163,7 @@
         <v>100</v>
       </c>
       <c r="L107" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M107" t="s">
         <v>460</v>
@@ -24409,7 +24368,7 @@
         <v>99</v>
       </c>
       <c r="L112" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M112" t="s">
         <v>476</v>
@@ -24655,7 +24614,7 @@
         <v>110</v>
       </c>
       <c r="L118" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M118" t="s">
         <v>499</v>
@@ -24760,7 +24719,7 @@
         <v>3127</v>
       </c>
       <c r="F121" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G121" t="s">
         <v>3128</v>
@@ -24778,7 +24737,7 @@
         <v>128</v>
       </c>
       <c r="L121" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M121" t="s">
         <v>508</v>
@@ -24883,7 +24842,7 @@
         <v>3127</v>
       </c>
       <c r="F124" t="s">
-        <v>3173</v>
+        <v>3163</v>
       </c>
       <c r="G124" t="s">
         <v>3128</v>
@@ -24924,7 +24883,7 @@
         <v>3127</v>
       </c>
       <c r="F125" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G125" t="s">
         <v>3128</v>
@@ -25106,7 +25065,7 @@
         <v>82</v>
       </c>
       <c r="L129" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M129" t="s">
         <v>533</v>
@@ -25147,7 +25106,7 @@
         <v>123</v>
       </c>
       <c r="L130" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M130" t="s">
         <v>536</v>
@@ -25188,7 +25147,7 @@
         <v>93</v>
       </c>
       <c r="L131" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M131" t="s">
         <v>538</v>
@@ -25334,7 +25293,7 @@
         <v>3127</v>
       </c>
       <c r="F135" t="s">
-        <v>3186</v>
+        <v>3176</v>
       </c>
       <c r="G135" t="s">
         <v>3128</v>
@@ -25434,7 +25393,7 @@
         <v>93</v>
       </c>
       <c r="L137" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M137" t="s">
         <v>559</v>
@@ -25475,7 +25434,7 @@
         <v>97</v>
       </c>
       <c r="L138" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M138" t="s">
         <v>563</v>
@@ -25598,7 +25557,7 @@
         <v>107</v>
       </c>
       <c r="L141" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M141" t="s">
         <v>573</v>
@@ -25662,7 +25621,7 @@
         <v>3127</v>
       </c>
       <c r="F143" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G143" t="s">
         <v>3128</v>
@@ -25803,7 +25762,7 @@
         <v>91</v>
       </c>
       <c r="L146" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M146" t="s">
         <v>588</v>
@@ -25844,7 +25803,7 @@
         <v>115</v>
       </c>
       <c r="L147" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M147" t="s">
         <v>591</v>
@@ -25926,7 +25885,7 @@
         <v>112</v>
       </c>
       <c r="L149" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M149" t="s">
         <v>597</v>
@@ -26008,7 +25967,7 @@
         <v>110</v>
       </c>
       <c r="L151" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M151" t="s">
         <v>605</v>
@@ -26172,7 +26131,7 @@
         <v>82</v>
       </c>
       <c r="L155" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M155" t="s">
         <v>618</v>
@@ -26213,7 +26172,7 @@
         <v>122</v>
       </c>
       <c r="L156" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M156" t="s">
         <v>618</v>
@@ -26377,7 +26336,7 @@
         <v>93</v>
       </c>
       <c r="L160" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M160" t="s">
         <v>631</v>
@@ -26459,7 +26418,7 @@
         <v>103</v>
       </c>
       <c r="L162" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M162" t="s">
         <v>637</v>
@@ -26541,7 +26500,7 @@
         <v>84</v>
       </c>
       <c r="L164" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M164" t="s">
         <v>644</v>
@@ -26564,7 +26523,7 @@
         <v>3127</v>
       </c>
       <c r="F165" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G165" t="s">
         <v>3128</v>
@@ -26869,7 +26828,7 @@
         <v>117</v>
       </c>
       <c r="L172" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M172" t="s">
         <v>668</v>
@@ -26910,7 +26869,7 @@
         <v>96</v>
       </c>
       <c r="L173" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M173" t="s">
         <v>671</v>
@@ -26951,7 +26910,7 @@
         <v>129</v>
       </c>
       <c r="L174" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M174" t="s">
         <v>673</v>
@@ -26974,7 +26933,7 @@
         <v>3127</v>
       </c>
       <c r="F175" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G175" t="s">
         <v>3128</v>
@@ -26992,7 +26951,7 @@
         <v>116</v>
       </c>
       <c r="L175" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M175" t="s">
         <v>676</v>
@@ -27097,7 +27056,7 @@
         <v>3127</v>
       </c>
       <c r="F178" t="s">
-        <v>3185</v>
+        <v>3175</v>
       </c>
       <c r="G178" t="s">
         <v>3128</v>
@@ -27197,7 +27156,7 @@
         <v>101</v>
       </c>
       <c r="L180" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M180" t="s">
         <v>508</v>
@@ -27279,7 +27238,7 @@
         <v>115</v>
       </c>
       <c r="L182" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M182" t="s">
         <v>693</v>
@@ -27425,7 +27384,7 @@
         <v>3127</v>
       </c>
       <c r="F186" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G186" t="s">
         <v>3128</v>
@@ -27548,7 +27507,7 @@
         <v>3127</v>
       </c>
       <c r="F189" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G189" t="s">
         <v>3128</v>
@@ -27607,7 +27566,7 @@
         <v>107</v>
       </c>
       <c r="L190" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M190" t="s">
         <v>714</v>
@@ -27712,7 +27671,7 @@
         <v>3127</v>
       </c>
       <c r="F193" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G193" t="s">
         <v>3128</v>
@@ -27753,7 +27712,7 @@
         <v>3127</v>
       </c>
       <c r="F194" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G194" t="s">
         <v>3128</v>
@@ -27771,7 +27730,7 @@
         <v>83</v>
       </c>
       <c r="L194" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M194" t="s">
         <v>726</v>
@@ -28222,7 +28181,7 @@
         <v>124</v>
       </c>
       <c r="L205" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M205" t="s">
         <v>757</v>
@@ -28245,7 +28204,7 @@
         <v>3127</v>
       </c>
       <c r="F206" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G206" t="s">
         <v>3128</v>
@@ -28263,7 +28222,7 @@
         <v>113</v>
       </c>
       <c r="L206" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M206" t="s">
         <v>761</v>
@@ -28304,7 +28263,7 @@
         <v>110</v>
       </c>
       <c r="L207" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M207" t="s">
         <v>763</v>
@@ -28509,7 +28468,7 @@
         <v>117</v>
       </c>
       <c r="L212" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M212" t="s">
         <v>777</v>
@@ -28591,7 +28550,7 @@
         <v>87</v>
       </c>
       <c r="L214" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M214" t="s">
         <v>783</v>
@@ -28942,7 +28901,7 @@
         <v>3127</v>
       </c>
       <c r="F223" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G223" t="s">
         <v>3128</v>
@@ -29001,7 +28960,7 @@
         <v>95</v>
       </c>
       <c r="L224" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M224" t="s">
         <v>810</v>
@@ -29042,7 +29001,7 @@
         <v>99</v>
       </c>
       <c r="L225" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M225" t="s">
         <v>813</v>
@@ -29165,7 +29124,7 @@
         <v>128</v>
       </c>
       <c r="L228" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M228" t="s">
         <v>460</v>
@@ -29206,7 +29165,7 @@
         <v>100</v>
       </c>
       <c r="L229" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M229" t="s">
         <v>637</v>
@@ -29288,7 +29247,7 @@
         <v>112</v>
       </c>
       <c r="L231" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M231" t="s">
         <v>828</v>
@@ -29370,7 +29329,7 @@
         <v>110</v>
       </c>
       <c r="L233" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M233" t="s">
         <v>835</v>
@@ -29493,7 +29452,7 @@
         <v>99</v>
       </c>
       <c r="L236" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M236" t="s">
         <v>846</v>
@@ -30008,7 +29967,7 @@
         <v>3127</v>
       </c>
       <c r="F249" t="s">
-        <v>3175</v>
+        <v>3165</v>
       </c>
       <c r="G249" t="s">
         <v>3128</v>
@@ -30500,7 +30459,7 @@
         <v>3127</v>
       </c>
       <c r="F261" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G261" t="s">
         <v>3128</v>
@@ -31074,7 +31033,7 @@
         <v>3127</v>
       </c>
       <c r="F275" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G275" t="s">
         <v>3128</v>
@@ -31379,7 +31338,7 @@
         <v>105</v>
       </c>
       <c r="L282" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M282" t="s">
         <v>969</v>
@@ -31420,7 +31379,7 @@
         <v>107</v>
       </c>
       <c r="L283" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M283" t="s">
         <v>972</v>
@@ -31625,7 +31584,7 @@
         <v>100</v>
       </c>
       <c r="L288" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M288" t="s">
         <v>605</v>
@@ -31666,7 +31625,7 @@
         <v>92</v>
       </c>
       <c r="L289" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M289" t="s">
         <v>846</v>
@@ -31707,7 +31666,7 @@
         <v>102</v>
       </c>
       <c r="L290" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M290" t="s">
         <v>991</v>
@@ -31771,7 +31730,7 @@
         <v>3127</v>
       </c>
       <c r="F292" t="s">
-        <v>3184</v>
+        <v>3174</v>
       </c>
       <c r="G292" t="s">
         <v>3127</v>
@@ -31871,7 +31830,7 @@
         <v>100</v>
       </c>
       <c r="L294" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M294" t="s">
         <v>1003</v>
@@ -32158,7 +32117,7 @@
         <v>122</v>
       </c>
       <c r="L301" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M301" t="s">
         <v>1024</v>
@@ -32199,7 +32158,7 @@
         <v>106</v>
       </c>
       <c r="L302" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M302" t="s">
         <v>1028</v>
@@ -32363,7 +32322,7 @@
         <v>116</v>
       </c>
       <c r="L306" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M306" t="s">
         <v>1040</v>
@@ -32404,7 +32363,7 @@
         <v>101</v>
       </c>
       <c r="L307" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M307" t="s">
         <v>1042</v>
@@ -32486,7 +32445,7 @@
         <v>127</v>
       </c>
       <c r="L309" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M309" t="s">
         <v>828</v>
@@ -32527,7 +32486,7 @@
         <v>123</v>
       </c>
       <c r="L310" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M310" t="s">
         <v>1024</v>
@@ -32773,7 +32732,7 @@
         <v>105</v>
       </c>
       <c r="L316" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M316" t="s">
         <v>1064</v>
@@ -32896,7 +32855,7 @@
         <v>115</v>
       </c>
       <c r="L319" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M319" t="s">
         <v>1070</v>
@@ -32919,7 +32878,7 @@
         <v>3127</v>
       </c>
       <c r="F320" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G320" t="s">
         <v>3128</v>
@@ -32978,7 +32937,7 @@
         <v>81</v>
       </c>
       <c r="L321" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M321" t="s">
         <v>1040</v>
@@ -33019,7 +32978,7 @@
         <v>127</v>
       </c>
       <c r="L322" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M322" t="s">
         <v>1077</v>
@@ -33042,7 +33001,7 @@
         <v>3127</v>
       </c>
       <c r="F323" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G323" t="s">
         <v>3128</v>
@@ -33329,7 +33288,7 @@
         <v>3127</v>
       </c>
       <c r="F330" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G330" t="s">
         <v>3128</v>
@@ -33493,7 +33452,7 @@
         <v>3127</v>
       </c>
       <c r="F334" t="s">
-        <v>3183</v>
+        <v>3173</v>
       </c>
       <c r="G334" t="s">
         <v>3128</v>
@@ -33821,7 +33780,7 @@
         <v>3127</v>
       </c>
       <c r="F342" t="s">
-        <v>3161</v>
+        <v>3151</v>
       </c>
       <c r="G342" t="s">
         <v>3128</v>
@@ -33839,7 +33798,7 @@
         <v>120</v>
       </c>
       <c r="L342" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M342" t="s">
         <v>101</v>
@@ -34354,7 +34313,7 @@
         <v>3127</v>
       </c>
       <c r="F355" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G355" t="s">
         <v>3128</v>
@@ -34454,7 +34413,7 @@
         <v>107</v>
       </c>
       <c r="L357" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M357" t="s">
         <v>668</v>
@@ -34495,7 +34454,7 @@
         <v>82</v>
       </c>
       <c r="L358" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M358" t="s">
         <v>101</v>
@@ -34700,7 +34659,7 @@
         <v>129</v>
       </c>
       <c r="L363" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M363" t="s">
         <v>597</v>
@@ -35028,7 +34987,7 @@
         <v>126</v>
       </c>
       <c r="L371" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M371" t="s">
         <v>1193</v>
@@ -35069,7 +35028,7 @@
         <v>115</v>
       </c>
       <c r="L372" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M372" t="s">
         <v>1196</v>
@@ -35192,7 +35151,7 @@
         <v>126</v>
       </c>
       <c r="L375" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M375" t="s">
         <v>1204</v>
@@ -35315,7 +35274,7 @@
         <v>125</v>
       </c>
       <c r="L378" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M378" t="s">
         <v>1211</v>
@@ -35356,7 +35315,7 @@
         <v>106</v>
       </c>
       <c r="L379" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M379" t="s">
         <v>1213</v>
@@ -35625,7 +35584,7 @@
         <v>3127</v>
       </c>
       <c r="F386" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G386" t="s">
         <v>3128</v>
@@ -35848,7 +35807,7 @@
         <v>127</v>
       </c>
       <c r="L391" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M391" t="s">
         <v>1240</v>
@@ -35889,7 +35848,7 @@
         <v>84</v>
       </c>
       <c r="L392" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M392" t="s">
         <v>1243</v>
@@ -35930,7 +35889,7 @@
         <v>105</v>
       </c>
       <c r="L393" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M393" t="s">
         <v>1245</v>
@@ -36012,7 +35971,7 @@
         <v>95</v>
       </c>
       <c r="L395" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M395" t="s">
         <v>1250</v>
@@ -36217,7 +36176,7 @@
         <v>103</v>
       </c>
       <c r="L400" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M400" t="s">
         <v>1263</v>
@@ -36258,7 +36217,7 @@
         <v>87</v>
       </c>
       <c r="L401" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M401" t="s">
         <v>1266</v>
@@ -36422,7 +36381,7 @@
         <v>119</v>
       </c>
       <c r="L405" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M405" t="s">
         <v>1276</v>
@@ -36586,7 +36545,7 @@
         <v>128</v>
       </c>
       <c r="L409" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M409" t="s">
         <v>1288</v>
@@ -36832,7 +36791,7 @@
         <v>105</v>
       </c>
       <c r="L415" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M415" t="s">
         <v>1298</v>
@@ -37142,7 +37101,7 @@
         <v>3127</v>
       </c>
       <c r="F423" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G423" t="s">
         <v>3128</v>
@@ -37324,7 +37283,7 @@
         <v>117</v>
       </c>
       <c r="L427" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M427" t="s">
         <v>1325</v>
@@ -37429,7 +37388,7 @@
         <v>3127</v>
       </c>
       <c r="F430" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G430" t="s">
         <v>3128</v>
@@ -37529,7 +37488,7 @@
         <v>84</v>
       </c>
       <c r="L432" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M432" t="s">
         <v>1336</v>
@@ -38103,7 +38062,7 @@
         <v>114</v>
       </c>
       <c r="L446" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M446" t="s">
         <v>279</v>
@@ -38144,7 +38103,7 @@
         <v>95</v>
       </c>
       <c r="L447" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M447" t="s">
         <v>1336</v>
@@ -38267,7 +38226,7 @@
         <v>105</v>
       </c>
       <c r="L450" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M450" t="s">
         <v>783</v>
@@ -38595,7 +38554,7 @@
         <v>94</v>
       </c>
       <c r="L458" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M458" t="s">
         <v>644</v>
@@ -38759,7 +38718,7 @@
         <v>85</v>
       </c>
       <c r="L462" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M462" t="s">
         <v>1405</v>
@@ -39292,7 +39251,7 @@
         <v>115</v>
       </c>
       <c r="L475" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M475" t="s">
         <v>1431</v>
@@ -39456,7 +39415,7 @@
         <v>95</v>
       </c>
       <c r="L479" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M479" t="s">
         <v>1439</v>
@@ -39661,7 +39620,7 @@
         <v>116</v>
       </c>
       <c r="L484" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M484" t="s">
         <v>538</v>
@@ -39866,7 +39825,7 @@
         <v>102</v>
       </c>
       <c r="L489" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M489" t="s">
         <v>1462</v>
@@ -39889,7 +39848,7 @@
         <v>3127</v>
       </c>
       <c r="F490" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G490" t="s">
         <v>3128</v>
@@ -39948,7 +39907,7 @@
         <v>128</v>
       </c>
       <c r="L491" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M491" t="s">
         <v>1467</v>
@@ -40194,7 +40153,7 @@
         <v>119</v>
       </c>
       <c r="L497" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M497" t="s">
         <v>673</v>
@@ -40358,7 +40317,7 @@
         <v>107</v>
       </c>
       <c r="L501" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M501" t="s">
         <v>1491</v>
@@ -40381,7 +40340,7 @@
         <v>3127</v>
       </c>
       <c r="F502" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G502" t="s">
         <v>3128</v>
@@ -40750,7 +40709,7 @@
         <v>3127</v>
       </c>
       <c r="F511" t="s">
-        <v>3173</v>
+        <v>3163</v>
       </c>
       <c r="G511" t="s">
         <v>3128</v>
@@ -40891,7 +40850,7 @@
         <v>114</v>
       </c>
       <c r="L514" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M514" t="s">
         <v>1024</v>
@@ -40973,7 +40932,7 @@
         <v>108</v>
       </c>
       <c r="L516" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M516" t="s">
         <v>1519</v>
@@ -41096,7 +41055,7 @@
         <v>100</v>
       </c>
       <c r="L519" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M519" t="s">
         <v>1526</v>
@@ -41119,7 +41078,7 @@
         <v>3127</v>
       </c>
       <c r="F520" t="s">
-        <v>3182</v>
+        <v>3172</v>
       </c>
       <c r="G520" t="s">
         <v>3128</v>
@@ -41219,7 +41178,7 @@
         <v>97</v>
       </c>
       <c r="L522" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M522" t="s">
         <v>1531</v>
@@ -41283,7 +41242,7 @@
         <v>3127</v>
       </c>
       <c r="F524" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G524" t="s">
         <v>3128</v>
@@ -41342,7 +41301,7 @@
         <v>101</v>
       </c>
       <c r="L525" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M525" t="s">
         <v>1064</v>
@@ -41424,7 +41383,7 @@
         <v>115</v>
       </c>
       <c r="L527" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M527" t="s">
         <v>1540</v>
@@ -41506,7 +41465,7 @@
         <v>128</v>
       </c>
       <c r="L529" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M529" t="s">
         <v>671</v>
@@ -41998,7 +41957,7 @@
         <v>97</v>
       </c>
       <c r="L541" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M541" t="s">
         <v>1574</v>
@@ -42021,7 +41980,7 @@
         <v>3127</v>
       </c>
       <c r="F542" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G542" t="s">
         <v>3128</v>
@@ -42162,7 +42121,7 @@
         <v>110</v>
       </c>
       <c r="L545" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M545" t="s">
         <v>1580</v>
@@ -42490,7 +42449,7 @@
         <v>83</v>
       </c>
       <c r="L553" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M553" t="s">
         <v>1600</v>
@@ -42531,7 +42490,7 @@
         <v>81</v>
       </c>
       <c r="L554" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M554" t="s">
         <v>1604</v>
@@ -42613,7 +42572,7 @@
         <v>121</v>
       </c>
       <c r="L556" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M556" t="s">
         <v>1431</v>
@@ -42654,7 +42613,7 @@
         <v>80</v>
       </c>
       <c r="L557" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M557" t="s">
         <v>1580</v>
@@ -42718,7 +42677,7 @@
         <v>3127</v>
       </c>
       <c r="F559" t="s">
-        <v>3163</v>
+        <v>3153</v>
       </c>
       <c r="G559" t="s">
         <v>3128</v>
@@ -42900,7 +42859,7 @@
         <v>97</v>
       </c>
       <c r="L563" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M563" t="s">
         <v>1620</v>
@@ -43064,7 +43023,7 @@
         <v>111</v>
       </c>
       <c r="L567" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M567" t="s">
         <v>1631</v>
@@ -43146,7 +43105,7 @@
         <v>86</v>
       </c>
       <c r="L569" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M569" t="s">
         <v>183</v>
@@ -43474,7 +43433,7 @@
         <v>111</v>
       </c>
       <c r="L577" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M577" t="s">
         <v>1653</v>
@@ -43515,7 +43474,7 @@
         <v>129</v>
       </c>
       <c r="L578" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M578" t="s">
         <v>1655</v>
@@ -43620,7 +43579,7 @@
         <v>3127</v>
       </c>
       <c r="F581" t="s">
-        <v>3181</v>
+        <v>3171</v>
       </c>
       <c r="G581" t="s">
         <v>3128</v>
@@ -43638,7 +43597,7 @@
         <v>107</v>
       </c>
       <c r="L581" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M581" t="s">
         <v>991</v>
@@ -43802,7 +43761,7 @@
         <v>101</v>
       </c>
       <c r="L585" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M585" t="s">
         <v>1669</v>
@@ -43843,7 +43802,7 @@
         <v>126</v>
       </c>
       <c r="L586" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M586" t="s">
         <v>1671</v>
@@ -44089,7 +44048,7 @@
         <v>89</v>
       </c>
       <c r="L592" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M592" t="s">
         <v>1681</v>
@@ -44130,7 +44089,7 @@
         <v>99</v>
       </c>
       <c r="L593" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M593" t="s">
         <v>1684</v>
@@ -44645,7 +44604,7 @@
         <v>3127</v>
       </c>
       <c r="F606" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G606" t="s">
         <v>3128</v>
@@ -44663,7 +44622,7 @@
         <v>129</v>
       </c>
       <c r="L606" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M606" t="s">
         <v>1713</v>
@@ -44704,7 +44663,7 @@
         <v>101</v>
       </c>
       <c r="L607" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M607" t="s">
         <v>1604</v>
@@ -44745,7 +44704,7 @@
         <v>126</v>
       </c>
       <c r="L608" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M608" t="s">
         <v>368</v>
@@ -44827,7 +44786,7 @@
         <v>92</v>
       </c>
       <c r="L610" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M610" t="s">
         <v>1718</v>
@@ -44950,7 +44909,7 @@
         <v>88</v>
       </c>
       <c r="L613" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M613" t="s">
         <v>1725</v>
@@ -45014,7 +44973,7 @@
         <v>3127</v>
       </c>
       <c r="F615" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G615" t="s">
         <v>3128</v>
@@ -45073,7 +45032,7 @@
         <v>109</v>
       </c>
       <c r="L616" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M616" t="s">
         <v>203</v>
@@ -45114,7 +45073,7 @@
         <v>111</v>
       </c>
       <c r="L617" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M617" t="s">
         <v>1731</v>
@@ -45524,7 +45483,7 @@
         <v>91</v>
       </c>
       <c r="L627" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M627" t="s">
         <v>1750</v>
@@ -45565,7 +45524,7 @@
         <v>83</v>
       </c>
       <c r="L628" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M628" t="s">
         <v>1753</v>
@@ -45606,7 +45565,7 @@
         <v>109</v>
       </c>
       <c r="L629" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M629" t="s">
         <v>1755</v>
@@ -45729,7 +45688,7 @@
         <v>128</v>
       </c>
       <c r="L632" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M632" t="s">
         <v>605</v>
@@ -45793,7 +45752,7 @@
         <v>3127</v>
       </c>
       <c r="F634" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G634" t="s">
         <v>3128</v>
@@ -45852,7 +45811,7 @@
         <v>91</v>
       </c>
       <c r="L635" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M635" t="s">
         <v>1765</v>
@@ -45934,7 +45893,7 @@
         <v>92</v>
       </c>
       <c r="L637" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M637" t="s">
         <v>1769</v>
@@ -46098,7 +46057,7 @@
         <v>119</v>
       </c>
       <c r="L641" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M641" t="s">
         <v>1778</v>
@@ -46139,7 +46098,7 @@
         <v>116</v>
       </c>
       <c r="L642" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M642" t="s">
         <v>1781</v>
@@ -46180,7 +46139,7 @@
         <v>110</v>
       </c>
       <c r="L643" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M643" t="s">
         <v>618</v>
@@ -46203,7 +46162,7 @@
         <v>3127</v>
       </c>
       <c r="F644" t="s">
-        <v>3178</v>
+        <v>3168</v>
       </c>
       <c r="G644" t="s">
         <v>3128</v>
@@ -46262,7 +46221,7 @@
         <v>109</v>
       </c>
       <c r="L645" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M645" t="s">
         <v>1405</v>
@@ -46344,7 +46303,7 @@
         <v>128</v>
       </c>
       <c r="L647" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M647" t="s">
         <v>1431</v>
@@ -46508,7 +46467,7 @@
         <v>96</v>
       </c>
       <c r="L651" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M651" t="s">
         <v>1798</v>
@@ -46631,7 +46590,7 @@
         <v>103</v>
       </c>
       <c r="L654" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M654" t="s">
         <v>1540</v>
@@ -46695,7 +46654,7 @@
         <v>3127</v>
       </c>
       <c r="F656" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G656" t="s">
         <v>3128</v>
@@ -46713,7 +46672,7 @@
         <v>110</v>
       </c>
       <c r="L656" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M656" t="s">
         <v>1808</v>
@@ -46754,7 +46713,7 @@
         <v>90</v>
       </c>
       <c r="L657" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M657" t="s">
         <v>1753</v>
@@ -46941,7 +46900,7 @@
         <v>3127</v>
       </c>
       <c r="F662" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G662" t="s">
         <v>3127</v>
@@ -47000,7 +46959,7 @@
         <v>111</v>
       </c>
       <c r="L663" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M663" t="s">
         <v>1467</v>
@@ -47041,7 +47000,7 @@
         <v>117</v>
       </c>
       <c r="L664" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M664" t="s">
         <v>1821</v>
@@ -47082,7 +47041,7 @@
         <v>116</v>
       </c>
       <c r="L665" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M665" t="s">
         <v>1824</v>
@@ -47123,7 +47082,7 @@
         <v>102</v>
       </c>
       <c r="L666" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M666" t="s">
         <v>1827</v>
@@ -47164,7 +47123,7 @@
         <v>119</v>
       </c>
       <c r="L667" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M667" t="s">
         <v>1655</v>
@@ -47287,7 +47246,7 @@
         <v>111</v>
       </c>
       <c r="L670" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M670" t="s">
         <v>1835</v>
@@ -47392,7 +47351,7 @@
         <v>3127</v>
       </c>
       <c r="F673" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G673" t="s">
         <v>3127</v>
@@ -47738,7 +47697,7 @@
         <v>126</v>
       </c>
       <c r="L681" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M681" t="s">
         <v>605</v>
@@ -47902,7 +47861,7 @@
         <v>124</v>
       </c>
       <c r="L685" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M685" t="s">
         <v>1865</v>
@@ -48353,7 +48312,7 @@
         <v>91</v>
       </c>
       <c r="L696" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M696" t="s">
         <v>1886</v>
@@ -48622,7 +48581,7 @@
         <v>3127</v>
       </c>
       <c r="F703" t="s">
-        <v>3187</v>
+        <v>3177</v>
       </c>
       <c r="G703" t="s">
         <v>3128</v>
@@ -48886,7 +48845,7 @@
         <v>102</v>
       </c>
       <c r="L709" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M709" t="s">
         <v>1910</v>
@@ -49009,7 +48968,7 @@
         <v>100</v>
       </c>
       <c r="L712" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M712" t="s">
         <v>1298</v>
@@ -49319,7 +49278,7 @@
         <v>3127</v>
       </c>
       <c r="F720" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G720" t="s">
         <v>3128</v>
@@ -49337,7 +49296,7 @@
         <v>123</v>
       </c>
       <c r="L720" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M720" t="s">
         <v>1929</v>
@@ -49501,7 +49460,7 @@
         <v>89</v>
       </c>
       <c r="L724" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M724" t="s">
         <v>1938</v>
@@ -49583,7 +49542,7 @@
         <v>106</v>
       </c>
       <c r="L726" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M726" t="s">
         <v>846</v>
@@ -49829,7 +49788,7 @@
         <v>114</v>
       </c>
       <c r="L732" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M732" t="s">
         <v>1953</v>
@@ -49870,7 +49829,7 @@
         <v>106</v>
       </c>
       <c r="L733" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M733" t="s">
         <v>1684</v>
@@ -50280,7 +50239,7 @@
         <v>118</v>
       </c>
       <c r="L743" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M743" t="s">
         <v>1980</v>
@@ -50303,7 +50262,7 @@
         <v>3127</v>
       </c>
       <c r="F744" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G744" t="s">
         <v>3128</v>
@@ -50321,7 +50280,7 @@
         <v>120</v>
       </c>
       <c r="L744" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M744" t="s">
         <v>1982</v>
@@ -50649,7 +50608,7 @@
         <v>126</v>
       </c>
       <c r="L752" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M752" t="s">
         <v>380</v>
@@ -50731,7 +50690,7 @@
         <v>85</v>
       </c>
       <c r="L754" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M754" t="s">
         <v>1750</v>
@@ -50772,7 +50731,7 @@
         <v>92</v>
       </c>
       <c r="L755" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M755" t="s">
         <v>2001</v>
@@ -50895,7 +50854,7 @@
         <v>95</v>
       </c>
       <c r="L758" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M758" t="s">
         <v>2008</v>
@@ -51141,7 +51100,7 @@
         <v>112</v>
       </c>
       <c r="L764" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M764" t="s">
         <v>1755</v>
@@ -51369,7 +51328,7 @@
         <v>3127</v>
       </c>
       <c r="F770" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G770" t="s">
         <v>3128</v>
@@ -51387,7 +51346,7 @@
         <v>129</v>
       </c>
       <c r="L770" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M770" t="s">
         <v>2027</v>
@@ -51410,7 +51369,7 @@
         <v>3127</v>
       </c>
       <c r="F771" t="s">
-        <v>3163</v>
+        <v>3153</v>
       </c>
       <c r="G771" t="s">
         <v>3128</v>
@@ -51756,7 +51715,7 @@
         <v>93</v>
       </c>
       <c r="L779" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M779" t="s">
         <v>235</v>
@@ -52043,7 +52002,7 @@
         <v>108</v>
       </c>
       <c r="L786" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M786" t="s">
         <v>1604</v>
@@ -52107,7 +52066,7 @@
         <v>3127</v>
       </c>
       <c r="F788" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G788" t="s">
         <v>3128</v>
@@ -52125,7 +52084,7 @@
         <v>111</v>
       </c>
       <c r="L788" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M788" t="s">
         <v>1681</v>
@@ -52289,7 +52248,7 @@
         <v>103</v>
       </c>
       <c r="L792" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M792" t="s">
         <v>2065</v>
@@ -52330,7 +52289,7 @@
         <v>121</v>
       </c>
       <c r="L793" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M793" t="s">
         <v>1325</v>
@@ -52353,7 +52312,7 @@
         <v>3127</v>
       </c>
       <c r="F794" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G794" t="s">
         <v>3128</v>
@@ -52640,7 +52599,7 @@
         <v>3127</v>
       </c>
       <c r="F801" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G801" t="s">
         <v>3128</v>
@@ -52658,7 +52617,7 @@
         <v>125</v>
       </c>
       <c r="L801" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M801" t="s">
         <v>618</v>
@@ -52740,7 +52699,7 @@
         <v>123</v>
       </c>
       <c r="L803" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M803" t="s">
         <v>1755</v>
@@ -53109,7 +53068,7 @@
         <v>129</v>
       </c>
       <c r="L812" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M812" t="s">
         <v>1580</v>
@@ -53214,7 +53173,7 @@
         <v>3127</v>
       </c>
       <c r="F815" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G815" t="s">
         <v>3128</v>
@@ -53255,7 +53214,7 @@
         <v>3127</v>
       </c>
       <c r="F816" t="s">
-        <v>3180</v>
+        <v>3170</v>
       </c>
       <c r="G816" t="s">
         <v>3128</v>
@@ -53337,7 +53296,7 @@
         <v>3127</v>
       </c>
       <c r="F818" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G818" t="s">
         <v>3128</v>
@@ -53437,7 +53396,7 @@
         <v>126</v>
       </c>
       <c r="L820" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M820" t="s">
         <v>2114</v>
@@ -53460,7 +53419,7 @@
         <v>3127</v>
       </c>
       <c r="F821" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G821" t="s">
         <v>3128</v>
@@ -53642,7 +53601,7 @@
         <v>104</v>
       </c>
       <c r="L825" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M825" t="s">
         <v>2124</v>
@@ -53724,7 +53683,7 @@
         <v>126</v>
       </c>
       <c r="L827" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M827" t="s">
         <v>112</v>
@@ -53765,7 +53724,7 @@
         <v>99</v>
       </c>
       <c r="L828" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M828" t="s">
         <v>2027</v>
@@ -54093,7 +54052,7 @@
         <v>99</v>
       </c>
       <c r="L836" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M836" t="s">
         <v>2141</v>
@@ -54134,7 +54093,7 @@
         <v>116</v>
       </c>
       <c r="L837" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M837" t="s">
         <v>86</v>
@@ -54321,7 +54280,7 @@
         <v>3127</v>
       </c>
       <c r="F842" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G842" t="s">
         <v>3128</v>
@@ -54462,7 +54421,7 @@
         <v>89</v>
       </c>
       <c r="L845" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M845" t="s">
         <v>2008</v>
@@ -54608,7 +54567,7 @@
         <v>3127</v>
       </c>
       <c r="F849" t="s">
-        <v>3179</v>
+        <v>3169</v>
       </c>
       <c r="G849" t="s">
         <v>3128</v>
@@ -54772,7 +54731,7 @@
         <v>3127</v>
       </c>
       <c r="F853" t="s">
-        <v>3176</v>
+        <v>3166</v>
       </c>
       <c r="G853" t="s">
         <v>3128</v>
@@ -54790,7 +54749,7 @@
         <v>101</v>
       </c>
       <c r="L853" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M853" t="s">
         <v>460</v>
@@ -55036,7 +54995,7 @@
         <v>117</v>
       </c>
       <c r="L859" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M859" t="s">
         <v>605</v>
@@ -55118,7 +55077,7 @@
         <v>99</v>
       </c>
       <c r="L861" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M861" t="s">
         <v>1725</v>
@@ -55141,7 +55100,7 @@
         <v>3127</v>
       </c>
       <c r="F862" t="s">
-        <v>3178</v>
+        <v>3168</v>
       </c>
       <c r="G862" t="s">
         <v>3128</v>
@@ -55323,7 +55282,7 @@
         <v>85</v>
       </c>
       <c r="L866" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M866" t="s">
         <v>2193</v>
@@ -55469,7 +55428,7 @@
         <v>3127</v>
       </c>
       <c r="F870" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G870" t="s">
         <v>3128</v>
@@ -55528,7 +55487,7 @@
         <v>118</v>
       </c>
       <c r="L871" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M871" t="s">
         <v>1798</v>
@@ -55610,7 +55569,7 @@
         <v>121</v>
       </c>
       <c r="L873" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M873" t="s">
         <v>1288</v>
@@ -55856,7 +55815,7 @@
         <v>101</v>
       </c>
       <c r="L879" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M879" t="s">
         <v>588</v>
@@ -55938,7 +55897,7 @@
         <v>104</v>
       </c>
       <c r="L881" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M881" t="s">
         <v>1519</v>
@@ -55979,7 +55938,7 @@
         <v>86</v>
       </c>
       <c r="L882" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M882" t="s">
         <v>2215</v>
@@ -56207,7 +56166,7 @@
         <v>3127</v>
       </c>
       <c r="F888" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G888" t="s">
         <v>3128</v>
@@ -56225,7 +56184,7 @@
         <v>103</v>
       </c>
       <c r="L888" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M888" t="s">
         <v>2223</v>
@@ -56348,7 +56307,7 @@
         <v>128</v>
       </c>
       <c r="L891" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M891" t="s">
         <v>2229</v>
@@ -56371,7 +56330,7 @@
         <v>3127</v>
       </c>
       <c r="F892" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G892" t="s">
         <v>3128</v>
@@ -56389,7 +56348,7 @@
         <v>127</v>
       </c>
       <c r="L892" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M892" t="s">
         <v>1531</v>
@@ -56676,7 +56635,7 @@
         <v>98</v>
       </c>
       <c r="L899" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M899" t="s">
         <v>533</v>
@@ -56717,7 +56676,7 @@
         <v>123</v>
       </c>
       <c r="L900" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M900" t="s">
         <v>2242</v>
@@ -56922,7 +56881,7 @@
         <v>105</v>
       </c>
       <c r="L905" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M905" t="s">
         <v>2065</v>
@@ -57232,7 +57191,7 @@
         <v>3127</v>
       </c>
       <c r="F913" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G913" t="s">
         <v>3128</v>
@@ -57250,7 +57209,7 @@
         <v>124</v>
       </c>
       <c r="L913" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M913" t="s">
         <v>2229</v>
@@ -57455,7 +57414,7 @@
         <v>85</v>
       </c>
       <c r="L918" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M918" t="s">
         <v>1243</v>
@@ -57519,7 +57478,7 @@
         <v>3127</v>
       </c>
       <c r="F920" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G920" t="s">
         <v>3128</v>
@@ -57537,7 +57496,7 @@
         <v>124</v>
       </c>
       <c r="L920" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M920" t="s">
         <v>538</v>
@@ -57742,7 +57701,7 @@
         <v>90</v>
       </c>
       <c r="L925" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M925" t="s">
         <v>2284</v>
@@ -57783,7 +57742,7 @@
         <v>108</v>
       </c>
       <c r="L926" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M926" t="s">
         <v>668</v>
@@ -57824,7 +57783,7 @@
         <v>126</v>
       </c>
       <c r="L927" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M927" t="s">
         <v>1731</v>
@@ -57888,7 +57847,7 @@
         <v>3127</v>
       </c>
       <c r="F929" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G929" t="s">
         <v>3128</v>
@@ -57947,7 +57906,7 @@
         <v>106</v>
       </c>
       <c r="L930" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M930" t="s">
         <v>2293</v>
@@ -57988,7 +57947,7 @@
         <v>106</v>
       </c>
       <c r="L931" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M931" t="s">
         <v>846</v>
@@ -58234,7 +58193,7 @@
         <v>104</v>
       </c>
       <c r="L937" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="M937" t="s">
         <v>368</v>
@@ -58275,7 +58234,7 @@
         <v>91</v>
       </c>
       <c r="L938" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M938" t="s">
         <v>208</v>
@@ -58316,7 +58275,7 @@
         <v>94</v>
       </c>
       <c r="L939" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M939" t="s">
         <v>2303</v>
@@ -58421,7 +58380,7 @@
         <v>3127</v>
       </c>
       <c r="F942" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G942" t="s">
         <v>3128</v>
@@ -58480,7 +58439,7 @@
         <v>111</v>
       </c>
       <c r="L943" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M943" t="s">
         <v>673</v>
@@ -58644,7 +58603,7 @@
         <v>81</v>
       </c>
       <c r="L947" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M947" t="s">
         <v>726</v>
@@ -58685,7 +58644,7 @@
         <v>98</v>
       </c>
       <c r="L948" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M948" t="s">
         <v>2314</v>
@@ -58931,7 +58890,7 @@
         <v>110</v>
       </c>
       <c r="L954" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M954" t="s">
         <v>2326</v>
@@ -59013,7 +58972,7 @@
         <v>92</v>
       </c>
       <c r="L956" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M956" t="s">
         <v>783</v>
@@ -59054,7 +59013,7 @@
         <v>84</v>
       </c>
       <c r="L957" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M957" t="s">
         <v>2332</v>
@@ -59077,7 +59036,7 @@
         <v>3127</v>
       </c>
       <c r="F958" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G958" t="s">
         <v>3128</v>
@@ -59136,7 +59095,7 @@
         <v>100</v>
       </c>
       <c r="L959" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M959" t="s">
         <v>2124</v>
@@ -59382,7 +59341,7 @@
         <v>126</v>
       </c>
       <c r="L965" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M965" t="s">
         <v>2124</v>
@@ -59569,7 +59528,7 @@
         <v>3127</v>
       </c>
       <c r="F970" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G970" t="s">
         <v>3127</v>
@@ -59692,7 +59651,7 @@
         <v>3127</v>
       </c>
       <c r="F973" t="s">
-        <v>3178</v>
+        <v>3168</v>
       </c>
       <c r="G973" t="s">
         <v>3128</v>
@@ -59956,7 +59915,7 @@
         <v>96</v>
       </c>
       <c r="L979" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M979" t="s">
         <v>668</v>
@@ -60079,7 +60038,7 @@
         <v>82</v>
       </c>
       <c r="L982" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M982" t="s">
         <v>2141</v>
@@ -60120,7 +60079,7 @@
         <v>118</v>
       </c>
       <c r="L983" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M983" t="s">
         <v>86</v>
@@ -60243,7 +60202,7 @@
         <v>85</v>
       </c>
       <c r="L986" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="M986" t="s">
         <v>1910</v>
@@ -60407,7 +60366,7 @@
         <v>113</v>
       </c>
       <c r="L990" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M990" t="s">
         <v>112</v>
@@ -60512,7 +60471,7 @@
         <v>3127</v>
       </c>
       <c r="F993" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="G993" t="s">
         <v>3128</v>
@@ -60694,7 +60653,7 @@
         <v>91</v>
       </c>
       <c r="L997" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="M997" t="s">
         <v>2392</v>
@@ -60735,7 +60694,7 @@
         <v>91</v>
       </c>
       <c r="L998" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="M998" t="s">
         <v>2395</v>
@@ -60758,7 +60717,7 @@
         <v>3127</v>
       </c>
       <c r="F999" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="G999" t="s">
         <v>3128</v>
@@ -60817,7 +60776,7 @@
         <v>120</v>
       </c>
       <c r="L1000" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="M1000" t="s">
         <v>2399</v>
@@ -60944,11 +60903,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I687"/>
   <sheetViews>
-    <sheetView topLeftCell="A662" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G687" sqref="G687"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -61015,7 +60973,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2445</v>
       </c>
@@ -61067,7 +61025,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2439</v>
       </c>
@@ -61093,7 +61051,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2440</v>
       </c>
@@ -61171,7 +61129,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2443</v>
       </c>
@@ -61526,7 +61484,7 @@
         <v>3110</v>
       </c>
       <c r="F22" t="s">
-        <v>3146</v>
+        <v>3137</v>
       </c>
       <c r="G22" t="s">
         <v>3110</v>
@@ -61613,7 +61571,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2461</v>
       </c>
@@ -61685,13 +61643,13 @@
         <v>3111</v>
       </c>
       <c r="G28" t="s">
-        <v>3159</v>
+        <v>3149</v>
       </c>
       <c r="H28" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2464</v>
       </c>
@@ -61795,7 +61753,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2468</v>
       </c>
@@ -61899,7 +61857,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2472</v>
       </c>
@@ -61925,7 +61883,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2473</v>
       </c>
@@ -61965,7 +61923,7 @@
         <v>3110</v>
       </c>
       <c r="E39" t="s">
-        <v>3148</v>
+        <v>3138</v>
       </c>
       <c r="F39" t="s">
         <v>3110</v>
@@ -62029,7 +61987,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2477</v>
       </c>
@@ -62315,7 +62273,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2488</v>
       </c>
@@ -62419,7 +62377,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2492</v>
       </c>
@@ -62471,7 +62429,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2494</v>
       </c>
@@ -62913,7 +62871,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2511</v>
       </c>
@@ -62939,7 +62897,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2512</v>
       </c>
@@ -63017,7 +62975,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2515</v>
       </c>
@@ -63060,7 +63018,7 @@
         <v>3110</v>
       </c>
       <c r="F81" t="s">
-        <v>3156</v>
+        <v>3146</v>
       </c>
       <c r="G81" t="s">
         <v>3110</v>
@@ -63069,7 +63027,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2517</v>
       </c>
@@ -63095,7 +63053,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2518</v>
       </c>
@@ -63121,7 +63079,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2519</v>
       </c>
@@ -63303,7 +63261,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2526</v>
       </c>
@@ -63433,7 +63391,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2531</v>
       </c>
@@ -63551,7 +63509,7 @@
         <v>3110</v>
       </c>
       <c r="E100" t="s">
-        <v>3149</v>
+        <v>3139</v>
       </c>
       <c r="F100" t="s">
         <v>3110</v>
@@ -63745,7 +63703,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2422</v>
       </c>
@@ -63771,7 +63729,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2423</v>
       </c>
@@ -63901,7 +63859,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2428</v>
       </c>
@@ -64057,7 +64015,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>2434</v>
       </c>
@@ -64239,7 +64197,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3076</v>
       </c>
@@ -64291,7 +64249,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3078</v>
       </c>
@@ -64421,7 +64379,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3083</v>
       </c>
@@ -64525,7 +64483,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>3087</v>
       </c>
@@ -64551,7 +64509,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>3088</v>
       </c>
@@ -64681,7 +64639,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>2537</v>
       </c>
@@ -64733,7 +64691,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>2539</v>
       </c>
@@ -64759,7 +64717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>2540</v>
       </c>
@@ -64851,7 +64809,7 @@
         <v>3127</v>
       </c>
       <c r="E150" t="s">
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="F150" t="s">
         <v>3127</v>
@@ -64863,7 +64821,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>2544</v>
       </c>
@@ -64889,7 +64847,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>2545</v>
       </c>
@@ -64935,7 +64893,7 @@
         <v>3127</v>
       </c>
       <c r="G153" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H153" t="s">
         <v>2382</v>
@@ -65059,7 +65017,7 @@
         <v>3127</v>
       </c>
       <c r="E158" t="s">
-        <v>3151</v>
+        <v>3141</v>
       </c>
       <c r="F158" t="s">
         <v>3127</v>
@@ -65195,7 +65153,7 @@
         <v>3127</v>
       </c>
       <c r="G163" t="s">
-        <v>3161</v>
+        <v>3151</v>
       </c>
       <c r="H163" t="s">
         <v>505</v>
@@ -65253,7 +65211,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>2559</v>
       </c>
@@ -65305,7 +65263,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>2561</v>
       </c>
@@ -65435,7 +65393,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>2566</v>
       </c>
@@ -65513,7 +65471,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>2569</v>
       </c>
@@ -65585,7 +65543,7 @@
         <v>3127</v>
       </c>
       <c r="G178" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H178" t="s">
         <v>1315</v>
@@ -65660,7 +65618,7 @@
         <v>3127</v>
       </c>
       <c r="F181" t="s">
-        <v>3157</v>
+        <v>3147</v>
       </c>
       <c r="G181" t="s">
         <v>3127</v>
@@ -65721,7 +65679,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>2577</v>
       </c>
@@ -65929,7 +65887,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>2585</v>
       </c>
@@ -66033,7 +65991,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>2589</v>
       </c>
@@ -66079,7 +66037,7 @@
         <v>3127</v>
       </c>
       <c r="G197" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H197" t="s">
         <v>1355</v>
@@ -66163,7 +66121,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>2594</v>
       </c>
@@ -66411,13 +66369,13 @@
         <v>3127</v>
       </c>
       <c r="E210" t="s">
-        <v>3152</v>
+        <v>3142</v>
       </c>
       <c r="F210" t="s">
         <v>3127</v>
       </c>
       <c r="G210" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H210" t="s">
         <v>165</v>
@@ -66475,7 +66433,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>2606</v>
       </c>
@@ -66553,7 +66511,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>2609</v>
       </c>
@@ -66605,7 +66563,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>2611</v>
       </c>
@@ -66631,7 +66589,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>2612</v>
       </c>
@@ -66657,7 +66615,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>2613</v>
       </c>
@@ -66709,7 +66667,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>2615</v>
       </c>
@@ -66735,7 +66693,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>2616</v>
       </c>
@@ -66761,7 +66719,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>2617</v>
       </c>
@@ -66787,7 +66745,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>2618</v>
       </c>
@@ -66813,7 +66771,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>2619</v>
       </c>
@@ -66865,7 +66823,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>2621</v>
       </c>
@@ -66891,7 +66849,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>2622</v>
       </c>
@@ -66989,7 +66947,7 @@
         <v>3127</v>
       </c>
       <c r="G232" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H232" t="s">
         <v>1762</v>
@@ -67249,13 +67207,13 @@
         <v>3128</v>
       </c>
       <c r="G242" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H242" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>2636</v>
       </c>
@@ -67307,7 +67265,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>2638</v>
       </c>
@@ -67411,7 +67369,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>2642</v>
       </c>
@@ -67437,7 +67395,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>2643</v>
       </c>
@@ -67489,7 +67447,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>2645</v>
       </c>
@@ -67665,7 +67623,7 @@
         <v>3127</v>
       </c>
       <c r="G258" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H258" t="s">
         <v>295</v>
@@ -67931,7 +67889,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>2662</v>
       </c>
@@ -68009,7 +67967,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>2665</v>
       </c>
@@ -68055,7 +68013,7 @@
         <v>3127</v>
       </c>
       <c r="G273" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H273" t="s">
         <v>1300</v>
@@ -68087,7 +68045,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>2668</v>
       </c>
@@ -68139,7 +68097,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>2670</v>
       </c>
@@ -68165,7 +68123,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>2671</v>
       </c>
@@ -68373,7 +68331,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>2678</v>
       </c>
@@ -68451,7 +68409,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>2681</v>
       </c>
@@ -68503,7 +68461,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>2683</v>
       </c>
@@ -68529,7 +68487,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>2684</v>
       </c>
@@ -68607,7 +68565,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>2687</v>
       </c>
@@ -68633,7 +68591,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>2688</v>
       </c>
@@ -68659,7 +68617,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>2689</v>
       </c>
@@ -68705,7 +68663,7 @@
         <v>3128</v>
       </c>
       <c r="G298" t="s">
-        <v>3162</v>
+        <v>3152</v>
       </c>
       <c r="H298" t="s">
         <v>1743</v>
@@ -68737,7 +68695,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>2692</v>
       </c>
@@ -68971,7 +68929,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>2701</v>
       </c>
@@ -68997,7 +68955,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>2702</v>
       </c>
@@ -69205,7 +69163,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>2710</v>
       </c>
@@ -69277,7 +69235,7 @@
         <v>3127</v>
       </c>
       <c r="G320" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H320" t="s">
         <v>1737</v>
@@ -69491,7 +69449,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>2721</v>
       </c>
@@ -69647,7 +69605,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>2727</v>
       </c>
@@ -69719,13 +69677,13 @@
         <v>3128</v>
       </c>
       <c r="G337" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H337" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>2730</v>
       </c>
@@ -69751,7 +69709,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>2731</v>
       </c>
@@ -69933,7 +69891,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>2738</v>
       </c>
@@ -69959,7 +69917,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>2739</v>
       </c>
@@ -69985,7 +69943,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>2740</v>
       </c>
@@ -70089,7 +70047,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>2744</v>
       </c>
@@ -70132,7 +70090,7 @@
         <v>3127</v>
       </c>
       <c r="F353" t="s">
-        <v>3158</v>
+        <v>3148</v>
       </c>
       <c r="G353" t="s">
         <v>3127</v>
@@ -70239,13 +70197,13 @@
         <v>3127</v>
       </c>
       <c r="G357" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="H357" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>2750</v>
       </c>
@@ -70323,7 +70281,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>2753</v>
       </c>
@@ -70375,7 +70333,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>2755</v>
       </c>
@@ -70401,7 +70359,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>2756</v>
       </c>
@@ -70427,7 +70385,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>2757</v>
       </c>
@@ -70479,7 +70437,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>2759</v>
       </c>
@@ -70505,7 +70463,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>2760</v>
       </c>
@@ -70557,7 +70515,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>2762</v>
       </c>
@@ -70583,7 +70541,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>2763</v>
       </c>
@@ -70661,7 +70619,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>2766</v>
       </c>
@@ -70817,7 +70775,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>2772</v>
       </c>
@@ -70915,7 +70873,7 @@
         <v>3127</v>
       </c>
       <c r="G383" t="s">
-        <v>3163</v>
+        <v>3153</v>
       </c>
       <c r="H383" t="s">
         <v>1308</v>
@@ -71025,7 +70983,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>2780</v>
       </c>
@@ -71155,7 +71113,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>2785</v>
       </c>
@@ -71181,7 +71139,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>2786</v>
       </c>
@@ -71389,7 +71347,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>2794</v>
       </c>
@@ -71571,7 +71529,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>2800</v>
       </c>
@@ -71597,7 +71555,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>3095</v>
       </c>
@@ -71623,7 +71581,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>2801</v>
       </c>
@@ -71675,7 +71633,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>2803</v>
       </c>
@@ -72013,7 +71971,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>2816</v>
       </c>
@@ -72039,7 +71997,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>2817</v>
       </c>
@@ -72299,7 +72257,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>2827</v>
       </c>
@@ -72429,7 +72387,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>2832</v>
       </c>
@@ -72715,7 +72673,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>2843</v>
       </c>
@@ -72767,7 +72725,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>2845</v>
       </c>
@@ -72819,7 +72777,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>2847</v>
       </c>
@@ -72923,7 +72881,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>2851</v>
       </c>
@@ -72949,7 +72907,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>2852</v>
       </c>
@@ -73041,7 +72999,7 @@
         <v>3117</v>
       </c>
       <c r="E465" t="s">
-        <v>3153</v>
+        <v>3143</v>
       </c>
       <c r="F465" t="s">
         <v>3119</v>
@@ -73125,7 +73083,7 @@
         <v>3119</v>
       </c>
       <c r="G468" t="s">
-        <v>3164</v>
+        <v>3154</v>
       </c>
       <c r="H468" t="s">
         <v>2124</v>
@@ -73313,7 +73271,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>2866</v>
       </c>
@@ -73339,7 +73297,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>2867</v>
       </c>
@@ -73703,7 +73661,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>2881</v>
       </c>
@@ -73729,7 +73687,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>2882</v>
       </c>
@@ -73755,7 +73713,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>2883</v>
       </c>
@@ -74119,7 +74077,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>2897</v>
       </c>
@@ -74318,7 +74276,7 @@
         <v>3122</v>
       </c>
       <c r="F514" t="s">
-        <v>3149</v>
+        <v>3139</v>
       </c>
       <c r="G514" t="s">
         <v>3121</v>
@@ -74431,7 +74389,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>2909</v>
       </c>
@@ -74457,7 +74415,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>2910</v>
       </c>
@@ -74483,7 +74441,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>2911</v>
       </c>
@@ -74535,7 +74493,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>2913</v>
       </c>
@@ -74769,7 +74727,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>2922</v>
       </c>
@@ -75017,7 +74975,7 @@
         <v>3117</v>
       </c>
       <c r="E541" t="s">
-        <v>3155</v>
+        <v>3145</v>
       </c>
       <c r="F541" t="s">
         <v>3119</v>
@@ -75159,7 +75117,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>2937</v>
       </c>
@@ -75367,7 +75325,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>2945</v>
       </c>
@@ -75393,7 +75351,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>2946</v>
       </c>
@@ -75491,7 +75449,7 @@
         <v>3110</v>
       </c>
       <c r="G559" t="s">
-        <v>3165</v>
+        <v>3155</v>
       </c>
       <c r="H559" t="s">
         <v>1255</v>
@@ -75549,7 +75507,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>2950</v>
       </c>
@@ -75575,7 +75533,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>2951</v>
       </c>
@@ -75653,7 +75611,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>2954</v>
       </c>
@@ -75722,7 +75680,7 @@
         <v>3125</v>
       </c>
       <c r="F568" t="s">
-        <v>3148</v>
+        <v>3138</v>
       </c>
       <c r="G568" t="s">
         <v>3110</v>
@@ -75797,7 +75755,7 @@
         <v>3110</v>
       </c>
       <c r="E571" t="s">
-        <v>3148</v>
+        <v>3138</v>
       </c>
       <c r="F571" t="s">
         <v>3110</v>
@@ -75809,7 +75767,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>2960</v>
       </c>
@@ -75887,7 +75845,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>2963</v>
       </c>
@@ -75913,7 +75871,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>2964</v>
       </c>
@@ -75965,7 +75923,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>2966</v>
       </c>
@@ -75991,7 +75949,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>2967</v>
       </c>
@@ -76251,7 +76209,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>2977</v>
       </c>
@@ -76349,13 +76307,13 @@
         <v>3110</v>
       </c>
       <c r="G592" t="s">
-        <v>3164</v>
+        <v>3154</v>
       </c>
       <c r="H592" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>2981</v>
       </c>
@@ -76381,7 +76339,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>2982</v>
       </c>
@@ -76433,7 +76391,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>2984</v>
       </c>
@@ -76485,7 +76443,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>2986</v>
       </c>
@@ -76641,7 +76599,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>2992</v>
       </c>
@@ -76693,7 +76651,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>2994</v>
       </c>
@@ -76719,7 +76677,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>2995</v>
       </c>
@@ -76849,7 +76807,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>3000</v>
       </c>
@@ -76901,7 +76859,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>3002</v>
       </c>
@@ -76927,7 +76885,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>3003</v>
       </c>
@@ -76979,7 +76937,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>3005</v>
       </c>
@@ -77135,7 +77093,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>3011</v>
       </c>
@@ -77291,7 +77249,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>3017</v>
       </c>
@@ -77343,7 +77301,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>3019</v>
       </c>
@@ -77369,7 +77327,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>3020</v>
       </c>
@@ -77447,7 +77405,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>3023</v>
       </c>
@@ -77473,7 +77431,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>3024</v>
       </c>
@@ -77539,7 +77497,7 @@
         <v>3110</v>
       </c>
       <c r="E638" t="s">
-        <v>3154</v>
+        <v>3144</v>
       </c>
       <c r="F638" t="s">
         <v>3110</v>
@@ -77799,7 +77757,7 @@
         <v>3110</v>
       </c>
       <c r="E648" t="s">
-        <v>3154</v>
+        <v>3144</v>
       </c>
       <c r="F648" t="s">
         <v>3110</v>
@@ -77863,7 +77821,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>3039</v>
       </c>
@@ -77889,7 +77847,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>3040</v>
       </c>
@@ -78071,7 +78029,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>3047</v>
       </c>
@@ -78279,7 +78237,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>3055</v>
       </c>
@@ -78565,7 +78523,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>3066</v>
       </c>
@@ -78721,7 +78679,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>3102</v>
       </c>
@@ -78826,83 +78784,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H687">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>3137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3146</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3140</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>